--- a/Proyecto/data/horarioProfesores.xlsx
+++ b/Proyecto/data/horarioProfesores.xlsx
@@ -66,163 +66,163 @@
     <t>Profesor4SegundoN_Ap</t>
   </si>
   <si>
+    <t>21IE3028</t>
+  </si>
+  <si>
+    <t>11IE3048</t>
+  </si>
+  <si>
+    <t>11IE2008</t>
+  </si>
+  <si>
     <t>22IE2009</t>
   </si>
   <si>
+    <t>Profesor4SegundoN_Apellido1Apellido2</t>
+  </si>
+  <si>
+    <t>22IE2009, 10IE3049</t>
+  </si>
+  <si>
+    <t>11IE2010</t>
+  </si>
+  <si>
+    <t>20IE2010</t>
+  </si>
+  <si>
+    <t>20IE2009</t>
+  </si>
+  <si>
+    <t>30IE2009</t>
+  </si>
+  <si>
+    <t>10IE3049</t>
+  </si>
+  <si>
+    <t>11IE2010, 11IE2008</t>
+  </si>
+  <si>
+    <t>Miguelnose_apellidoa</t>
+  </si>
+  <si>
+    <t>10IE3048</t>
+  </si>
+  <si>
+    <t>Miguelnose_apellidoapellido2</t>
+  </si>
+  <si>
+    <t>10IE2009</t>
+  </si>
+  <si>
+    <t>DiegoPablo_RegaladoS</t>
+  </si>
+  <si>
+    <t>12IE2011, 10IE2008</t>
+  </si>
+  <si>
+    <t>12IE2011, 10IE2016, 20IE3028</t>
+  </si>
+  <si>
+    <t>11IE3028</t>
+  </si>
+  <si>
+    <t>DiegoPablo_RegaladoSamayoa</t>
+  </si>
+  <si>
+    <t>12IE2010</t>
+  </si>
+  <si>
+    <t>12IE2011</t>
+  </si>
+  <si>
+    <t>11IE2013</t>
+  </si>
+  <si>
+    <t>11IE3049</t>
+  </si>
+  <si>
+    <t>10IE2016</t>
+  </si>
+  <si>
+    <t>10IE2008</t>
+  </si>
+  <si>
+    <t>20IE3028</t>
+  </si>
+  <si>
+    <t>12IE2011, 11IE3049</t>
+  </si>
+  <si>
+    <t>Profesor5segundoN5_A</t>
+  </si>
+  <si>
+    <t>12IE2009</t>
+  </si>
+  <si>
+    <t>22IE2010</t>
+  </si>
+  <si>
+    <t>Profesor5segundoN5_Apellido1Apellido2</t>
+  </si>
+  <si>
+    <t>21IE2009</t>
+  </si>
+  <si>
+    <t>32IE2010</t>
+  </si>
+  <si>
+    <t>12IE2009, 10IE2010</t>
+  </si>
+  <si>
+    <t>11IE2011</t>
+  </si>
+  <si>
+    <t>12IE2013</t>
+  </si>
+  <si>
+    <t>21IE2009, 32IE2010</t>
+  </si>
+  <si>
+    <t>12IE2013, 10IE2010</t>
+  </si>
+  <si>
+    <t>30IE2010</t>
+  </si>
+  <si>
+    <t>10IE2010</t>
+  </si>
+  <si>
+    <t>10IE2011</t>
+  </si>
+  <si>
+    <t>10IE2013</t>
+  </si>
+  <si>
+    <t>MaurucioRodrigo_Apel</t>
+  </si>
+  <si>
+    <t>31IE2010, 10IE3028</t>
+  </si>
+  <si>
+    <t>21IE2010</t>
+  </si>
+  <si>
+    <t>MaurucioRodrigo_Apellido1Sepa</t>
+  </si>
+  <si>
+    <t>12IE3028</t>
+  </si>
+  <si>
+    <t>11IE2009</t>
+  </si>
+  <si>
+    <t>31IE2010</t>
+  </si>
+  <si>
     <t>31IE2009</t>
   </si>
   <si>
-    <t>21IE2010</t>
-  </si>
-  <si>
-    <t>Profesor4SegundoN_Apellido1Apellido2</t>
-  </si>
-  <si>
-    <t>12IE3028</t>
-  </si>
-  <si>
-    <t>21IE3028</t>
-  </si>
-  <si>
-    <t>32IE2010</t>
-  </si>
-  <si>
-    <t>12IE2009</t>
-  </si>
-  <si>
     <t>10IE3028</t>
-  </si>
-  <si>
-    <t>10IE3048</t>
-  </si>
-  <si>
-    <t>30IE2010</t>
-  </si>
-  <si>
-    <t>30IE2009</t>
-  </si>
-  <si>
-    <t>12IE3028, 10IE3028</t>
-  </si>
-  <si>
-    <t>32IE2010, 30IE2009</t>
-  </si>
-  <si>
-    <t>21IE2010, 32IE2010</t>
-  </si>
-  <si>
-    <t>Miguelnose_apellidoa</t>
-  </si>
-  <si>
-    <t>21IE2009</t>
-  </si>
-  <si>
-    <t>Miguelnose_apellidoapellido2</t>
-  </si>
-  <si>
-    <t>12IE2010</t>
-  </si>
-  <si>
-    <t>11IE2011</t>
-  </si>
-  <si>
-    <t>10IE3049</t>
-  </si>
-  <si>
-    <t>DiegoPablo_RegaladoS</t>
-  </si>
-  <si>
-    <t>12IE2011</t>
-  </si>
-  <si>
-    <t>DiegoPablo_RegaladoSamayoa</t>
-  </si>
-  <si>
-    <t>11IE2013</t>
-  </si>
-  <si>
-    <t>12IE2013</t>
-  </si>
-  <si>
-    <t>11IE3049</t>
-  </si>
-  <si>
-    <t>11IE2009</t>
-  </si>
-  <si>
-    <t>10IE2009</t>
-  </si>
-  <si>
-    <t>20IE3028</t>
-  </si>
-  <si>
-    <t>11IE2009, 11IE2009</t>
-  </si>
-  <si>
-    <t>12IE2011, 10IE2009</t>
-  </si>
-  <si>
-    <t>Profesor5segundoN5_A</t>
-  </si>
-  <si>
-    <t>21IE3028, 10IE2008</t>
-  </si>
-  <si>
-    <t>31IE2010</t>
-  </si>
-  <si>
-    <t>Profesor5segundoN5_Apellido1Apellido2</t>
-  </si>
-  <si>
-    <t>20IE2010</t>
-  </si>
-  <si>
-    <t>20IE2009</t>
-  </si>
-  <si>
-    <t>10IE2016</t>
-  </si>
-  <si>
-    <t>21IE3028, 10IE2010</t>
-  </si>
-  <si>
-    <t>10IE2010</t>
-  </si>
-  <si>
-    <t>10IE2011</t>
-  </si>
-  <si>
-    <t>10IE2013</t>
-  </si>
-  <si>
-    <t>10IE2008</t>
-  </si>
-  <si>
-    <t>21IE3028, 20IE2009</t>
-  </si>
-  <si>
-    <t>MaurucioRodrigo_Apel</t>
-  </si>
-  <si>
-    <t>11IE3048</t>
-  </si>
-  <si>
-    <t>22IE2010</t>
-  </si>
-  <si>
-    <t>MaurucioRodrigo_Apellido1Sepa</t>
-  </si>
-  <si>
-    <t>11IE3028</t>
-  </si>
-  <si>
-    <t>11IE2010</t>
-  </si>
-  <si>
-    <t>11IE2008</t>
-  </si>
-  <si>
-    <t>11IE3048, 11IE2010</t>
   </si>
 </sst>
 </file>
@@ -1279,22 +1279,22 @@
       <c s="2" r="C5" t="n">
         <v>0.3229166666666667</v>
       </c>
-      <c s="19" r="D5" t="s">
+      <c s="24" r="D5" t="s"/>
+      <c s="24" r="E5" t="s">
         <v>15</v>
       </c>
-      <c s="19" r="E5" t="s">
+      <c s="24" r="F5" t="s">
         <v>16</v>
       </c>
-      <c s="19" r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c s="19" r="G5" t="s"/>
-      <c s="24" r="H5" t="s"/>
+      <c s="24" r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c s="19" r="H5" t="s"/>
       <c s="20" r="I5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c s="21" r="J5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c s="20" r="K5" t="s"/>
       <c s="21" r="L5" t="s"/>
@@ -1309,16 +1309,22 @@
       <c s="2" r="C6" t="n">
         <v>0.3576388888888889</v>
       </c>
-      <c s="19" r="D6" t="s"/>
-      <c s="19" r="E6" t="s"/>
-      <c s="19" r="F6" t="s"/>
-      <c s="19" r="G6" t="s"/>
-      <c s="24" r="H6" t="s"/>
+      <c s="24" r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c s="24" r="E6" t="s"/>
+      <c s="24" r="F6" t="s"/>
+      <c s="24" r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c s="19" r="H6" t="s">
+        <v>15</v>
+      </c>
       <c s="20" r="I6" t="s">
+        <v>16</v>
+      </c>
+      <c s="21" r="J6" t="s">
         <v>19</v>
-      </c>
-      <c s="21" r="J6" t="s">
-        <v>18</v>
       </c>
       <c s="20" r="K6" t="s"/>
       <c s="21" r="L6" t="s"/>
@@ -1333,18 +1339,22 @@
       <c s="2" r="C7" t="n">
         <v>0.3923611111111111</v>
       </c>
-      <c s="19" r="D7" t="s"/>
-      <c s="19" r="E7" t="s">
+      <c s="24" r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c s="24" r="E7" t="s"/>
+      <c s="24" r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c s="24" r="G7" t="s">
+        <v>18</v>
+      </c>
+      <c s="19" r="H7" t="s"/>
+      <c s="20" r="I7" t="s">
+        <v>21</v>
+      </c>
+      <c s="21" r="J7" t="s">
         <v>19</v>
-      </c>
-      <c s="19" r="F7" t="s"/>
-      <c s="19" r="G7" t="s"/>
-      <c s="24" r="H7" t="s"/>
-      <c s="20" r="I7" t="s">
-        <v>15</v>
-      </c>
-      <c s="21" r="J7" t="s">
-        <v>18</v>
       </c>
       <c s="20" r="K7" t="s"/>
       <c s="21" r="L7" t="s"/>
@@ -1359,18 +1369,16 @@
       <c s="2" r="C8" t="n">
         <v>0.4270833333333333</v>
       </c>
-      <c s="19" r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c s="19" r="E8" t="s"/>
-      <c s="19" r="F8" t="s"/>
-      <c s="19" r="G8" t="s"/>
-      <c s="24" r="H8" t="s"/>
+      <c s="24" r="D8" t="s"/>
+      <c s="24" r="E8" t="s"/>
+      <c s="24" r="F8" t="s"/>
+      <c s="24" r="G8" t="s"/>
+      <c s="19" r="H8" t="s"/>
       <c s="20" r="I8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c s="21" r="J8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c s="20" r="K8" t="s"/>
       <c s="21" r="L8" t="s"/>
@@ -1391,10 +1399,10 @@
       <c s="23" r="G9" t="s"/>
       <c s="22" r="H9" t="s"/>
       <c s="20" r="I9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c s="21" r="J9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c s="20" r="K9" t="s"/>
       <c s="21" r="L9" t="s"/>
@@ -1409,18 +1417,18 @@
       <c s="2" r="C10" t="n">
         <v>0.4756944444444444</v>
       </c>
-      <c s="19" r="D10" t="s"/>
-      <c s="19" r="E10" t="s"/>
-      <c s="19" r="F10" t="s"/>
-      <c s="19" r="G10" t="s"/>
-      <c s="24" r="H10" t="s">
-        <v>20</v>
-      </c>
+      <c s="24" r="D10" t="s"/>
+      <c s="24" r="E10" t="s"/>
+      <c s="24" r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c s="24" r="G10" t="s"/>
+      <c s="19" r="H10" t="s"/>
       <c s="20" r="I10" t="s">
         <v>22</v>
       </c>
       <c s="21" r="J10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c s="20" r="K10" t="s"/>
       <c s="21" r="L10" t="s"/>
@@ -1435,20 +1443,16 @@
       <c s="2" r="C11" t="n">
         <v>0.5104166666666666</v>
       </c>
-      <c s="19" r="D11" t="s"/>
-      <c s="19" r="E11" t="s">
-        <v>20</v>
-      </c>
-      <c s="19" r="F11" t="s"/>
-      <c s="19" r="G11" t="s"/>
-      <c s="24" r="H11" t="s">
-        <v>15</v>
-      </c>
+      <c s="24" r="D11" t="s"/>
+      <c s="24" r="E11" t="s"/>
+      <c s="24" r="F11" t="s"/>
+      <c s="24" r="G11" t="s"/>
+      <c s="19" r="H11" t="s"/>
       <c s="20" r="I11" t="s">
         <v>23</v>
       </c>
       <c s="21" r="J11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c s="20" r="K11" t="s"/>
       <c s="21" r="L11" t="s"/>
@@ -1463,18 +1467,16 @@
       <c s="2" r="C12" t="n">
         <v>0.5451388888888888</v>
       </c>
-      <c s="19" r="D12" t="s"/>
-      <c s="19" r="E12" t="s"/>
-      <c s="19" r="F12" t="s"/>
-      <c s="19" r="G12" t="s">
-        <v>22</v>
-      </c>
-      <c s="24" r="H12" t="s"/>
+      <c s="24" r="D12" t="s"/>
+      <c s="24" r="E12" t="s"/>
+      <c s="24" r="F12" t="s"/>
+      <c s="24" r="G12" t="s"/>
+      <c s="19" r="H12" t="s"/>
       <c s="20" r="I12" t="s">
         <v>24</v>
       </c>
       <c s="21" r="J12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c s="20" r="K12" t="s"/>
       <c s="21" r="L12" t="s"/>
@@ -1489,20 +1491,20 @@
       <c s="2" r="C13" t="n">
         <v>0.5798611111111112</v>
       </c>
-      <c s="19" r="D13" t="s"/>
-      <c s="19" r="E13" t="s">
-        <v>20</v>
-      </c>
-      <c s="19" r="F13" t="s"/>
-      <c s="19" r="G13" t="s">
-        <v>21</v>
-      </c>
-      <c s="24" r="H13" t="s"/>
+      <c s="24" r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c s="24" r="E13" t="s"/>
+      <c s="24" r="F13" t="s">
+        <v>15</v>
+      </c>
+      <c s="24" r="G13" t="s"/>
+      <c s="19" r="H13" t="s"/>
       <c s="20" r="I13" t="s">
         <v>25</v>
       </c>
       <c s="21" r="J13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c s="20" r="K13" t="s"/>
       <c s="21" r="L13" t="s"/>
@@ -1517,21 +1519,13 @@
       <c s="2" r="C14" t="n">
         <v>0.6145833333333334</v>
       </c>
-      <c s="19" r="D14" t="s">
-        <v>19</v>
-      </c>
-      <c s="19" r="E14" t="s"/>
-      <c s="19" r="F14" t="s">
-        <v>15</v>
-      </c>
-      <c s="19" r="G14" t="s"/>
-      <c s="24" r="H14" t="s"/>
-      <c s="20" r="I14" t="s">
-        <v>26</v>
-      </c>
-      <c s="21" r="J14" t="s">
-        <v>18</v>
-      </c>
+      <c s="24" r="D14" t="s"/>
+      <c s="24" r="E14" t="s"/>
+      <c s="24" r="F14" t="s"/>
+      <c s="24" r="G14" t="s"/>
+      <c s="19" r="H14" t="s"/>
+      <c s="20" r="I14" t="s"/>
+      <c s="21" r="J14" t="s"/>
       <c s="20" r="K14" t="s"/>
       <c s="21" r="L14" t="s"/>
     </row>
@@ -1545,15 +1539,15 @@
       <c s="2" r="C15" t="n">
         <v>0.6493055555555556</v>
       </c>
-      <c s="19" r="D15" t="s"/>
-      <c s="19" r="E15" t="s">
-        <v>16</v>
-      </c>
-      <c s="19" r="F15" t="s">
-        <v>17</v>
-      </c>
-      <c s="19" r="G15" t="s"/>
-      <c s="24" r="H15" t="s"/>
+      <c s="24" r="D15" t="s"/>
+      <c s="24" r="E15" t="s">
+        <v>15</v>
+      </c>
+      <c s="24" r="F15" t="s"/>
+      <c s="24" r="G15" t="s">
+        <v>26</v>
+      </c>
+      <c s="19" r="H15" t="s"/>
       <c s="20" r="I15" t="s"/>
       <c s="21" r="J15" t="s"/>
       <c s="20" r="K15" t="s"/>
@@ -1569,15 +1563,13 @@
       <c s="2" r="C16" t="n">
         <v>0.6840277777777778</v>
       </c>
-      <c s="19" r="D16" t="s">
-        <v>27</v>
-      </c>
-      <c s="19" r="E16" t="s"/>
-      <c s="19" r="F16" t="s"/>
-      <c s="19" r="G16" t="s">
-        <v>28</v>
-      </c>
-      <c s="24" r="H16" t="s"/>
+      <c s="24" r="D16" t="s"/>
+      <c s="24" r="E16" t="s"/>
+      <c s="24" r="F16" t="s"/>
+      <c s="24" r="G16" t="s">
+        <v>15</v>
+      </c>
+      <c s="19" r="H16" t="s"/>
       <c s="20" r="I16" t="s"/>
       <c s="21" r="J16" t="s"/>
       <c s="20" r="K16" t="s"/>
@@ -1593,17 +1585,13 @@
       <c s="2" r="C17" t="n">
         <v>0.71875</v>
       </c>
-      <c s="19" r="D17" t="s"/>
-      <c s="19" r="E17" t="s"/>
-      <c s="19" r="F17" t="s">
-        <v>22</v>
-      </c>
-      <c s="19" r="G17" t="s">
-        <v>20</v>
-      </c>
-      <c s="24" r="H17" t="s">
-        <v>29</v>
-      </c>
+      <c s="24" r="D17" t="s">
+        <v>16</v>
+      </c>
+      <c s="24" r="E17" t="s"/>
+      <c s="24" r="F17" t="s"/>
+      <c s="24" r="G17" t="s"/>
+      <c s="19" r="H17" t="s"/>
       <c s="20" r="I17" t="s"/>
       <c s="21" r="J17" t="s"/>
       <c s="20" r="K17" t="s"/>
@@ -1619,13 +1607,11 @@
       <c s="2" r="C18" t="n">
         <v>0.7534722222222222</v>
       </c>
-      <c s="19" r="D18" t="s"/>
-      <c s="19" r="E18" t="s"/>
-      <c s="19" r="F18" t="s"/>
-      <c s="19" r="G18" t="s">
-        <v>17</v>
-      </c>
-      <c s="24" r="H18" t="s"/>
+      <c s="24" r="D18" t="s"/>
+      <c s="24" r="E18" t="s"/>
+      <c s="24" r="F18" t="s"/>
+      <c s="24" r="G18" t="s"/>
+      <c s="19" r="H18" t="s"/>
       <c s="20" r="I18" t="s"/>
       <c s="21" r="J18" t="s"/>
       <c s="20" r="K18" t="s"/>
@@ -1641,13 +1627,15 @@
       <c s="2" r="C19" t="n">
         <v>0.7881944444444444</v>
       </c>
-      <c s="19" r="D19" t="s"/>
-      <c s="19" r="E19" t="s"/>
-      <c s="19" r="F19" t="s"/>
-      <c s="19" r="G19" t="s"/>
-      <c s="24" r="H19" t="s">
-        <v>20</v>
-      </c>
+      <c s="24" r="D19" t="s"/>
+      <c s="24" r="E19" t="s">
+        <v>21</v>
+      </c>
+      <c s="24" r="F19" t="s"/>
+      <c s="24" r="G19" t="s">
+        <v>15</v>
+      </c>
+      <c s="19" r="H19" t="s"/>
       <c s="20" r="I19" t="s"/>
       <c s="21" r="J19" t="s"/>
       <c s="20" r="K19" t="s"/>
@@ -1663,11 +1651,13 @@
       <c s="2" r="C20" t="n">
         <v>0.8229166666666666</v>
       </c>
-      <c s="19" r="D20" t="s"/>
-      <c s="19" r="E20" t="s"/>
-      <c s="19" r="F20" t="s"/>
-      <c s="19" r="G20" t="s"/>
-      <c s="24" r="H20" t="s"/>
+      <c s="24" r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c s="24" r="E20" t="s"/>
+      <c s="24" r="F20" t="s"/>
+      <c s="24" r="G20" t="s"/>
+      <c s="19" r="H20" t="s"/>
       <c s="20" r="I20" t="s"/>
       <c s="21" r="J20" t="s"/>
       <c s="20" r="K20" t="s"/>
@@ -1683,11 +1673,13 @@
       <c s="2" r="C21" t="n">
         <v>0.8576388888888888</v>
       </c>
-      <c s="19" r="D21" t="s"/>
-      <c s="19" r="E21" t="s"/>
-      <c s="19" r="F21" t="s"/>
-      <c s="19" r="G21" t="s"/>
-      <c s="24" r="H21" t="s"/>
+      <c s="24" r="D21" t="s"/>
+      <c s="24" r="E21" t="s"/>
+      <c s="24" r="F21" t="s"/>
+      <c s="24" r="G21" t="s">
+        <v>15</v>
+      </c>
+      <c s="19" r="H21" t="s"/>
       <c s="20" r="I21" t="s"/>
       <c s="21" r="J21" t="s"/>
       <c s="20" r="K21" t="s"/>
@@ -1703,13 +1695,17 @@
       <c s="2" r="C22" t="n">
         <v>0.8854166666666666</v>
       </c>
-      <c s="19" r="D22" t="s"/>
-      <c s="19" r="E22" t="s"/>
-      <c s="19" r="F22" t="s">
-        <v>22</v>
-      </c>
-      <c s="19" r="G22" t="s"/>
-      <c s="24" r="H22" t="s"/>
+      <c s="24" r="D22" t="s">
+        <v>15</v>
+      </c>
+      <c s="24" r="E22" t="s">
+        <v>21</v>
+      </c>
+      <c s="24" r="F22" t="s"/>
+      <c s="24" r="G22" t="s">
+        <v>18</v>
+      </c>
+      <c s="19" r="H22" t="s"/>
       <c s="20" r="I22" t="s"/>
       <c s="21" r="J22" t="s"/>
       <c s="20" r="K22" t="s"/>
@@ -1764,7 +1760,7 @@
         <v>2</v>
       </c>
       <c s="16" r="E2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c s="11" r="I2" t="s">
         <v>4</v>
@@ -1816,18 +1812,16 @@
       <c s="2" r="C5" t="n">
         <v>0.3229166666666667</v>
       </c>
-      <c s="19" r="D5" t="s">
-        <v>31</v>
-      </c>
+      <c s="19" r="D5" t="s"/>
       <c s="24" r="E5" t="s"/>
       <c s="24" r="F5" t="s"/>
       <c s="19" r="G5" t="s"/>
       <c s="19" r="H5" t="s"/>
       <c s="20" r="I5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c s="21" r="J5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c s="20" r="K5" t="s"/>
       <c s="21" r="L5" t="s"/>
@@ -1848,10 +1842,10 @@
       <c s="19" r="G6" t="s"/>
       <c s="19" r="H6" t="s"/>
       <c s="20" r="I6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c s="21" r="J6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c s="20" r="K6" t="s"/>
       <c s="21" r="L6" t="s"/>
@@ -1871,12 +1865,8 @@
       <c s="24" r="F7" t="s"/>
       <c s="19" r="G7" t="s"/>
       <c s="19" r="H7" t="s"/>
-      <c s="20" r="I7" t="s">
-        <v>34</v>
-      </c>
-      <c s="21" r="J7" t="s">
-        <v>32</v>
-      </c>
+      <c s="20" r="I7" t="s"/>
+      <c s="21" r="J7" t="s"/>
       <c s="20" r="K7" t="s"/>
       <c s="21" r="L7" t="s"/>
     </row>
@@ -1892,15 +1882,13 @@
       </c>
       <c s="19" r="D8" t="s"/>
       <c s="24" r="E8" t="s"/>
-      <c s="24" r="F8" t="s"/>
+      <c s="24" r="F8" t="s">
+        <v>15</v>
+      </c>
       <c s="19" r="G8" t="s"/>
       <c s="19" r="H8" t="s"/>
-      <c s="20" r="I8" t="s">
-        <v>35</v>
-      </c>
-      <c s="21" r="J8" t="s">
-        <v>32</v>
-      </c>
+      <c s="20" r="I8" t="s"/>
+      <c s="21" r="J8" t="s"/>
       <c s="20" r="K8" t="s"/>
       <c s="21" r="L8" t="s"/>
     </row>
@@ -1936,7 +1924,7 @@
       </c>
       <c s="19" r="D10" t="s"/>
       <c s="24" r="E10" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c s="24" r="F10" t="s"/>
       <c s="19" r="G10" t="s"/>
@@ -1956,10 +1944,10 @@
       <c s="2" r="C11" t="n">
         <v>0.5104166666666666</v>
       </c>
-      <c s="19" r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c s="24" r="E11" t="s"/>
+      <c s="19" r="D11" t="s"/>
+      <c s="24" r="E11" t="s">
+        <v>15</v>
+      </c>
       <c s="24" r="F11" t="s"/>
       <c s="19" r="G11" t="s"/>
       <c s="19" r="H11" t="s"/>
@@ -1980,9 +1968,7 @@
       </c>
       <c s="19" r="D12" t="s"/>
       <c s="24" r="E12" t="s"/>
-      <c s="24" r="F12" t="s">
-        <v>20</v>
-      </c>
+      <c s="24" r="F12" t="s"/>
       <c s="19" r="G12" t="s"/>
       <c s="19" r="H12" t="s"/>
       <c s="20" r="I12" t="s"/>
@@ -2001,9 +1987,7 @@
         <v>0.5798611111111112</v>
       </c>
       <c s="19" r="D13" t="s"/>
-      <c s="24" r="E13" t="s">
-        <v>34</v>
-      </c>
+      <c s="24" r="E13" t="s"/>
       <c s="24" r="F13" t="s"/>
       <c s="19" r="G13" t="s"/>
       <c s="19" r="H13" t="s"/>
@@ -2045,9 +2029,7 @@
       <c s="19" r="D15" t="s"/>
       <c s="24" r="E15" t="s"/>
       <c s="24" r="F15" t="s"/>
-      <c s="19" r="G15" t="s">
-        <v>31</v>
-      </c>
+      <c s="19" r="G15" t="s"/>
       <c s="19" r="H15" t="s"/>
       <c s="20" r="I15" t="s"/>
       <c s="21" r="J15" t="s"/>
@@ -2064,15 +2046,11 @@
       <c s="2" r="C16" t="n">
         <v>0.6840277777777778</v>
       </c>
-      <c s="19" r="D16" t="s">
-        <v>33</v>
-      </c>
+      <c s="19" r="D16" t="s"/>
       <c s="24" r="E16" t="s"/>
       <c s="24" r="F16" t="s"/>
       <c s="19" r="G16" t="s"/>
-      <c s="19" r="H16" t="s">
-        <v>20</v>
-      </c>
+      <c s="19" r="H16" t="s"/>
       <c s="20" r="I16" t="s"/>
       <c s="21" r="J16" t="s"/>
       <c s="20" r="K16" t="s"/>
@@ -2149,9 +2127,7 @@
         <v>0.8229166666666666</v>
       </c>
       <c s="19" r="D20" t="s"/>
-      <c s="24" r="E20" t="s">
-        <v>33</v>
-      </c>
+      <c s="24" r="E20" t="s"/>
       <c s="24" r="F20" t="s"/>
       <c s="19" r="G20" t="s"/>
       <c s="19" r="H20" t="s"/>
@@ -2170,9 +2146,7 @@
       <c s="2" r="C21" t="n">
         <v>0.8576388888888888</v>
       </c>
-      <c s="19" r="D21" t="s">
-        <v>34</v>
-      </c>
+      <c s="19" r="D21" t="s"/>
       <c s="24" r="E21" t="s"/>
       <c s="24" r="F21" t="s"/>
       <c s="19" r="G21" t="s"/>
@@ -2192,14 +2166,10 @@
       <c s="2" r="C22" t="n">
         <v>0.8854166666666666</v>
       </c>
-      <c s="19" r="D22" t="s">
-        <v>33</v>
-      </c>
+      <c s="19" r="D22" t="s"/>
       <c s="24" r="E22" t="s"/>
       <c s="24" r="F22" t="s"/>
-      <c s="19" r="G22" t="s">
-        <v>31</v>
-      </c>
+      <c s="19" r="G22" t="s"/>
       <c s="19" r="H22" t="s"/>
       <c s="20" r="I22" t="s"/>
       <c s="21" r="J22" t="s"/>
@@ -2255,7 +2225,7 @@
         <v>2</v>
       </c>
       <c s="16" r="E2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c s="11" r="I2" t="s">
         <v>4</v>
@@ -2307,16 +2277,20 @@
       <c s="2" r="C5" t="n">
         <v>0.3229166666666667</v>
       </c>
-      <c s="24" r="D5" t="s"/>
-      <c s="24" r="E5" t="s"/>
-      <c s="19" r="F5" t="s"/>
-      <c s="19" r="G5" t="s"/>
-      <c s="19" r="H5" t="s"/>
+      <c s="19" r="D5" t="s"/>
+      <c s="19" r="E5" t="s"/>
+      <c s="24" r="F5" t="s"/>
+      <c s="24" r="G5" t="s">
+        <v>32</v>
+      </c>
+      <c s="24" r="H5" t="s">
+        <v>33</v>
+      </c>
       <c s="20" r="I5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c s="21" r="J5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c s="20" r="K5" t="s"/>
       <c s="21" r="L5" t="s"/>
@@ -2331,16 +2305,22 @@
       <c s="2" r="C6" t="n">
         <v>0.3576388888888889</v>
       </c>
-      <c s="24" r="D6" t="s"/>
-      <c s="24" r="E6" t="s"/>
-      <c s="19" r="F6" t="s"/>
-      <c s="19" r="G6" t="s"/>
-      <c s="19" r="H6" t="s"/>
+      <c s="19" r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c s="19" r="E6" t="s"/>
+      <c s="24" r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c s="24" r="G6" t="s"/>
+      <c s="24" r="H6" t="s">
+        <v>15</v>
+      </c>
       <c s="20" r="I6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c s="21" r="J6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c s="20" r="K6" t="s"/>
       <c s="21" r="L6" t="s"/>
@@ -2355,16 +2335,20 @@
       <c s="2" r="C7" t="n">
         <v>0.3923611111111111</v>
       </c>
-      <c s="24" r="D7" t="s"/>
-      <c s="24" r="E7" t="s"/>
-      <c s="19" r="F7" t="s"/>
-      <c s="19" r="G7" t="s"/>
-      <c s="19" r="H7" t="s"/>
+      <c s="19" r="D7" t="s"/>
+      <c s="19" r="E7" t="s"/>
+      <c s="24" r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c s="24" r="G7" t="s"/>
+      <c s="24" r="H7" t="s">
+        <v>15</v>
+      </c>
       <c s="20" r="I7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c s="21" r="J7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c s="20" r="K7" t="s"/>
       <c s="21" r="L7" t="s"/>
@@ -2379,22 +2363,20 @@
       <c s="2" r="C8" t="n">
         <v>0.4270833333333333</v>
       </c>
-      <c s="24" r="D8" t="s"/>
-      <c s="24" r="E8" t="s"/>
-      <c s="19" r="F8" t="s">
-        <v>40</v>
-      </c>
-      <c s="19" r="G8" t="s">
-        <v>41</v>
-      </c>
-      <c s="19" r="H8" t="s">
-        <v>37</v>
-      </c>
+      <c s="19" r="D8" t="s"/>
+      <c s="19" r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c s="24" r="F8" t="s"/>
+      <c s="24" r="G8" t="s">
+        <v>38</v>
+      </c>
+      <c s="24" r="H8" t="s"/>
       <c s="20" r="I8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c s="21" r="J8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c s="20" r="K8" t="s"/>
       <c s="21" r="L8" t="s"/>
@@ -2415,10 +2397,10 @@
       <c s="23" r="G9" t="s"/>
       <c s="22" r="H9" t="s"/>
       <c s="20" r="I9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c s="21" r="J9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c s="20" r="K9" t="s"/>
       <c s="21" r="L9" t="s"/>
@@ -2433,18 +2415,18 @@
       <c s="2" r="C10" t="n">
         <v>0.4756944444444444</v>
       </c>
-      <c s="24" r="D10" t="s"/>
-      <c s="24" r="E10" t="s"/>
-      <c s="19" r="F10" t="s">
+      <c s="19" r="D10" t="s"/>
+      <c s="19" r="E10" t="s"/>
+      <c s="24" r="F10" t="s">
+        <v>34</v>
+      </c>
+      <c s="24" r="G10" t="s"/>
+      <c s="24" r="H10" t="s"/>
+      <c s="20" r="I10" t="s">
         <v>40</v>
       </c>
-      <c s="19" r="G10" t="s"/>
-      <c s="19" r="H10" t="s"/>
-      <c s="20" r="I10" t="s">
-        <v>43</v>
-      </c>
       <c s="21" r="J10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c s="20" r="K10" t="s"/>
       <c s="21" r="L10" t="s"/>
@@ -2459,22 +2441,18 @@
       <c s="2" r="C11" t="n">
         <v>0.5104166666666666</v>
       </c>
-      <c s="24" r="D11" t="s">
-        <v>39</v>
-      </c>
-      <c s="24" r="E11" t="s">
+      <c s="19" r="D11" t="s"/>
+      <c s="19" r="E11" t="s"/>
+      <c s="24" r="F11" t="s"/>
+      <c s="24" r="G11" t="s">
+        <v>36</v>
+      </c>
+      <c s="24" r="H11" t="s"/>
+      <c s="20" r="I11" t="s">
         <v>41</v>
       </c>
-      <c s="19" r="F11" t="s"/>
-      <c s="19" r="G11" t="s">
-        <v>20</v>
-      </c>
-      <c s="19" r="H11" t="s"/>
-      <c s="20" r="I11" t="s">
-        <v>44</v>
-      </c>
       <c s="21" r="J11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c s="20" r="K11" t="s"/>
       <c s="21" r="L11" t="s"/>
@@ -2489,13 +2467,21 @@
       <c s="2" r="C12" t="n">
         <v>0.5451388888888888</v>
       </c>
-      <c s="24" r="D12" t="s"/>
-      <c s="24" r="E12" t="s"/>
-      <c s="19" r="F12" t="s"/>
-      <c s="19" r="G12" t="s"/>
-      <c s="19" r="H12" t="s"/>
-      <c s="20" r="I12" t="s"/>
-      <c s="21" r="J12" t="s"/>
+      <c s="19" r="D12" t="s"/>
+      <c s="19" r="E12" t="s"/>
+      <c s="24" r="F12" t="s">
+        <v>38</v>
+      </c>
+      <c s="24" r="G12" t="s"/>
+      <c s="24" r="H12" t="s">
+        <v>39</v>
+      </c>
+      <c s="20" r="I12" t="s">
+        <v>42</v>
+      </c>
+      <c s="21" r="J12" t="s">
+        <v>35</v>
+      </c>
       <c s="20" r="K12" t="s"/>
       <c s="21" r="L12" t="s"/>
     </row>
@@ -2509,13 +2495,15 @@
       <c s="2" r="C13" t="n">
         <v>0.5798611111111112</v>
       </c>
-      <c s="24" r="D13" t="s"/>
-      <c s="24" r="E13" t="s">
-        <v>45</v>
-      </c>
-      <c s="19" r="F13" t="s"/>
-      <c s="19" r="G13" t="s"/>
-      <c s="19" r="H13" t="s"/>
+      <c s="19" r="D13" t="s">
+        <v>34</v>
+      </c>
+      <c s="19" r="E13" t="s"/>
+      <c s="24" r="F13" t="s"/>
+      <c s="24" r="G13" t="s"/>
+      <c s="24" r="H13" t="s">
+        <v>39</v>
+      </c>
       <c s="20" r="I13" t="s"/>
       <c s="21" r="J13" t="s"/>
       <c s="20" r="K13" t="s"/>
@@ -2531,13 +2519,13 @@
       <c s="2" r="C14" t="n">
         <v>0.6145833333333334</v>
       </c>
-      <c s="24" r="D14" t="s"/>
-      <c s="24" r="E14" t="s"/>
-      <c s="19" r="F14" t="s"/>
-      <c s="19" r="G14" t="s">
-        <v>41</v>
-      </c>
-      <c s="19" r="H14" t="s"/>
+      <c s="19" r="D14" t="s"/>
+      <c s="19" r="E14" t="s"/>
+      <c s="24" r="F14" t="s">
+        <v>36</v>
+      </c>
+      <c s="24" r="G14" t="s"/>
+      <c s="24" r="H14" t="s"/>
       <c s="20" r="I14" t="s"/>
       <c s="21" r="J14" t="s"/>
       <c s="20" r="K14" t="s"/>
@@ -2553,13 +2541,11 @@
       <c s="2" r="C15" t="n">
         <v>0.6493055555555556</v>
       </c>
-      <c s="24" r="D15" t="s"/>
-      <c s="24" r="E15" t="s"/>
-      <c s="19" r="F15" t="s"/>
-      <c s="19" r="G15" t="s"/>
-      <c s="19" r="H15" t="s">
-        <v>46</v>
-      </c>
+      <c s="19" r="D15" t="s"/>
+      <c s="19" r="E15" t="s"/>
+      <c s="24" r="F15" t="s"/>
+      <c s="24" r="G15" t="s"/>
+      <c s="24" r="H15" t="s"/>
       <c s="20" r="I15" t="s"/>
       <c s="21" r="J15" t="s"/>
       <c s="20" r="K15" t="s"/>
@@ -2575,15 +2561,11 @@
       <c s="2" r="C16" t="n">
         <v>0.6840277777777778</v>
       </c>
-      <c s="24" r="D16" t="s"/>
-      <c s="24" r="E16" t="s"/>
-      <c s="19" r="F16" t="s"/>
-      <c s="19" r="G16" t="s">
-        <v>20</v>
-      </c>
-      <c s="19" r="H16" t="s">
-        <v>40</v>
-      </c>
+      <c s="19" r="D16" t="s"/>
+      <c s="19" r="E16" t="s"/>
+      <c s="24" r="F16" t="s"/>
+      <c s="24" r="G16" t="s"/>
+      <c s="24" r="H16" t="s"/>
       <c s="20" r="I16" t="s"/>
       <c s="21" r="J16" t="s"/>
       <c s="20" r="K16" t="s"/>
@@ -2599,15 +2581,13 @@
       <c s="2" r="C17" t="n">
         <v>0.71875</v>
       </c>
-      <c s="24" r="D17" t="s">
-        <v>39</v>
-      </c>
-      <c s="24" r="E17" t="s"/>
-      <c s="19" r="F17" t="s"/>
-      <c s="19" r="G17" t="s"/>
-      <c s="19" r="H17" t="s">
-        <v>37</v>
-      </c>
+      <c s="19" r="D17" t="s"/>
+      <c s="19" r="E17" t="s"/>
+      <c s="24" r="F17" t="s"/>
+      <c s="24" r="G17" t="s">
+        <v>43</v>
+      </c>
+      <c s="24" r="H17" t="s"/>
       <c s="20" r="I17" t="s"/>
       <c s="21" r="J17" t="s"/>
       <c s="20" r="K17" t="s"/>
@@ -2623,13 +2603,11 @@
       <c s="2" r="C18" t="n">
         <v>0.7534722222222222</v>
       </c>
-      <c s="24" r="D18" t="s"/>
-      <c s="24" r="E18" t="s"/>
-      <c s="19" r="F18" t="s">
-        <v>20</v>
-      </c>
-      <c s="19" r="G18" t="s"/>
-      <c s="19" r="H18" t="s"/>
+      <c s="19" r="D18" t="s"/>
+      <c s="19" r="E18" t="s"/>
+      <c s="24" r="F18" t="s"/>
+      <c s="24" r="G18" t="s"/>
+      <c s="24" r="H18" t="s"/>
       <c s="20" r="I18" t="s"/>
       <c s="21" r="J18" t="s"/>
       <c s="20" r="K18" t="s"/>
@@ -2645,11 +2623,11 @@
       <c s="2" r="C19" t="n">
         <v>0.7881944444444444</v>
       </c>
-      <c s="24" r="D19" t="s"/>
-      <c s="24" r="E19" t="s"/>
-      <c s="19" r="F19" t="s"/>
-      <c s="19" r="G19" t="s"/>
-      <c s="19" r="H19" t="s"/>
+      <c s="19" r="D19" t="s"/>
+      <c s="19" r="E19" t="s"/>
+      <c s="24" r="F19" t="s"/>
+      <c s="24" r="G19" t="s"/>
+      <c s="24" r="H19" t="s"/>
       <c s="20" r="I19" t="s"/>
       <c s="21" r="J19" t="s"/>
       <c s="20" r="K19" t="s"/>
@@ -2665,13 +2643,13 @@
       <c s="2" r="C20" t="n">
         <v>0.8229166666666666</v>
       </c>
-      <c s="24" r="D20" t="s"/>
-      <c s="24" r="E20" t="s"/>
-      <c s="19" r="F20" t="s">
-        <v>39</v>
-      </c>
-      <c s="19" r="G20" t="s"/>
-      <c s="19" r="H20" t="s"/>
+      <c s="19" r="D20" t="s"/>
+      <c s="19" r="E20" t="s"/>
+      <c s="24" r="F20" t="s"/>
+      <c s="24" r="G20" t="s"/>
+      <c s="24" r="H20" t="s">
+        <v>38</v>
+      </c>
       <c s="20" r="I20" t="s"/>
       <c s="21" r="J20" t="s"/>
       <c s="20" r="K20" t="s"/>
@@ -2687,11 +2665,11 @@
       <c s="2" r="C21" t="n">
         <v>0.8576388888888888</v>
       </c>
-      <c s="24" r="D21" t="s"/>
-      <c s="24" r="E21" t="s"/>
-      <c s="19" r="F21" t="s"/>
-      <c s="19" r="G21" t="s"/>
-      <c s="19" r="H21" t="s"/>
+      <c s="19" r="D21" t="s"/>
+      <c s="19" r="E21" t="s"/>
+      <c s="24" r="F21" t="s"/>
+      <c s="24" r="G21" t="s"/>
+      <c s="24" r="H21" t="s"/>
       <c s="20" r="I21" t="s"/>
       <c s="21" r="J21" t="s"/>
       <c s="20" r="K21" t="s"/>
@@ -2707,13 +2685,13 @@
       <c s="2" r="C22" t="n">
         <v>0.8854166666666666</v>
       </c>
-      <c s="24" r="D22" t="s"/>
-      <c s="24" r="E22" t="s"/>
-      <c s="19" r="F22" t="s"/>
-      <c s="19" r="G22" t="s"/>
-      <c s="19" r="H22" t="s">
-        <v>42</v>
-      </c>
+      <c s="19" r="D22" t="s"/>
+      <c s="19" r="E22" t="s"/>
+      <c s="24" r="F22" t="s">
+        <v>34</v>
+      </c>
+      <c s="24" r="G22" t="s"/>
+      <c s="24" r="H22" t="s"/>
       <c s="20" r="I22" t="s"/>
       <c s="21" r="J22" t="s"/>
       <c s="20" r="K22" t="s"/>
@@ -2768,7 +2746,7 @@
         <v>2</v>
       </c>
       <c s="16" r="E2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c s="11" r="I2" t="s">
         <v>4</v>
@@ -2820,24 +2798,20 @@
       <c s="2" r="C5" t="n">
         <v>0.3229166666666667</v>
       </c>
-      <c s="19" r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c s="19" r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c s="19" r="F5" t="s"/>
-      <c s="24" r="G5" t="s">
-        <v>48</v>
-      </c>
-      <c s="19" r="H5" t="s">
-        <v>49</v>
+      <c s="24" r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c s="24" r="E5" t="s"/>
+      <c s="24" r="F5" t="s"/>
+      <c s="19" r="G5" t="s"/>
+      <c s="24" r="H5" t="s">
+        <v>45</v>
       </c>
       <c s="20" r="I5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c s="21" r="J5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c s="20" r="K5" t="s"/>
       <c s="21" r="L5" t="s"/>
@@ -2852,24 +2826,18 @@
       <c s="2" r="C6" t="n">
         <v>0.3576388888888889</v>
       </c>
-      <c s="19" r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c s="19" r="E6" t="s">
-        <v>49</v>
-      </c>
-      <c s="19" r="F6" t="s">
-        <v>20</v>
-      </c>
-      <c s="24" r="G6" t="s">
-        <v>20</v>
-      </c>
-      <c s="19" r="H6" t="s"/>
+      <c s="24" r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c s="24" r="E6" t="s"/>
+      <c s="24" r="F6" t="s"/>
+      <c s="19" r="G6" t="s"/>
+      <c s="24" r="H6" t="s"/>
       <c s="20" r="I6" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c s="21" r="J6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c s="20" r="K6" t="s"/>
       <c s="21" r="L6" t="s"/>
@@ -2884,18 +2852,20 @@
       <c s="2" r="C7" t="n">
         <v>0.3923611111111111</v>
       </c>
-      <c s="19" r="D7" t="s"/>
-      <c s="19" r="E7" t="s"/>
-      <c s="19" r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c s="24" r="G7" t="s"/>
-      <c s="19" r="H7" t="s"/>
+      <c s="24" r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c s="24" r="E7" t="s"/>
+      <c s="24" r="F7" t="s"/>
+      <c s="19" r="G7" t="s"/>
+      <c s="24" r="H7" t="s">
+        <v>46</v>
+      </c>
       <c s="20" r="I7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c s="21" r="J7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c s="20" r="K7" t="s"/>
       <c s="21" r="L7" t="s"/>
@@ -2910,18 +2880,20 @@
       <c s="2" r="C8" t="n">
         <v>0.4270833333333333</v>
       </c>
-      <c s="19" r="D8" t="s"/>
-      <c s="19" r="E8" t="s"/>
-      <c s="19" r="F8" t="s"/>
-      <c s="24" r="G8" t="s"/>
-      <c s="19" r="H8" t="s">
-        <v>20</v>
+      <c s="24" r="D8" t="s"/>
+      <c s="24" r="E8" t="s"/>
+      <c s="24" r="F8" t="s">
+        <v>49</v>
+      </c>
+      <c s="19" r="G8" t="s"/>
+      <c s="24" r="H8" t="s">
+        <v>50</v>
       </c>
       <c s="20" r="I8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c s="21" r="J8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c s="20" r="K8" t="s"/>
       <c s="21" r="L8" t="s"/>
@@ -2942,10 +2914,10 @@
       <c s="23" r="G9" t="s"/>
       <c s="22" r="H9" t="s"/>
       <c s="20" r="I9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c s="21" r="J9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c s="20" r="K9" t="s"/>
       <c s="21" r="L9" t="s"/>
@@ -2960,24 +2932,22 @@
       <c s="2" r="C10" t="n">
         <v>0.4756944444444444</v>
       </c>
-      <c s="19" r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c s="19" r="E10" t="s">
-        <v>20</v>
-      </c>
-      <c s="19" r="F10" t="s"/>
-      <c s="24" r="G10" t="s">
-        <v>20</v>
-      </c>
-      <c s="19" r="H10" t="s">
+      <c s="24" r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c s="24" r="E10" t="s"/>
+      <c s="24" r="F10" t="s">
+        <v>53</v>
+      </c>
+      <c s="19" r="G10" t="s"/>
+      <c s="24" r="H10" t="s">
         <v>54</v>
       </c>
       <c s="20" r="I10" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c s="21" r="J10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c s="20" r="K10" t="s"/>
       <c s="21" r="L10" t="s"/>
@@ -2992,18 +2962,18 @@
       <c s="2" r="C11" t="n">
         <v>0.5104166666666666</v>
       </c>
-      <c s="19" r="D11" t="s"/>
-      <c s="19" r="E11" t="s"/>
-      <c s="19" r="F11" t="s"/>
-      <c s="24" r="G11" t="s"/>
-      <c s="19" r="H11" t="s">
-        <v>20</v>
-      </c>
+      <c s="24" r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c s="24" r="E11" t="s"/>
+      <c s="24" r="F11" t="s"/>
+      <c s="19" r="G11" t="s"/>
+      <c s="24" r="H11" t="s"/>
       <c s="20" r="I11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c s="21" r="J11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c s="20" r="K11" t="s"/>
       <c s="21" r="L11" t="s"/>
@@ -3018,16 +2988,20 @@
       <c s="2" r="C12" t="n">
         <v>0.5451388888888888</v>
       </c>
-      <c s="19" r="D12" t="s"/>
-      <c s="19" r="E12" t="s"/>
-      <c s="19" r="F12" t="s"/>
-      <c s="24" r="G12" t="s"/>
-      <c s="19" r="H12" t="s"/>
+      <c s="24" r="D12" t="s"/>
+      <c s="24" r="E12" t="s"/>
+      <c s="24" r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c s="19" r="G12" t="s"/>
+      <c s="24" r="H12" t="s">
+        <v>49</v>
+      </c>
       <c s="20" r="I12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c s="21" r="J12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c s="20" r="K12" t="s"/>
       <c s="21" r="L12" t="s"/>
@@ -3042,20 +3016,18 @@
       <c s="2" r="C13" t="n">
         <v>0.5798611111111112</v>
       </c>
-      <c s="19" r="D13" t="s">
-        <v>20</v>
-      </c>
-      <c s="19" r="E13" t="s"/>
-      <c s="19" r="F13" t="s"/>
-      <c s="24" r="G13" t="s">
-        <v>49</v>
-      </c>
-      <c s="19" r="H13" t="s"/>
+      <c s="24" r="D13" t="s">
+        <v>51</v>
+      </c>
+      <c s="24" r="E13" t="s"/>
+      <c s="24" r="F13" t="s"/>
+      <c s="19" r="G13" t="s"/>
+      <c s="24" r="H13" t="s"/>
       <c s="20" r="I13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c s="21" r="J13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c s="20" r="K13" t="s"/>
       <c s="21" r="L13" t="s"/>
@@ -3070,15 +3042,19 @@
       <c s="2" r="C14" t="n">
         <v>0.6145833333333334</v>
       </c>
-      <c s="19" r="D14" t="s"/>
-      <c s="19" r="E14" t="s"/>
-      <c s="19" r="F14" t="s"/>
-      <c s="24" r="G14" t="s">
-        <v>20</v>
-      </c>
-      <c s="19" r="H14" t="s"/>
-      <c s="20" r="I14" t="s"/>
-      <c s="21" r="J14" t="s"/>
+      <c s="24" r="D14" t="s"/>
+      <c s="24" r="E14" t="s">
+        <v>48</v>
+      </c>
+      <c s="24" r="F14" t="s"/>
+      <c s="19" r="G14" t="s"/>
+      <c s="24" r="H14" t="s"/>
+      <c s="20" r="I14" t="s">
+        <v>58</v>
+      </c>
+      <c s="21" r="J14" t="s">
+        <v>47</v>
+      </c>
       <c s="20" r="K14" t="s"/>
       <c s="21" r="L14" t="s"/>
     </row>
@@ -3092,13 +3068,13 @@
       <c s="2" r="C15" t="n">
         <v>0.6493055555555556</v>
       </c>
-      <c s="19" r="D15" t="s"/>
-      <c s="19" r="E15" t="s"/>
-      <c s="19" r="F15" t="s">
-        <v>20</v>
-      </c>
-      <c s="24" r="G15" t="s"/>
-      <c s="19" r="H15" t="s"/>
+      <c s="24" r="D15" t="s"/>
+      <c s="24" r="E15" t="s">
+        <v>52</v>
+      </c>
+      <c s="24" r="F15" t="s"/>
+      <c s="19" r="G15" t="s"/>
+      <c s="24" r="H15" t="s"/>
       <c s="20" r="I15" t="s"/>
       <c s="21" r="J15" t="s"/>
       <c s="20" r="K15" t="s"/>
@@ -3114,11 +3090,13 @@
       <c s="2" r="C16" t="n">
         <v>0.6840277777777778</v>
       </c>
-      <c s="19" r="D16" t="s"/>
-      <c s="19" r="E16" t="s"/>
-      <c s="19" r="F16" t="s"/>
-      <c s="24" r="G16" t="s"/>
-      <c s="19" r="H16" t="s"/>
+      <c s="24" r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c s="24" r="E16" t="s"/>
+      <c s="24" r="F16" t="s"/>
+      <c s="19" r="G16" t="s"/>
+      <c s="24" r="H16" t="s"/>
       <c s="20" r="I16" t="s"/>
       <c s="21" r="J16" t="s"/>
       <c s="20" r="K16" t="s"/>
@@ -3134,15 +3112,13 @@
       <c s="2" r="C17" t="n">
         <v>0.71875</v>
       </c>
-      <c s="19" r="D17" t="s"/>
-      <c s="19" r="E17" t="s"/>
-      <c s="19" r="F17" t="s">
-        <v>59</v>
-      </c>
-      <c s="24" r="G17" t="s"/>
-      <c s="19" r="H17" t="s">
-        <v>20</v>
-      </c>
+      <c s="24" r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c s="24" r="E17" t="s"/>
+      <c s="24" r="F17" t="s"/>
+      <c s="19" r="G17" t="s"/>
+      <c s="24" r="H17" t="s"/>
       <c s="20" r="I17" t="s"/>
       <c s="21" r="J17" t="s"/>
       <c s="20" r="K17" t="s"/>
@@ -3158,11 +3134,15 @@
       <c s="2" r="C18" t="n">
         <v>0.7534722222222222</v>
       </c>
-      <c s="19" r="D18" t="s"/>
-      <c s="19" r="E18" t="s"/>
-      <c s="19" r="F18" t="s"/>
-      <c s="24" r="G18" t="s"/>
-      <c s="19" r="H18" t="s"/>
+      <c s="24" r="D18" t="s"/>
+      <c s="24" r="E18" t="s">
+        <v>51</v>
+      </c>
+      <c s="24" r="F18" t="s"/>
+      <c s="19" r="G18" t="s"/>
+      <c s="24" r="H18" t="s">
+        <v>15</v>
+      </c>
       <c s="20" r="I18" t="s"/>
       <c s="21" r="J18" t="s"/>
       <c s="20" r="K18" t="s"/>
@@ -3178,11 +3158,11 @@
       <c s="2" r="C19" t="n">
         <v>0.7881944444444444</v>
       </c>
-      <c s="19" r="D19" t="s"/>
-      <c s="19" r="E19" t="s"/>
-      <c s="19" r="F19" t="s"/>
-      <c s="24" r="G19" t="s"/>
-      <c s="19" r="H19" t="s"/>
+      <c s="24" r="D19" t="s"/>
+      <c s="24" r="E19" t="s"/>
+      <c s="24" r="F19" t="s"/>
+      <c s="19" r="G19" t="s"/>
+      <c s="24" r="H19" t="s"/>
       <c s="20" r="I19" t="s"/>
       <c s="21" r="J19" t="s"/>
       <c s="20" r="K19" t="s"/>
@@ -3198,11 +3178,17 @@
       <c s="2" r="C20" t="n">
         <v>0.8229166666666666</v>
       </c>
-      <c s="19" r="D20" t="s"/>
-      <c s="19" r="E20" t="s"/>
-      <c s="19" r="F20" t="s"/>
-      <c s="24" r="G20" t="s"/>
-      <c s="19" r="H20" t="s"/>
+      <c s="24" r="D20" t="s">
+        <v>46</v>
+      </c>
+      <c s="24" r="E20" t="s">
+        <v>46</v>
+      </c>
+      <c s="24" r="F20" t="s"/>
+      <c s="19" r="G20" t="s"/>
+      <c s="24" r="H20" t="s">
+        <v>51</v>
+      </c>
       <c s="20" r="I20" t="s"/>
       <c s="21" r="J20" t="s"/>
       <c s="20" r="K20" t="s"/>
@@ -3218,11 +3204,11 @@
       <c s="2" r="C21" t="n">
         <v>0.8576388888888888</v>
       </c>
-      <c s="19" r="D21" t="s"/>
-      <c s="19" r="E21" t="s"/>
-      <c s="19" r="F21" t="s"/>
-      <c s="24" r="G21" t="s"/>
-      <c s="19" r="H21" t="s"/>
+      <c s="24" r="D21" t="s"/>
+      <c s="24" r="E21" t="s"/>
+      <c s="24" r="F21" t="s"/>
+      <c s="19" r="G21" t="s"/>
+      <c s="24" r="H21" t="s"/>
       <c s="20" r="I21" t="s"/>
       <c s="21" r="J21" t="s"/>
       <c s="20" r="K21" t="s"/>
@@ -3238,12 +3224,16 @@
       <c s="2" r="C22" t="n">
         <v>0.8854166666666666</v>
       </c>
-      <c s="19" r="D22" t="s"/>
-      <c s="19" r="E22" t="s"/>
-      <c s="19" r="F22" t="s"/>
-      <c s="24" r="G22" t="s"/>
-      <c s="19" r="H22" t="s">
-        <v>20</v>
+      <c s="24" r="D22" t="s">
+        <v>48</v>
+      </c>
+      <c s="24" r="E22" t="s">
+        <v>52</v>
+      </c>
+      <c s="24" r="F22" t="s"/>
+      <c s="19" r="G22" t="s"/>
+      <c s="24" r="H22" t="s">
+        <v>45</v>
       </c>
       <c s="20" r="I22" t="s"/>
       <c s="21" r="J22" t="s"/>
@@ -3299,7 +3289,7 @@
         <v>2</v>
       </c>
       <c s="16" r="E2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c s="11" r="I2" t="s">
         <v>4</v>
@@ -3351,18 +3341,18 @@
       <c s="2" r="C5" t="n">
         <v>0.3229166666666667</v>
       </c>
-      <c s="19" r="D5" t="s"/>
-      <c s="19" r="E5" t="s"/>
-      <c s="19" r="F5" t="s"/>
-      <c s="19" r="G5" t="s"/>
-      <c s="24" r="H5" t="s">
+      <c s="24" r="D5" t="s">
+        <v>60</v>
+      </c>
+      <c s="24" r="E5" t="s"/>
+      <c s="24" r="F5" t="s"/>
+      <c s="24" r="G5" t="s"/>
+      <c s="19" r="H5" t="s"/>
+      <c s="20" r="I5" t="s">
         <v>61</v>
       </c>
-      <c s="20" r="I5" t="s">
+      <c s="21" r="J5" t="s">
         <v>62</v>
-      </c>
-      <c s="21" r="J5" t="s">
-        <v>63</v>
       </c>
       <c s="20" r="K5" t="s"/>
       <c s="21" r="L5" t="s"/>
@@ -3377,18 +3367,20 @@
       <c s="2" r="C6" t="n">
         <v>0.3576388888888889</v>
       </c>
-      <c s="19" r="D6" t="s">
+      <c s="24" r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c s="24" r="E6" t="s"/>
+      <c s="24" r="F6" t="s"/>
+      <c s="24" r="G6" t="s">
+        <v>63</v>
+      </c>
+      <c s="19" r="H6" t="s"/>
+      <c s="20" r="I6" t="s">
+        <v>63</v>
+      </c>
+      <c s="21" r="J6" t="s">
         <v>62</v>
-      </c>
-      <c s="19" r="E6" t="s"/>
-      <c s="19" r="F6" t="s"/>
-      <c s="19" r="G6" t="s"/>
-      <c s="24" r="H6" t="s"/>
-      <c s="20" r="I6" t="s">
-        <v>64</v>
-      </c>
-      <c s="21" r="J6" t="s">
-        <v>63</v>
       </c>
       <c s="20" r="K6" t="s"/>
       <c s="21" r="L6" t="s"/>
@@ -3403,16 +3395,18 @@
       <c s="2" r="C7" t="n">
         <v>0.3923611111111111</v>
       </c>
-      <c s="19" r="D7" t="s"/>
-      <c s="19" r="E7" t="s"/>
-      <c s="19" r="F7" t="s"/>
-      <c s="19" r="G7" t="s"/>
-      <c s="24" r="H7" t="s"/>
+      <c s="24" r="D7" t="s"/>
+      <c s="24" r="E7" t="s"/>
+      <c s="24" r="F7" t="s"/>
+      <c s="24" r="G7" t="s">
+        <v>64</v>
+      </c>
+      <c s="19" r="H7" t="s"/>
       <c s="20" r="I7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c s="21" r="J7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c s="20" r="K7" t="s"/>
       <c s="21" r="L7" t="s"/>
@@ -3427,18 +3421,18 @@
       <c s="2" r="C8" t="n">
         <v>0.4270833333333333</v>
       </c>
-      <c s="19" r="D8" t="s"/>
-      <c s="19" r="E8" t="s">
-        <v>65</v>
-      </c>
-      <c s="19" r="F8" t="s"/>
-      <c s="19" r="G8" t="s"/>
-      <c s="24" r="H8" t="s"/>
+      <c s="24" r="D8" t="s"/>
+      <c s="24" r="E8" t="s"/>
+      <c s="24" r="F8" t="s">
+        <v>63</v>
+      </c>
+      <c s="24" r="G8" t="s"/>
+      <c s="19" r="H8" t="s"/>
       <c s="20" r="I8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c s="21" r="J8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c s="20" r="K8" t="s"/>
       <c s="21" r="L8" t="s"/>
@@ -3459,10 +3453,10 @@
       <c s="23" r="G9" t="s"/>
       <c s="22" r="H9" t="s"/>
       <c s="20" r="I9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c s="21" r="J9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c s="20" r="K9" t="s"/>
       <c s="21" r="L9" t="s"/>
@@ -3477,15 +3471,19 @@
       <c s="2" r="C10" t="n">
         <v>0.4756944444444444</v>
       </c>
-      <c s="19" r="D10" t="s">
+      <c s="24" r="D10" t="s"/>
+      <c s="24" r="E10" t="s"/>
+      <c s="24" r="F10" t="s"/>
+      <c s="24" r="G10" t="s">
+        <v>64</v>
+      </c>
+      <c s="19" r="H10" t="s"/>
+      <c s="20" r="I10" t="s">
+        <v>67</v>
+      </c>
+      <c s="21" r="J10" t="s">
         <v>62</v>
       </c>
-      <c s="19" r="E10" t="s"/>
-      <c s="19" r="F10" t="s"/>
-      <c s="19" r="G10" t="s"/>
-      <c s="24" r="H10" t="s"/>
-      <c s="20" r="I10" t="s"/>
-      <c s="21" r="J10" t="s"/>
       <c s="20" r="K10" t="s"/>
       <c s="21" r="L10" t="s"/>
     </row>
@@ -3499,13 +3497,11 @@
       <c s="2" r="C11" t="n">
         <v>0.5104166666666666</v>
       </c>
-      <c s="19" r="D11" t="s"/>
-      <c s="19" r="E11" t="s">
-        <v>64</v>
-      </c>
-      <c s="19" r="F11" t="s"/>
-      <c s="19" r="G11" t="s"/>
-      <c s="24" r="H11" t="s"/>
+      <c s="24" r="D11" t="s"/>
+      <c s="24" r="E11" t="s"/>
+      <c s="24" r="F11" t="s"/>
+      <c s="24" r="G11" t="s"/>
+      <c s="19" r="H11" t="s"/>
       <c s="20" r="I11" t="s"/>
       <c s="21" r="J11" t="s"/>
       <c s="20" r="K11" t="s"/>
@@ -3521,11 +3517,15 @@
       <c s="2" r="C12" t="n">
         <v>0.5451388888888888</v>
       </c>
-      <c s="19" r="D12" t="s"/>
-      <c s="19" r="E12" t="s"/>
-      <c s="19" r="F12" t="s"/>
-      <c s="19" r="G12" t="s"/>
-      <c s="24" r="H12" t="s"/>
+      <c s="24" r="D12" t="s">
+        <v>66</v>
+      </c>
+      <c s="24" r="E12" t="s"/>
+      <c s="24" r="F12" t="s"/>
+      <c s="24" r="G12" t="s">
+        <v>61</v>
+      </c>
+      <c s="19" r="H12" t="s"/>
       <c s="20" r="I12" t="s"/>
       <c s="21" r="J12" t="s"/>
       <c s="20" r="K12" t="s"/>
@@ -3541,11 +3541,13 @@
       <c s="2" r="C13" t="n">
         <v>0.5798611111111112</v>
       </c>
-      <c s="19" r="D13" t="s"/>
-      <c s="19" r="E13" t="s"/>
-      <c s="19" r="F13" t="s"/>
-      <c s="19" r="G13" t="s"/>
-      <c s="24" r="H13" t="s"/>
+      <c s="24" r="D13" t="s"/>
+      <c s="24" r="E13" t="s"/>
+      <c s="24" r="F13" t="s">
+        <v>65</v>
+      </c>
+      <c s="24" r="G13" t="s"/>
+      <c s="19" r="H13" t="s"/>
       <c s="20" r="I13" t="s"/>
       <c s="21" r="J13" t="s"/>
       <c s="20" r="K13" t="s"/>
@@ -3561,11 +3563,11 @@
       <c s="2" r="C14" t="n">
         <v>0.6145833333333334</v>
       </c>
-      <c s="19" r="D14" t="s"/>
-      <c s="19" r="E14" t="s"/>
-      <c s="19" r="F14" t="s"/>
-      <c s="19" r="G14" t="s"/>
-      <c s="24" r="H14" t="s"/>
+      <c s="24" r="D14" t="s"/>
+      <c s="24" r="E14" t="s"/>
+      <c s="24" r="F14" t="s"/>
+      <c s="24" r="G14" t="s"/>
+      <c s="19" r="H14" t="s"/>
       <c s="20" r="I14" t="s"/>
       <c s="21" r="J14" t="s"/>
       <c s="20" r="K14" t="s"/>
@@ -3581,15 +3583,13 @@
       <c s="2" r="C15" t="n">
         <v>0.6493055555555556</v>
       </c>
-      <c s="19" r="D15" t="s"/>
-      <c s="19" r="E15" t="s"/>
-      <c s="19" r="F15" t="s">
+      <c s="24" r="D15" t="s"/>
+      <c s="24" r="E15" t="s">
         <v>64</v>
       </c>
-      <c s="19" r="G15" t="s"/>
-      <c s="24" r="H15" t="s">
-        <v>62</v>
-      </c>
+      <c s="24" r="F15" t="s"/>
+      <c s="24" r="G15" t="s"/>
+      <c s="19" r="H15" t="s"/>
       <c s="20" r="I15" t="s"/>
       <c s="21" r="J15" t="s"/>
       <c s="20" r="K15" t="s"/>
@@ -3605,13 +3605,13 @@
       <c s="2" r="C16" t="n">
         <v>0.6840277777777778</v>
       </c>
-      <c s="19" r="D16" t="s"/>
-      <c s="19" r="E16" t="s"/>
-      <c s="19" r="F16" t="s"/>
-      <c s="19" r="G16" t="s"/>
-      <c s="24" r="H16" t="s">
-        <v>61</v>
-      </c>
+      <c s="24" r="D16" t="s"/>
+      <c s="24" r="E16" t="s">
+        <v>66</v>
+      </c>
+      <c s="24" r="F16" t="s"/>
+      <c s="24" r="G16" t="s"/>
+      <c s="19" r="H16" t="s"/>
       <c s="20" r="I16" t="s"/>
       <c s="21" r="J16" t="s"/>
       <c s="20" r="K16" t="s"/>
@@ -3627,15 +3627,13 @@
       <c s="2" r="C17" t="n">
         <v>0.71875</v>
       </c>
-      <c s="19" r="D17" t="s">
-        <v>66</v>
-      </c>
-      <c s="19" r="E17" t="s"/>
-      <c s="19" r="F17" t="s"/>
-      <c s="19" r="G17" t="s">
-        <v>66</v>
-      </c>
-      <c s="24" r="H17" t="s"/>
+      <c s="24" r="D17" t="s"/>
+      <c s="24" r="E17" t="s">
+        <v>61</v>
+      </c>
+      <c s="24" r="F17" t="s"/>
+      <c s="24" r="G17" t="s"/>
+      <c s="19" r="H17" t="s"/>
       <c s="20" r="I17" t="s"/>
       <c s="21" r="J17" t="s"/>
       <c s="20" r="K17" t="s"/>
@@ -3651,11 +3649,13 @@
       <c s="2" r="C18" t="n">
         <v>0.7534722222222222</v>
       </c>
-      <c s="19" r="D18" t="s"/>
-      <c s="19" r="E18" t="s"/>
-      <c s="19" r="F18" t="s"/>
-      <c s="19" r="G18" t="s"/>
-      <c s="24" r="H18" t="s"/>
+      <c s="24" r="D18" t="s">
+        <v>66</v>
+      </c>
+      <c s="24" r="E18" t="s"/>
+      <c s="24" r="F18" t="s"/>
+      <c s="24" r="G18" t="s"/>
+      <c s="19" r="H18" t="s"/>
       <c s="20" r="I18" t="s"/>
       <c s="21" r="J18" t="s"/>
       <c s="20" r="K18" t="s"/>
@@ -3671,11 +3671,17 @@
       <c s="2" r="C19" t="n">
         <v>0.7881944444444444</v>
       </c>
-      <c s="19" r="D19" t="s"/>
-      <c s="19" r="E19" t="s"/>
-      <c s="19" r="F19" t="s"/>
-      <c s="19" r="G19" t="s"/>
-      <c s="24" r="H19" t="s"/>
+      <c s="24" r="D19" t="s"/>
+      <c s="24" r="E19" t="s">
+        <v>65</v>
+      </c>
+      <c s="24" r="F19" t="s">
+        <v>63</v>
+      </c>
+      <c s="24" r="G19" t="s">
+        <v>61</v>
+      </c>
+      <c s="19" r="H19" t="s"/>
       <c s="20" r="I19" t="s"/>
       <c s="21" r="J19" t="s"/>
       <c s="20" r="K19" t="s"/>
@@ -3691,13 +3697,11 @@
       <c s="2" r="C20" t="n">
         <v>0.8229166666666666</v>
       </c>
-      <c s="19" r="D20" t="s"/>
-      <c s="19" r="E20" t="s"/>
-      <c s="19" r="F20" t="s"/>
-      <c s="19" r="G20" t="s"/>
-      <c s="24" r="H20" t="s">
-        <v>66</v>
-      </c>
+      <c s="24" r="D20" t="s"/>
+      <c s="24" r="E20" t="s"/>
+      <c s="24" r="F20" t="s"/>
+      <c s="24" r="G20" t="s"/>
+      <c s="19" r="H20" t="s"/>
       <c s="20" r="I20" t="s"/>
       <c s="21" r="J20" t="s"/>
       <c s="20" r="K20" t="s"/>
@@ -3713,13 +3717,11 @@
       <c s="2" r="C21" t="n">
         <v>0.8576388888888888</v>
       </c>
-      <c s="19" r="D21" t="s"/>
-      <c s="19" r="E21" t="s">
-        <v>64</v>
-      </c>
-      <c s="19" r="F21" t="s"/>
-      <c s="19" r="G21" t="s"/>
-      <c s="24" r="H21" t="s"/>
+      <c s="24" r="D21" t="s"/>
+      <c s="24" r="E21" t="s"/>
+      <c s="24" r="F21" t="s"/>
+      <c s="24" r="G21" t="s"/>
+      <c s="19" r="H21" t="s"/>
       <c s="20" r="I21" t="s"/>
       <c s="21" r="J21" t="s"/>
       <c s="20" r="K21" t="s"/>
@@ -3735,15 +3737,11 @@
       <c s="2" r="C22" t="n">
         <v>0.8854166666666666</v>
       </c>
-      <c s="19" r="D22" t="s"/>
-      <c s="19" r="E22" t="s"/>
-      <c s="19" r="F22" t="s">
-        <v>65</v>
-      </c>
-      <c s="19" r="G22" t="s">
-        <v>67</v>
-      </c>
-      <c s="24" r="H22" t="s"/>
+      <c s="24" r="D22" t="s"/>
+      <c s="24" r="E22" t="s"/>
+      <c s="24" r="F22" t="s"/>
+      <c s="24" r="G22" t="s"/>
+      <c s="19" r="H22" t="s"/>
       <c s="20" r="I22" t="s"/>
       <c s="21" r="J22" t="s"/>
       <c s="20" r="K22" t="s"/>

--- a/Proyecto/data/horarioProfesores.xlsx
+++ b/Proyecto/data/horarioProfesores.xlsx
@@ -3,15 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="7980" windowWidth="17490" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="5" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="7980" windowWidth="17490" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Plantilla" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Profesor4SegundoN_Ap" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Miguelnose_apellidoa" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DiegoPablo_RegaladoS" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Profesor5segundoN5_A" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MaurucioRodrigo_Apel" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Profesor4_Apellido1A" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MaurucioRodrigo_Apel" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="profesor5_Apellido1A" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DiegoPablo_RegaladoS" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="profesor1_apellidoap" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="70">
   <si>
     <t>Profesor</t>
   </si>
@@ -63,166 +63,172 @@
     <t>Receso</t>
   </si>
   <si>
-    <t>Profesor4SegundoN_Ap</t>
+    <t>Profesor4_Apellido1A</t>
   </si>
   <si>
     <t>21IE3028</t>
   </si>
   <si>
+    <t>21IE2010</t>
+  </si>
+  <si>
+    <t>Profesor4_Apellido1Apellido2</t>
+  </si>
+  <si>
+    <t>22IE2010</t>
+  </si>
+  <si>
+    <t>11IE3028</t>
+  </si>
+  <si>
+    <t>20IE2010</t>
+  </si>
+  <si>
+    <t>30IE2010</t>
+  </si>
+  <si>
+    <t>10IE3049</t>
+  </si>
+  <si>
+    <t>22IE2010, 10IE3049</t>
+  </si>
+  <si>
+    <t>11IE3028, 11IE3028</t>
+  </si>
+  <si>
+    <t>MaurucioRodrigo_Apel</t>
+  </si>
+  <si>
+    <t>21IE2009</t>
+  </si>
+  <si>
+    <t>MaurucioRodrigo_Apellido1Apellido2</t>
+  </si>
+  <si>
+    <t>22IE2009</t>
+  </si>
+  <si>
+    <t>11IE2013</t>
+  </si>
+  <si>
+    <t>31IE2009</t>
+  </si>
+  <si>
+    <t>11IE2008</t>
+  </si>
+  <si>
+    <t>12IE2009</t>
+  </si>
+  <si>
+    <t>11IE2009</t>
+  </si>
+  <si>
+    <t>10IE3028</t>
+  </si>
+  <si>
+    <t>31IE2009, 21IE3028</t>
+  </si>
+  <si>
+    <t>20IE2009</t>
+  </si>
+  <si>
+    <t>21IE3028, 20IE2009</t>
+  </si>
+  <si>
+    <t>22IE2009, 12IE2009</t>
+  </si>
+  <si>
+    <t>11IE2013, 31IE2009</t>
+  </si>
+  <si>
+    <t>11IE2008, 11IE2009, 10IE2011</t>
+  </si>
+  <si>
+    <t>10IE2011</t>
+  </si>
+  <si>
+    <t>20IE3028</t>
+  </si>
+  <si>
+    <t>21IE2009, 11IE2013</t>
+  </si>
+  <si>
+    <t>profesor5_Apellido1A</t>
+  </si>
+  <si>
+    <t>11IE2010</t>
+  </si>
+  <si>
+    <t>12IE2010</t>
+  </si>
+  <si>
+    <t>12IE3028</t>
+  </si>
+  <si>
+    <t>profesor5_Apellido1Apellido2</t>
+  </si>
+  <si>
+    <t>12IE2011</t>
+  </si>
+  <si>
+    <t>12IE2013</t>
+  </si>
+  <si>
+    <t>11IE3049</t>
+  </si>
+  <si>
+    <t>10IE3048</t>
+  </si>
+  <si>
+    <t>12IE3028, 11IE3049</t>
+  </si>
+  <si>
+    <t>DiegoPablo_RegaladoS</t>
+  </si>
+  <si>
     <t>11IE3048</t>
   </si>
   <si>
-    <t>11IE2008</t>
-  </si>
-  <si>
-    <t>22IE2009</t>
-  </si>
-  <si>
-    <t>Profesor4SegundoN_Apellido1Apellido2</t>
-  </si>
-  <si>
-    <t>22IE2009, 10IE3049</t>
-  </si>
-  <si>
-    <t>11IE2010</t>
-  </si>
-  <si>
-    <t>20IE2010</t>
-  </si>
-  <si>
-    <t>20IE2009</t>
+    <t>DiegoPablo_RegaladoSamayoa</t>
+  </si>
+  <si>
+    <t>31IE2010</t>
+  </si>
+  <si>
+    <t>11IE2011</t>
+  </si>
+  <si>
+    <t>10IE2013</t>
   </si>
   <si>
     <t>30IE2009</t>
   </si>
   <si>
-    <t>10IE3049</t>
-  </si>
-  <si>
-    <t>11IE2010, 11IE2008</t>
-  </si>
-  <si>
-    <t>Miguelnose_apellidoa</t>
-  </si>
-  <si>
-    <t>10IE3048</t>
-  </si>
-  <si>
-    <t>Miguelnose_apellidoapellido2</t>
+    <t>10IE2008</t>
   </si>
   <si>
     <t>10IE2009</t>
   </si>
   <si>
-    <t>DiegoPablo_RegaladoS</t>
-  </si>
-  <si>
-    <t>12IE2011, 10IE2008</t>
-  </si>
-  <si>
-    <t>12IE2011, 10IE2016, 20IE3028</t>
-  </si>
-  <si>
-    <t>11IE3028</t>
-  </si>
-  <si>
-    <t>DiegoPablo_RegaladoSamayoa</t>
-  </si>
-  <si>
-    <t>12IE2010</t>
-  </si>
-  <si>
-    <t>12IE2011</t>
-  </si>
-  <si>
-    <t>11IE2013</t>
-  </si>
-  <si>
-    <t>11IE3049</t>
+    <t>11IE2011, 10IE2013</t>
+  </si>
+  <si>
+    <t>profesor1_apellidoap</t>
+  </si>
+  <si>
+    <t>32IE2010</t>
+  </si>
+  <si>
+    <t>profesor1_apellidoapellido2</t>
   </si>
   <si>
     <t>10IE2016</t>
   </si>
   <si>
-    <t>10IE2008</t>
-  </si>
-  <si>
-    <t>20IE3028</t>
-  </si>
-  <si>
-    <t>12IE2011, 11IE3049</t>
-  </si>
-  <si>
-    <t>Profesor5segundoN5_A</t>
-  </si>
-  <si>
-    <t>12IE2009</t>
-  </si>
-  <si>
-    <t>22IE2010</t>
-  </si>
-  <si>
-    <t>Profesor5segundoN5_Apellido1Apellido2</t>
-  </si>
-  <si>
-    <t>21IE2009</t>
-  </si>
-  <si>
-    <t>32IE2010</t>
-  </si>
-  <si>
-    <t>12IE2009, 10IE2010</t>
-  </si>
-  <si>
-    <t>11IE2011</t>
-  </si>
-  <si>
-    <t>12IE2013</t>
-  </si>
-  <si>
-    <t>21IE2009, 32IE2010</t>
-  </si>
-  <si>
-    <t>12IE2013, 10IE2010</t>
-  </si>
-  <si>
-    <t>30IE2010</t>
-  </si>
-  <si>
     <t>10IE2010</t>
   </si>
   <si>
-    <t>10IE2011</t>
-  </si>
-  <si>
-    <t>10IE2013</t>
-  </si>
-  <si>
-    <t>MaurucioRodrigo_Apel</t>
-  </si>
-  <si>
-    <t>31IE2010, 10IE3028</t>
-  </si>
-  <si>
-    <t>21IE2010</t>
-  </si>
-  <si>
-    <t>MaurucioRodrigo_Apellido1Sepa</t>
-  </si>
-  <si>
-    <t>12IE3028</t>
-  </si>
-  <si>
-    <t>11IE2009</t>
-  </si>
-  <si>
-    <t>31IE2010</t>
-  </si>
-  <si>
-    <t>31IE2009</t>
-  </si>
-  <si>
-    <t>10IE3028</t>
+    <t>32IE2010, 10IE2010</t>
   </si>
 </sst>
 </file>
@@ -276,7 +282,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill/>
     </fill>
@@ -317,12 +323,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFE6FF18"/>
         <bgColor rgb="FFE6FF18"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.3999755851924192"/>
-        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -371,7 +371,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
@@ -383,7 +383,7 @@
     <xf applyAlignment="1" borderId="1" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="6" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="7" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" borderId="1" fillId="6" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -392,13 +392,13 @@
     <xf applyAlignment="1" borderId="1" fillId="6" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
+    <xf applyAlignment="1" borderId="1" fillId="6" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf applyAlignment="1" borderId="1" fillId="6" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" borderId="1" fillId="6" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="7" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" borderId="1" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -417,28 +417,22 @@
     <xf applyAlignment="1" borderId="1" fillId="4" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf applyAlignment="1" borderId="1" fillId="9" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="8" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="8" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
     <xf applyAlignment="1" borderId="1" fillId="8" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" borderId="1" fillId="8" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="10" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="9" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="9" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="9" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="9" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="9" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="8" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -752,7 +746,7 @@
   </sheetPr>
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
@@ -827,15 +821,15 @@
       <c s="2" r="C5" t="n">
         <v>0.3229166666666667</v>
       </c>
-      <c s="19" r="D5" t="s"/>
-      <c s="19" r="E5" t="s"/>
-      <c s="19" r="F5" t="s"/>
-      <c s="19" r="G5" t="s"/>
-      <c s="19" r="H5" t="s"/>
-      <c s="20" r="I5" t="s"/>
-      <c s="21" r="J5" t="s"/>
-      <c s="20" r="K5" t="s"/>
-      <c s="21" r="L5" t="s"/>
+      <c s="17" r="D5" t="s"/>
+      <c s="17" r="E5" t="s"/>
+      <c s="17" r="F5" t="s"/>
+      <c s="17" r="G5" t="s"/>
+      <c s="17" r="H5" t="s"/>
+      <c s="18" r="I5" t="s"/>
+      <c s="19" r="J5" t="s"/>
+      <c s="18" r="K5" t="s"/>
+      <c s="19" r="L5" t="s"/>
     </row>
     <row r="6" spans="1:12">
       <c s="1" r="A6" t="n">
@@ -847,15 +841,15 @@
       <c s="2" r="C6" t="n">
         <v>0.3576388888888889</v>
       </c>
-      <c s="19" r="D6" t="s"/>
-      <c s="19" r="E6" t="s"/>
-      <c s="19" r="F6" t="s"/>
-      <c s="19" r="G6" t="s"/>
-      <c s="19" r="H6" t="s"/>
-      <c s="20" r="I6" t="s"/>
-      <c s="21" r="J6" t="s"/>
-      <c s="20" r="K6" t="s"/>
-      <c s="21" r="L6" t="s"/>
+      <c s="17" r="D6" t="s"/>
+      <c s="17" r="E6" t="s"/>
+      <c s="17" r="F6" t="s"/>
+      <c s="17" r="G6" t="s"/>
+      <c s="17" r="H6" t="s"/>
+      <c s="18" r="I6" t="s"/>
+      <c s="19" r="J6" t="s"/>
+      <c s="18" r="K6" t="s"/>
+      <c s="19" r="L6" t="s"/>
     </row>
     <row r="7" spans="1:12">
       <c s="1" r="A7" t="n">
@@ -867,15 +861,15 @@
       <c s="2" r="C7" t="n">
         <v>0.3923611111111111</v>
       </c>
-      <c s="19" r="D7" t="s"/>
-      <c s="19" r="E7" t="s"/>
-      <c s="19" r="F7" t="s"/>
-      <c s="19" r="G7" t="s"/>
-      <c s="19" r="H7" t="s"/>
-      <c s="20" r="I7" t="s"/>
-      <c s="21" r="J7" t="s"/>
-      <c s="20" r="K7" t="s"/>
-      <c s="21" r="L7" t="s"/>
+      <c s="17" r="D7" t="s"/>
+      <c s="17" r="E7" t="s"/>
+      <c s="17" r="F7" t="s"/>
+      <c s="17" r="G7" t="s"/>
+      <c s="17" r="H7" t="s"/>
+      <c s="18" r="I7" t="s"/>
+      <c s="19" r="J7" t="s"/>
+      <c s="18" r="K7" t="s"/>
+      <c s="19" r="L7" t="s"/>
     </row>
     <row r="8" spans="1:12">
       <c s="1" r="A8" t="n">
@@ -887,15 +881,15 @@
       <c s="2" r="C8" t="n">
         <v>0.4270833333333333</v>
       </c>
-      <c s="19" r="D8" t="s"/>
-      <c s="19" r="E8" t="s"/>
-      <c s="19" r="F8" t="s"/>
-      <c s="19" r="G8" t="s"/>
-      <c s="19" r="H8" t="s"/>
-      <c s="20" r="I8" t="s"/>
-      <c s="21" r="J8" t="s"/>
-      <c s="20" r="K8" t="s"/>
-      <c s="21" r="L8" t="s"/>
+      <c s="17" r="D8" t="s"/>
+      <c s="17" r="E8" t="s"/>
+      <c s="17" r="F8" t="s"/>
+      <c s="17" r="G8" t="s"/>
+      <c s="17" r="H8" t="s"/>
+      <c s="18" r="I8" t="s"/>
+      <c s="19" r="J8" t="s"/>
+      <c s="18" r="K8" t="s"/>
+      <c s="19" r="L8" t="s"/>
     </row>
     <row r="9" spans="1:12">
       <c s="1" r="A9" t="s">
@@ -907,15 +901,15 @@
       <c s="2" r="C9" t="n">
         <v>0.4444444444444444</v>
       </c>
-      <c s="22" r="D9" t="s"/>
-      <c s="22" r="E9" t="s"/>
-      <c s="22" r="F9" t="s"/>
-      <c s="23" r="G9" t="s"/>
-      <c s="22" r="H9" t="s"/>
-      <c s="20" r="I9" t="s"/>
-      <c s="21" r="J9" t="s"/>
-      <c s="20" r="K9" t="s"/>
-      <c s="21" r="L9" t="s"/>
+      <c s="20" r="D9" t="s"/>
+      <c s="20" r="E9" t="s"/>
+      <c s="20" r="F9" t="s"/>
+      <c s="21" r="G9" t="s"/>
+      <c s="20" r="H9" t="s"/>
+      <c s="18" r="I9" t="s"/>
+      <c s="19" r="J9" t="s"/>
+      <c s="18" r="K9" t="s"/>
+      <c s="19" r="L9" t="s"/>
     </row>
     <row r="10" spans="1:12">
       <c s="1" r="A10" t="n">
@@ -927,15 +921,15 @@
       <c s="2" r="C10" t="n">
         <v>0.4756944444444444</v>
       </c>
-      <c s="19" r="D10" t="s"/>
-      <c s="19" r="E10" t="s"/>
-      <c s="19" r="F10" t="s"/>
-      <c s="19" r="G10" t="s"/>
-      <c s="19" r="H10" t="s"/>
-      <c s="20" r="I10" t="s"/>
-      <c s="21" r="J10" t="s"/>
-      <c s="20" r="K10" t="s"/>
-      <c s="21" r="L10" t="s"/>
+      <c s="17" r="D10" t="s"/>
+      <c s="17" r="E10" t="s"/>
+      <c s="17" r="F10" t="s"/>
+      <c s="17" r="G10" t="s"/>
+      <c s="17" r="H10" t="s"/>
+      <c s="18" r="I10" t="s"/>
+      <c s="19" r="J10" t="s"/>
+      <c s="18" r="K10" t="s"/>
+      <c s="19" r="L10" t="s"/>
     </row>
     <row customHeight="1" s="12" r="11" ht="30" spans="1:12">
       <c s="1" r="A11" t="n">
@@ -947,15 +941,15 @@
       <c s="2" r="C11" t="n">
         <v>0.5104166666666666</v>
       </c>
-      <c s="19" r="D11" t="s"/>
-      <c s="19" r="E11" t="s"/>
-      <c s="19" r="F11" t="s"/>
-      <c s="19" r="G11" t="s"/>
-      <c s="19" r="H11" t="s"/>
-      <c s="20" r="I11" t="s"/>
-      <c s="21" r="J11" t="s"/>
-      <c s="20" r="K11" t="s"/>
-      <c s="21" r="L11" t="s"/>
+      <c s="17" r="D11" t="s"/>
+      <c s="17" r="E11" t="s"/>
+      <c s="17" r="F11" t="s"/>
+      <c s="17" r="G11" t="s"/>
+      <c s="17" r="H11" t="s"/>
+      <c s="18" r="I11" t="s"/>
+      <c s="19" r="J11" t="s"/>
+      <c s="18" r="K11" t="s"/>
+      <c s="19" r="L11" t="s"/>
     </row>
     <row customHeight="1" s="12" r="12" ht="30" spans="1:12">
       <c s="1" r="A12" t="n">
@@ -967,15 +961,15 @@
       <c s="2" r="C12" t="n">
         <v>0.5451388888888888</v>
       </c>
-      <c s="19" r="D12" t="s"/>
-      <c s="19" r="E12" t="s"/>
-      <c s="19" r="F12" t="s"/>
-      <c s="19" r="G12" t="s"/>
-      <c s="19" r="H12" t="s"/>
-      <c s="20" r="I12" t="s"/>
-      <c s="21" r="J12" t="s"/>
-      <c s="20" r="K12" t="s"/>
-      <c s="21" r="L12" t="s"/>
+      <c s="17" r="D12" t="s"/>
+      <c s="17" r="E12" t="s"/>
+      <c s="17" r="F12" t="s"/>
+      <c s="17" r="G12" t="s"/>
+      <c s="17" r="H12" t="s"/>
+      <c s="18" r="I12" t="s"/>
+      <c s="19" r="J12" t="s"/>
+      <c s="18" r="K12" t="s"/>
+      <c s="19" r="L12" t="s"/>
     </row>
     <row r="13" spans="1:12">
       <c s="1" r="A13" t="n">
@@ -987,15 +981,15 @@
       <c s="2" r="C13" t="n">
         <v>0.5798611111111112</v>
       </c>
-      <c s="19" r="D13" t="s"/>
-      <c s="19" r="E13" t="s"/>
-      <c s="19" r="F13" t="s"/>
-      <c s="19" r="G13" t="s"/>
-      <c s="19" r="H13" t="s"/>
-      <c s="20" r="I13" t="s"/>
-      <c s="21" r="J13" t="s"/>
-      <c s="20" r="K13" t="s"/>
-      <c s="21" r="L13" t="s"/>
+      <c s="17" r="D13" t="s"/>
+      <c s="17" r="E13" t="s"/>
+      <c s="17" r="F13" t="s"/>
+      <c s="17" r="G13" t="s"/>
+      <c s="17" r="H13" t="s"/>
+      <c s="18" r="I13" t="s"/>
+      <c s="19" r="J13" t="s"/>
+      <c s="18" r="K13" t="s"/>
+      <c s="19" r="L13" t="s"/>
     </row>
     <row r="14" spans="1:12">
       <c s="1" r="A14" t="n">
@@ -1007,15 +1001,15 @@
       <c s="2" r="C14" t="n">
         <v>0.6145833333333334</v>
       </c>
-      <c s="19" r="D14" t="s"/>
-      <c s="19" r="E14" t="s"/>
-      <c s="19" r="F14" t="s"/>
-      <c s="19" r="G14" t="s"/>
-      <c s="19" r="H14" t="s"/>
-      <c s="20" r="I14" t="s"/>
-      <c s="21" r="J14" t="s"/>
-      <c s="20" r="K14" t="s"/>
-      <c s="21" r="L14" t="s"/>
+      <c s="17" r="D14" t="s"/>
+      <c s="17" r="E14" t="s"/>
+      <c s="17" r="F14" t="s"/>
+      <c s="17" r="G14" t="s"/>
+      <c s="17" r="H14" t="s"/>
+      <c s="18" r="I14" t="s"/>
+      <c s="19" r="J14" t="s"/>
+      <c s="18" r="K14" t="s"/>
+      <c s="19" r="L14" t="s"/>
     </row>
     <row r="15" spans="1:12">
       <c s="1" r="A15" t="n">
@@ -1027,15 +1021,15 @@
       <c s="2" r="C15" t="n">
         <v>0.6493055555555556</v>
       </c>
-      <c s="19" r="D15" t="s"/>
-      <c s="19" r="E15" t="s"/>
-      <c s="19" r="F15" t="s"/>
-      <c s="19" r="G15" t="s"/>
-      <c s="19" r="H15" t="s"/>
-      <c s="20" r="I15" t="s"/>
-      <c s="21" r="J15" t="s"/>
-      <c s="20" r="K15" t="s"/>
-      <c s="21" r="L15" t="s"/>
+      <c s="17" r="D15" t="s"/>
+      <c s="17" r="E15" t="s"/>
+      <c s="17" r="F15" t="s"/>
+      <c s="17" r="G15" t="s"/>
+      <c s="17" r="H15" t="s"/>
+      <c s="18" r="I15" t="s"/>
+      <c s="19" r="J15" t="s"/>
+      <c s="18" r="K15" t="s"/>
+      <c s="19" r="L15" t="s"/>
     </row>
     <row r="16" spans="1:12">
       <c s="1" r="A16" t="n">
@@ -1047,15 +1041,15 @@
       <c s="2" r="C16" t="n">
         <v>0.6840277777777778</v>
       </c>
-      <c s="19" r="D16" t="s"/>
-      <c s="19" r="E16" t="s"/>
-      <c s="19" r="F16" t="s"/>
-      <c s="19" r="G16" t="s"/>
-      <c s="19" r="H16" t="s"/>
-      <c s="20" r="I16" t="s"/>
-      <c s="21" r="J16" t="s"/>
-      <c s="20" r="K16" t="s"/>
-      <c s="21" r="L16" t="s"/>
+      <c s="17" r="D16" t="s"/>
+      <c s="17" r="E16" t="s"/>
+      <c s="17" r="F16" t="s"/>
+      <c s="17" r="G16" t="s"/>
+      <c s="17" r="H16" t="s"/>
+      <c s="18" r="I16" t="s"/>
+      <c s="19" r="J16" t="s"/>
+      <c s="18" r="K16" t="s"/>
+      <c s="19" r="L16" t="s"/>
     </row>
     <row r="17" spans="1:12">
       <c s="1" r="A17" t="n">
@@ -1067,15 +1061,15 @@
       <c s="2" r="C17" t="n">
         <v>0.71875</v>
       </c>
-      <c s="19" r="D17" t="s"/>
-      <c s="19" r="E17" t="s"/>
-      <c s="19" r="F17" t="s"/>
-      <c s="19" r="G17" t="s"/>
-      <c s="19" r="H17" t="s"/>
-      <c s="20" r="I17" t="s"/>
-      <c s="21" r="J17" t="s"/>
-      <c s="20" r="K17" t="s"/>
-      <c s="21" r="L17" t="s"/>
+      <c s="17" r="D17" t="s"/>
+      <c s="17" r="E17" t="s"/>
+      <c s="17" r="F17" t="s"/>
+      <c s="17" r="G17" t="s"/>
+      <c s="17" r="H17" t="s"/>
+      <c s="18" r="I17" t="s"/>
+      <c s="19" r="J17" t="s"/>
+      <c s="18" r="K17" t="s"/>
+      <c s="19" r="L17" t="s"/>
     </row>
     <row r="18" spans="1:12">
       <c s="1" r="A18" t="n">
@@ -1087,15 +1081,15 @@
       <c s="2" r="C18" t="n">
         <v>0.7534722222222222</v>
       </c>
-      <c s="19" r="D18" t="s"/>
-      <c s="19" r="E18" t="s"/>
-      <c s="19" r="F18" t="s"/>
-      <c s="19" r="G18" t="s"/>
-      <c s="19" r="H18" t="s"/>
-      <c s="20" r="I18" t="s"/>
-      <c s="21" r="J18" t="s"/>
-      <c s="20" r="K18" t="s"/>
-      <c s="21" r="L18" t="s"/>
+      <c s="17" r="D18" t="s"/>
+      <c s="17" r="E18" t="s"/>
+      <c s="17" r="F18" t="s"/>
+      <c s="17" r="G18" t="s"/>
+      <c s="17" r="H18" t="s"/>
+      <c s="18" r="I18" t="s"/>
+      <c s="19" r="J18" t="s"/>
+      <c s="18" r="K18" t="s"/>
+      <c s="19" r="L18" t="s"/>
     </row>
     <row r="19" spans="1:12">
       <c s="1" r="A19" t="n">
@@ -1107,15 +1101,15 @@
       <c s="2" r="C19" t="n">
         <v>0.7881944444444444</v>
       </c>
-      <c s="19" r="D19" t="s"/>
-      <c s="19" r="E19" t="s"/>
-      <c s="19" r="F19" t="s"/>
-      <c s="19" r="G19" t="s"/>
-      <c s="19" r="H19" t="s"/>
-      <c s="20" r="I19" t="s"/>
-      <c s="21" r="J19" t="s"/>
-      <c s="20" r="K19" t="s"/>
-      <c s="21" r="L19" t="s"/>
+      <c s="17" r="D19" t="s"/>
+      <c s="17" r="E19" t="s"/>
+      <c s="17" r="F19" t="s"/>
+      <c s="17" r="G19" t="s"/>
+      <c s="17" r="H19" t="s"/>
+      <c s="18" r="I19" t="s"/>
+      <c s="19" r="J19" t="s"/>
+      <c s="18" r="K19" t="s"/>
+      <c s="19" r="L19" t="s"/>
     </row>
     <row r="20" spans="1:12">
       <c s="1" r="A20" t="n">
@@ -1127,15 +1121,15 @@
       <c s="2" r="C20" t="n">
         <v>0.8229166666666666</v>
       </c>
-      <c s="19" r="D20" t="s"/>
-      <c s="19" r="E20" t="s"/>
-      <c s="19" r="F20" t="s"/>
-      <c s="19" r="G20" t="s"/>
-      <c s="19" r="H20" t="s"/>
-      <c s="20" r="I20" t="s"/>
-      <c s="21" r="J20" t="s"/>
-      <c s="20" r="K20" t="s"/>
-      <c s="21" r="L20" t="s"/>
+      <c s="17" r="D20" t="s"/>
+      <c s="17" r="E20" t="s"/>
+      <c s="17" r="F20" t="s"/>
+      <c s="17" r="G20" t="s"/>
+      <c s="17" r="H20" t="s"/>
+      <c s="18" r="I20" t="s"/>
+      <c s="19" r="J20" t="s"/>
+      <c s="18" r="K20" t="s"/>
+      <c s="19" r="L20" t="s"/>
     </row>
     <row r="21" spans="1:12">
       <c s="1" r="A21" t="n">
@@ -1147,15 +1141,15 @@
       <c s="2" r="C21" t="n">
         <v>0.8576388888888888</v>
       </c>
-      <c s="19" r="D21" t="s"/>
-      <c s="19" r="E21" t="s"/>
-      <c s="19" r="F21" t="s"/>
-      <c s="19" r="G21" t="s"/>
-      <c s="19" r="H21" t="s"/>
-      <c s="20" r="I21" t="s"/>
-      <c s="21" r="J21" t="s"/>
-      <c s="20" r="K21" t="s"/>
-      <c s="21" r="L21" t="s"/>
+      <c s="17" r="D21" t="s"/>
+      <c s="17" r="E21" t="s"/>
+      <c s="17" r="F21" t="s"/>
+      <c s="17" r="G21" t="s"/>
+      <c s="17" r="H21" t="s"/>
+      <c s="18" r="I21" t="s"/>
+      <c s="19" r="J21" t="s"/>
+      <c s="18" r="K21" t="s"/>
+      <c s="19" r="L21" t="s"/>
     </row>
     <row customHeight="1" s="12" r="22" ht="15.75" spans="1:12">
       <c s="1" r="A22" t="n">
@@ -1167,15 +1161,15 @@
       <c s="2" r="C22" t="n">
         <v>0.8854166666666666</v>
       </c>
-      <c s="19" r="D22" t="s"/>
-      <c s="19" r="E22" t="s"/>
-      <c s="19" r="F22" t="s"/>
-      <c s="19" r="G22" t="s"/>
-      <c s="19" r="H22" t="s"/>
-      <c s="20" r="I22" t="s"/>
-      <c s="21" r="J22" t="s"/>
-      <c s="20" r="K22" t="s"/>
-      <c s="21" r="L22" t="s"/>
+      <c s="17" r="D22" t="s"/>
+      <c s="17" r="E22" t="s"/>
+      <c s="17" r="F22" t="s"/>
+      <c s="17" r="G22" t="s"/>
+      <c s="17" r="H22" t="s"/>
+      <c s="18" r="I22" t="s"/>
+      <c s="19" r="J22" t="s"/>
+      <c s="18" r="K22" t="s"/>
+      <c s="19" r="L22" t="s"/>
     </row>
     <row customHeight="1" s="12" r="25" ht="27" spans="1:12"/>
     <row customHeight="1" s="12" r="26" ht="31.5" spans="1:12"/>
@@ -1279,25 +1273,23 @@
       <c s="2" r="C5" t="n">
         <v>0.3229166666666667</v>
       </c>
-      <c s="24" r="D5" t="s"/>
-      <c s="24" r="E5" t="s">
+      <c s="22" r="D5" t="s">
         <v>15</v>
       </c>
-      <c s="24" r="F5" t="s">
+      <c s="22" r="E5" t="s"/>
+      <c s="22" r="F5" t="s"/>
+      <c s="22" r="G5" t="s"/>
+      <c s="22" r="H5" t="s">
+        <v>15</v>
+      </c>
+      <c s="18" r="I5" t="s">
         <v>16</v>
       </c>
-      <c s="24" r="G5" t="s">
+      <c s="19" r="J5" t="s">
         <v>17</v>
       </c>
-      <c s="19" r="H5" t="s"/>
-      <c s="20" r="I5" t="s">
-        <v>18</v>
-      </c>
-      <c s="21" r="J5" t="s">
-        <v>19</v>
-      </c>
-      <c s="20" r="K5" t="s"/>
-      <c s="21" r="L5" t="s"/>
+      <c s="18" r="K5" t="s"/>
+      <c s="19" r="L5" t="s"/>
     </row>
     <row r="6" spans="1:12">
       <c s="1" r="A6" t="n">
@@ -1309,25 +1301,23 @@
       <c s="2" r="C6" t="n">
         <v>0.3576388888888889</v>
       </c>
-      <c s="24" r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c s="24" r="E6" t="s"/>
-      <c s="24" r="F6" t="s"/>
-      <c s="24" r="G6" t="s">
+      <c s="22" r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c s="22" r="E6" t="s"/>
+      <c s="22" r="F6" t="s"/>
+      <c s="22" r="G6" t="s"/>
+      <c s="22" r="H6" t="s">
         <v>15</v>
       </c>
-      <c s="19" r="H6" t="s">
-        <v>15</v>
-      </c>
-      <c s="20" r="I6" t="s">
-        <v>16</v>
-      </c>
-      <c s="21" r="J6" t="s">
-        <v>19</v>
-      </c>
-      <c s="20" r="K6" t="s"/>
-      <c s="21" r="L6" t="s"/>
+      <c s="18" r="I6" t="s">
+        <v>18</v>
+      </c>
+      <c s="19" r="J6" t="s">
+        <v>17</v>
+      </c>
+      <c s="18" r="K6" t="s"/>
+      <c s="19" r="L6" t="s"/>
     </row>
     <row r="7" spans="1:12">
       <c s="1" r="A7" t="n">
@@ -1339,25 +1329,25 @@
       <c s="2" r="C7" t="n">
         <v>0.3923611111111111</v>
       </c>
-      <c s="24" r="D7" t="s">
+      <c s="22" r="D7" t="s">
         <v>15</v>
       </c>
-      <c s="24" r="E7" t="s"/>
-      <c s="24" r="F7" t="s">
+      <c s="22" r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c s="22" r="F7" t="s"/>
+      <c s="22" r="G7" t="s"/>
+      <c s="22" r="H7" t="s">
+        <v>15</v>
+      </c>
+      <c s="18" r="I7" t="s">
+        <v>19</v>
+      </c>
+      <c s="19" r="J7" t="s">
         <v>17</v>
       </c>
-      <c s="24" r="G7" t="s">
-        <v>18</v>
-      </c>
-      <c s="19" r="H7" t="s"/>
-      <c s="20" r="I7" t="s">
-        <v>21</v>
-      </c>
-      <c s="21" r="J7" t="s">
-        <v>19</v>
-      </c>
-      <c s="20" r="K7" t="s"/>
-      <c s="21" r="L7" t="s"/>
+      <c s="18" r="K7" t="s"/>
+      <c s="19" r="L7" t="s"/>
     </row>
     <row r="8" spans="1:12">
       <c s="1" r="A8" t="n">
@@ -1369,19 +1359,21 @@
       <c s="2" r="C8" t="n">
         <v>0.4270833333333333</v>
       </c>
-      <c s="24" r="D8" t="s"/>
-      <c s="24" r="E8" t="s"/>
-      <c s="24" r="F8" t="s"/>
-      <c s="24" r="G8" t="s"/>
-      <c s="19" r="H8" t="s"/>
-      <c s="20" r="I8" t="s">
+      <c s="22" r="D8" t="s"/>
+      <c s="22" r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c s="22" r="F8" t="s"/>
+      <c s="22" r="G8" t="s"/>
+      <c s="22" r="H8" t="s"/>
+      <c s="18" r="I8" t="s">
+        <v>20</v>
+      </c>
+      <c s="19" r="J8" t="s">
         <v>17</v>
       </c>
-      <c s="21" r="J8" t="s">
-        <v>19</v>
-      </c>
-      <c s="20" r="K8" t="s"/>
-      <c s="21" r="L8" t="s"/>
+      <c s="18" r="K8" t="s"/>
+      <c s="19" r="L8" t="s"/>
     </row>
     <row r="9" spans="1:12">
       <c s="1" r="A9" t="s">
@@ -1393,19 +1385,19 @@
       <c s="2" r="C9" t="n">
         <v>0.4444444444444444</v>
       </c>
-      <c s="22" r="D9" t="s"/>
-      <c s="22" r="E9" t="s"/>
-      <c s="22" r="F9" t="s"/>
-      <c s="23" r="G9" t="s"/>
-      <c s="22" r="H9" t="s"/>
-      <c s="20" r="I9" t="s">
-        <v>15</v>
-      </c>
-      <c s="21" r="J9" t="s">
-        <v>19</v>
-      </c>
-      <c s="20" r="K9" t="s"/>
-      <c s="21" r="L9" t="s"/>
+      <c s="20" r="D9" t="s"/>
+      <c s="20" r="E9" t="s"/>
+      <c s="20" r="F9" t="s"/>
+      <c s="21" r="G9" t="s"/>
+      <c s="20" r="H9" t="s"/>
+      <c s="18" r="I9" t="s">
+        <v>21</v>
+      </c>
+      <c s="19" r="J9" t="s">
+        <v>17</v>
+      </c>
+      <c s="18" r="K9" t="s"/>
+      <c s="19" r="L9" t="s"/>
     </row>
     <row r="10" spans="1:12">
       <c s="1" r="A10" t="n">
@@ -1417,21 +1409,19 @@
       <c s="2" r="C10" t="n">
         <v>0.4756944444444444</v>
       </c>
-      <c s="24" r="D10" t="s"/>
-      <c s="24" r="E10" t="s"/>
-      <c s="24" r="F10" t="s">
-        <v>15</v>
-      </c>
-      <c s="24" r="G10" t="s"/>
-      <c s="19" r="H10" t="s"/>
-      <c s="20" r="I10" t="s">
+      <c s="22" r="D10" t="s"/>
+      <c s="22" r="E10" t="s"/>
+      <c s="22" r="F10" t="s"/>
+      <c s="22" r="G10" t="s"/>
+      <c s="22" r="H10" t="s"/>
+      <c s="18" r="I10" t="s">
         <v>22</v>
       </c>
-      <c s="21" r="J10" t="s">
-        <v>19</v>
-      </c>
-      <c s="20" r="K10" t="s"/>
-      <c s="21" r="L10" t="s"/>
+      <c s="19" r="J10" t="s">
+        <v>17</v>
+      </c>
+      <c s="18" r="K10" t="s"/>
+      <c s="19" r="L10" t="s"/>
     </row>
     <row customHeight="1" s="12" r="11" ht="30" spans="1:12">
       <c s="1" r="A11" t="n">
@@ -1443,19 +1433,15 @@
       <c s="2" r="C11" t="n">
         <v>0.5104166666666666</v>
       </c>
-      <c s="24" r="D11" t="s"/>
-      <c s="24" r="E11" t="s"/>
-      <c s="24" r="F11" t="s"/>
-      <c s="24" r="G11" t="s"/>
-      <c s="19" r="H11" t="s"/>
-      <c s="20" r="I11" t="s">
-        <v>23</v>
-      </c>
-      <c s="21" r="J11" t="s">
-        <v>19</v>
-      </c>
-      <c s="20" r="K11" t="s"/>
-      <c s="21" r="L11" t="s"/>
+      <c s="22" r="D11" t="s"/>
+      <c s="22" r="E11" t="s"/>
+      <c s="22" r="F11" t="s"/>
+      <c s="22" r="G11" t="s"/>
+      <c s="22" r="H11" t="s"/>
+      <c s="18" r="I11" t="s"/>
+      <c s="19" r="J11" t="s"/>
+      <c s="18" r="K11" t="s"/>
+      <c s="19" r="L11" t="s"/>
     </row>
     <row customHeight="1" s="12" r="12" ht="30" spans="1:12">
       <c s="1" r="A12" t="n">
@@ -1467,19 +1453,15 @@
       <c s="2" r="C12" t="n">
         <v>0.5451388888888888</v>
       </c>
-      <c s="24" r="D12" t="s"/>
-      <c s="24" r="E12" t="s"/>
-      <c s="24" r="F12" t="s"/>
-      <c s="24" r="G12" t="s"/>
-      <c s="19" r="H12" t="s"/>
-      <c s="20" r="I12" t="s">
-        <v>24</v>
-      </c>
-      <c s="21" r="J12" t="s">
-        <v>19</v>
-      </c>
-      <c s="20" r="K12" t="s"/>
-      <c s="21" r="L12" t="s"/>
+      <c s="22" r="D12" t="s"/>
+      <c s="22" r="E12" t="s"/>
+      <c s="22" r="F12" t="s"/>
+      <c s="22" r="G12" t="s"/>
+      <c s="22" r="H12" t="s"/>
+      <c s="18" r="I12" t="s"/>
+      <c s="19" r="J12" t="s"/>
+      <c s="18" r="K12" t="s"/>
+      <c s="19" r="L12" t="s"/>
     </row>
     <row r="13" spans="1:12">
       <c s="1" r="A13" t="n">
@@ -1491,23 +1473,17 @@
       <c s="2" r="C13" t="n">
         <v>0.5798611111111112</v>
       </c>
-      <c s="24" r="D13" t="s">
-        <v>16</v>
-      </c>
-      <c s="24" r="E13" t="s"/>
-      <c s="24" r="F13" t="s">
+      <c s="22" r="D13" t="s">
         <v>15</v>
       </c>
-      <c s="24" r="G13" t="s"/>
-      <c s="19" r="H13" t="s"/>
-      <c s="20" r="I13" t="s">
-        <v>25</v>
-      </c>
-      <c s="21" r="J13" t="s">
-        <v>19</v>
-      </c>
-      <c s="20" r="K13" t="s"/>
-      <c s="21" r="L13" t="s"/>
+      <c s="22" r="E13" t="s"/>
+      <c s="22" r="F13" t="s"/>
+      <c s="22" r="G13" t="s"/>
+      <c s="22" r="H13" t="s"/>
+      <c s="18" r="I13" t="s"/>
+      <c s="19" r="J13" t="s"/>
+      <c s="18" r="K13" t="s"/>
+      <c s="19" r="L13" t="s"/>
     </row>
     <row r="14" spans="1:12">
       <c s="1" r="A14" t="n">
@@ -1519,15 +1495,17 @@
       <c s="2" r="C14" t="n">
         <v>0.6145833333333334</v>
       </c>
-      <c s="24" r="D14" t="s"/>
-      <c s="24" r="E14" t="s"/>
-      <c s="24" r="F14" t="s"/>
-      <c s="24" r="G14" t="s"/>
-      <c s="19" r="H14" t="s"/>
-      <c s="20" r="I14" t="s"/>
-      <c s="21" r="J14" t="s"/>
-      <c s="20" r="K14" t="s"/>
-      <c s="21" r="L14" t="s"/>
+      <c s="17" r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c s="17" r="E14" t="s"/>
+      <c s="17" r="F14" t="s"/>
+      <c s="17" r="G14" t="s"/>
+      <c s="17" r="H14" t="s"/>
+      <c s="18" r="I14" t="s"/>
+      <c s="19" r="J14" t="s"/>
+      <c s="18" r="K14" t="s"/>
+      <c s="19" r="L14" t="s"/>
     </row>
     <row r="15" spans="1:12">
       <c s="1" r="A15" t="n">
@@ -1539,19 +1517,17 @@
       <c s="2" r="C15" t="n">
         <v>0.6493055555555556</v>
       </c>
-      <c s="24" r="D15" t="s"/>
-      <c s="24" r="E15" t="s">
-        <v>15</v>
-      </c>
-      <c s="24" r="F15" t="s"/>
-      <c s="24" r="G15" t="s">
-        <v>26</v>
-      </c>
-      <c s="19" r="H15" t="s"/>
-      <c s="20" r="I15" t="s"/>
-      <c s="21" r="J15" t="s"/>
-      <c s="20" r="K15" t="s"/>
-      <c s="21" r="L15" t="s"/>
+      <c s="17" r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c s="17" r="E15" t="s"/>
+      <c s="17" r="F15" t="s"/>
+      <c s="17" r="G15" t="s"/>
+      <c s="17" r="H15" t="s"/>
+      <c s="18" r="I15" t="s"/>
+      <c s="19" r="J15" t="s"/>
+      <c s="18" r="K15" t="s"/>
+      <c s="19" r="L15" t="s"/>
     </row>
     <row r="16" spans="1:12">
       <c s="1" r="A16" t="n">
@@ -1563,17 +1539,17 @@
       <c s="2" r="C16" t="n">
         <v>0.6840277777777778</v>
       </c>
-      <c s="24" r="D16" t="s"/>
-      <c s="24" r="E16" t="s"/>
-      <c s="24" r="F16" t="s"/>
-      <c s="24" r="G16" t="s">
-        <v>15</v>
-      </c>
-      <c s="19" r="H16" t="s"/>
-      <c s="20" r="I16" t="s"/>
-      <c s="21" r="J16" t="s"/>
-      <c s="20" r="K16" t="s"/>
-      <c s="21" r="L16" t="s"/>
+      <c s="17" r="D16" t="s"/>
+      <c s="17" r="E16" t="s">
+        <v>16</v>
+      </c>
+      <c s="17" r="F16" t="s"/>
+      <c s="17" r="G16" t="s"/>
+      <c s="17" r="H16" t="s"/>
+      <c s="18" r="I16" t="s"/>
+      <c s="19" r="J16" t="s"/>
+      <c s="18" r="K16" t="s"/>
+      <c s="19" r="L16" t="s"/>
     </row>
     <row r="17" spans="1:12">
       <c s="1" r="A17" t="n">
@@ -1585,17 +1561,15 @@
       <c s="2" r="C17" t="n">
         <v>0.71875</v>
       </c>
-      <c s="24" r="D17" t="s">
-        <v>16</v>
-      </c>
-      <c s="24" r="E17" t="s"/>
-      <c s="24" r="F17" t="s"/>
-      <c s="24" r="G17" t="s"/>
-      <c s="19" r="H17" t="s"/>
-      <c s="20" r="I17" t="s"/>
-      <c s="21" r="J17" t="s"/>
-      <c s="20" r="K17" t="s"/>
-      <c s="21" r="L17" t="s"/>
+      <c s="17" r="D17" t="s"/>
+      <c s="17" r="E17" t="s"/>
+      <c s="17" r="F17" t="s"/>
+      <c s="17" r="G17" t="s"/>
+      <c s="17" r="H17" t="s"/>
+      <c s="18" r="I17" t="s"/>
+      <c s="19" r="J17" t="s"/>
+      <c s="18" r="K17" t="s"/>
+      <c s="19" r="L17" t="s"/>
     </row>
     <row r="18" spans="1:12">
       <c s="1" r="A18" t="n">
@@ -1607,15 +1581,17 @@
       <c s="2" r="C18" t="n">
         <v>0.7534722222222222</v>
       </c>
-      <c s="24" r="D18" t="s"/>
-      <c s="24" r="E18" t="s"/>
-      <c s="24" r="F18" t="s"/>
-      <c s="24" r="G18" t="s"/>
-      <c s="19" r="H18" t="s"/>
-      <c s="20" r="I18" t="s"/>
-      <c s="21" r="J18" t="s"/>
-      <c s="20" r="K18" t="s"/>
-      <c s="21" r="L18" t="s"/>
+      <c s="17" r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c s="17" r="E18" t="s"/>
+      <c s="17" r="F18" t="s"/>
+      <c s="17" r="G18" t="s"/>
+      <c s="17" r="H18" t="s"/>
+      <c s="18" r="I18" t="s"/>
+      <c s="19" r="J18" t="s"/>
+      <c s="18" r="K18" t="s"/>
+      <c s="19" r="L18" t="s"/>
     </row>
     <row r="19" spans="1:12">
       <c s="1" r="A19" t="n">
@@ -1627,19 +1603,17 @@
       <c s="2" r="C19" t="n">
         <v>0.7881944444444444</v>
       </c>
-      <c s="24" r="D19" t="s"/>
-      <c s="24" r="E19" t="s">
-        <v>21</v>
-      </c>
-      <c s="24" r="F19" t="s"/>
-      <c s="24" r="G19" t="s">
-        <v>15</v>
-      </c>
-      <c s="19" r="H19" t="s"/>
-      <c s="20" r="I19" t="s"/>
-      <c s="21" r="J19" t="s"/>
-      <c s="20" r="K19" t="s"/>
-      <c s="21" r="L19" t="s"/>
+      <c s="17" r="D19" t="s"/>
+      <c s="17" r="E19" t="s">
+        <v>24</v>
+      </c>
+      <c s="17" r="F19" t="s"/>
+      <c s="17" r="G19" t="s"/>
+      <c s="17" r="H19" t="s"/>
+      <c s="18" r="I19" t="s"/>
+      <c s="19" r="J19" t="s"/>
+      <c s="18" r="K19" t="s"/>
+      <c s="19" r="L19" t="s"/>
     </row>
     <row r="20" spans="1:12">
       <c s="1" r="A20" t="n">
@@ -1651,17 +1625,15 @@
       <c s="2" r="C20" t="n">
         <v>0.8229166666666666</v>
       </c>
-      <c s="24" r="D20" t="s">
-        <v>15</v>
-      </c>
-      <c s="24" r="E20" t="s"/>
-      <c s="24" r="F20" t="s"/>
-      <c s="24" r="G20" t="s"/>
-      <c s="19" r="H20" t="s"/>
-      <c s="20" r="I20" t="s"/>
-      <c s="21" r="J20" t="s"/>
-      <c s="20" r="K20" t="s"/>
-      <c s="21" r="L20" t="s"/>
+      <c s="17" r="D20" t="s"/>
+      <c s="17" r="E20" t="s"/>
+      <c s="17" r="F20" t="s"/>
+      <c s="17" r="G20" t="s"/>
+      <c s="17" r="H20" t="s"/>
+      <c s="18" r="I20" t="s"/>
+      <c s="19" r="J20" t="s"/>
+      <c s="18" r="K20" t="s"/>
+      <c s="19" r="L20" t="s"/>
     </row>
     <row r="21" spans="1:12">
       <c s="1" r="A21" t="n">
@@ -1673,17 +1645,19 @@
       <c s="2" r="C21" t="n">
         <v>0.8576388888888888</v>
       </c>
-      <c s="24" r="D21" t="s"/>
-      <c s="24" r="E21" t="s"/>
-      <c s="24" r="F21" t="s"/>
-      <c s="24" r="G21" t="s">
+      <c s="17" r="D21" t="s">
         <v>15</v>
       </c>
-      <c s="19" r="H21" t="s"/>
-      <c s="20" r="I21" t="s"/>
-      <c s="21" r="J21" t="s"/>
-      <c s="20" r="K21" t="s"/>
-      <c s="21" r="L21" t="s"/>
+      <c s="17" r="E21" t="s">
+        <v>19</v>
+      </c>
+      <c s="17" r="F21" t="s"/>
+      <c s="17" r="G21" t="s"/>
+      <c s="17" r="H21" t="s"/>
+      <c s="18" r="I21" t="s"/>
+      <c s="19" r="J21" t="s"/>
+      <c s="18" r="K21" t="s"/>
+      <c s="19" r="L21" t="s"/>
     </row>
     <row customHeight="1" s="12" r="22" ht="15.75" spans="1:12">
       <c s="1" r="A22" t="n">
@@ -1695,21 +1669,15 @@
       <c s="2" r="C22" t="n">
         <v>0.8854166666666666</v>
       </c>
-      <c s="24" r="D22" t="s">
-        <v>15</v>
-      </c>
-      <c s="24" r="E22" t="s">
-        <v>21</v>
-      </c>
-      <c s="24" r="F22" t="s"/>
-      <c s="24" r="G22" t="s">
-        <v>18</v>
-      </c>
-      <c s="19" r="H22" t="s"/>
-      <c s="20" r="I22" t="s"/>
-      <c s="21" r="J22" t="s"/>
-      <c s="20" r="K22" t="s"/>
-      <c s="21" r="L22" t="s"/>
+      <c s="17" r="D22" t="s"/>
+      <c s="17" r="E22" t="s"/>
+      <c s="17" r="F22" t="s"/>
+      <c s="17" r="G22" t="s"/>
+      <c s="17" r="H22" t="s"/>
+      <c s="18" r="I22" t="s"/>
+      <c s="19" r="J22" t="s"/>
+      <c s="18" r="K22" t="s"/>
+      <c s="19" r="L22" t="s"/>
     </row>
     <row customHeight="1" s="12" r="25" ht="27" spans="1:12"/>
     <row customHeight="1" s="12" r="26" ht="31.5" spans="1:12"/>
@@ -1760,7 +1728,7 @@
         <v>2</v>
       </c>
       <c s="16" r="E2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c s="11" r="I2" t="s">
         <v>4</v>
@@ -1812,19 +1780,19 @@
       <c s="2" r="C5" t="n">
         <v>0.3229166666666667</v>
       </c>
-      <c s="19" r="D5" t="s"/>
-      <c s="24" r="E5" t="s"/>
-      <c s="24" r="F5" t="s"/>
-      <c s="19" r="G5" t="s"/>
-      <c s="19" r="H5" t="s"/>
-      <c s="20" r="I5" t="s">
-        <v>28</v>
-      </c>
-      <c s="21" r="J5" t="s">
-        <v>29</v>
-      </c>
-      <c s="20" r="K5" t="s"/>
-      <c s="21" r="L5" t="s"/>
+      <c s="17" r="D5" t="s"/>
+      <c s="17" r="E5" t="s"/>
+      <c s="17" r="F5" t="s"/>
+      <c s="17" r="G5" t="s"/>
+      <c s="17" r="H5" t="s"/>
+      <c s="18" r="I5" t="s">
+        <v>26</v>
+      </c>
+      <c s="19" r="J5" t="s">
+        <v>27</v>
+      </c>
+      <c s="18" r="K5" t="s"/>
+      <c s="19" r="L5" t="s"/>
     </row>
     <row r="6" spans="1:12">
       <c s="1" r="A6" t="n">
@@ -1836,19 +1804,19 @@
       <c s="2" r="C6" t="n">
         <v>0.3576388888888889</v>
       </c>
-      <c s="19" r="D6" t="s"/>
-      <c s="24" r="E6" t="s"/>
-      <c s="24" r="F6" t="s"/>
-      <c s="19" r="G6" t="s"/>
-      <c s="19" r="H6" t="s"/>
-      <c s="20" r="I6" t="s">
-        <v>30</v>
-      </c>
-      <c s="21" r="J6" t="s">
-        <v>29</v>
-      </c>
-      <c s="20" r="K6" t="s"/>
-      <c s="21" r="L6" t="s"/>
+      <c s="17" r="D6" t="s"/>
+      <c s="17" r="E6" t="s"/>
+      <c s="17" r="F6" t="s"/>
+      <c s="17" r="G6" t="s"/>
+      <c s="17" r="H6" t="s"/>
+      <c s="18" r="I6" t="s">
+        <v>28</v>
+      </c>
+      <c s="19" r="J6" t="s">
+        <v>27</v>
+      </c>
+      <c s="18" r="K6" t="s"/>
+      <c s="19" r="L6" t="s"/>
     </row>
     <row r="7" spans="1:12">
       <c s="1" r="A7" t="n">
@@ -1860,15 +1828,19 @@
       <c s="2" r="C7" t="n">
         <v>0.3923611111111111</v>
       </c>
-      <c s="19" r="D7" t="s"/>
-      <c s="24" r="E7" t="s"/>
-      <c s="24" r="F7" t="s"/>
-      <c s="19" r="G7" t="s"/>
-      <c s="19" r="H7" t="s"/>
-      <c s="20" r="I7" t="s"/>
-      <c s="21" r="J7" t="s"/>
-      <c s="20" r="K7" t="s"/>
-      <c s="21" r="L7" t="s"/>
+      <c s="17" r="D7" t="s"/>
+      <c s="17" r="E7" t="s"/>
+      <c s="17" r="F7" t="s"/>
+      <c s="17" r="G7" t="s"/>
+      <c s="17" r="H7" t="s"/>
+      <c s="18" r="I7" t="s">
+        <v>29</v>
+      </c>
+      <c s="19" r="J7" t="s">
+        <v>27</v>
+      </c>
+      <c s="18" r="K7" t="s"/>
+      <c s="19" r="L7" t="s"/>
     </row>
     <row r="8" spans="1:12">
       <c s="1" r="A8" t="n">
@@ -1880,17 +1852,19 @@
       <c s="2" r="C8" t="n">
         <v>0.4270833333333333</v>
       </c>
-      <c s="19" r="D8" t="s"/>
-      <c s="24" r="E8" t="s"/>
-      <c s="24" r="F8" t="s">
-        <v>15</v>
-      </c>
-      <c s="19" r="G8" t="s"/>
-      <c s="19" r="H8" t="s"/>
-      <c s="20" r="I8" t="s"/>
-      <c s="21" r="J8" t="s"/>
-      <c s="20" r="K8" t="s"/>
-      <c s="21" r="L8" t="s"/>
+      <c s="17" r="D8" t="s"/>
+      <c s="17" r="E8" t="s"/>
+      <c s="17" r="F8" t="s"/>
+      <c s="17" r="G8" t="s"/>
+      <c s="17" r="H8" t="s"/>
+      <c s="18" r="I8" t="s">
+        <v>30</v>
+      </c>
+      <c s="19" r="J8" t="s">
+        <v>27</v>
+      </c>
+      <c s="18" r="K8" t="s"/>
+      <c s="19" r="L8" t="s"/>
     </row>
     <row r="9" spans="1:12">
       <c s="1" r="A9" t="s">
@@ -1902,15 +1876,19 @@
       <c s="2" r="C9" t="n">
         <v>0.4444444444444444</v>
       </c>
-      <c s="22" r="D9" t="s"/>
-      <c s="22" r="E9" t="s"/>
-      <c s="22" r="F9" t="s"/>
-      <c s="23" r="G9" t="s"/>
-      <c s="22" r="H9" t="s"/>
-      <c s="20" r="I9" t="s"/>
-      <c s="21" r="J9" t="s"/>
-      <c s="20" r="K9" t="s"/>
-      <c s="21" r="L9" t="s"/>
+      <c s="20" r="D9" t="s"/>
+      <c s="20" r="E9" t="s"/>
+      <c s="20" r="F9" t="s"/>
+      <c s="21" r="G9" t="s"/>
+      <c s="20" r="H9" t="s"/>
+      <c s="18" r="I9" t="s">
+        <v>31</v>
+      </c>
+      <c s="19" r="J9" t="s">
+        <v>27</v>
+      </c>
+      <c s="18" r="K9" t="s"/>
+      <c s="19" r="L9" t="s"/>
     </row>
     <row r="10" spans="1:12">
       <c s="1" r="A10" t="n">
@@ -1922,17 +1900,23 @@
       <c s="2" r="C10" t="n">
         <v>0.4756944444444444</v>
       </c>
-      <c s="19" r="D10" t="s"/>
-      <c s="24" r="E10" t="s">
+      <c s="17" r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c s="17" r="E10" t="s"/>
+      <c s="17" r="F10" t="s"/>
+      <c s="17" r="G10" t="s"/>
+      <c s="17" r="H10" t="s">
         <v>15</v>
       </c>
-      <c s="24" r="F10" t="s"/>
-      <c s="19" r="G10" t="s"/>
-      <c s="19" r="H10" t="s"/>
-      <c s="20" r="I10" t="s"/>
-      <c s="21" r="J10" t="s"/>
-      <c s="20" r="K10" t="s"/>
-      <c s="21" r="L10" t="s"/>
+      <c s="18" r="I10" t="s">
+        <v>32</v>
+      </c>
+      <c s="19" r="J10" t="s">
+        <v>27</v>
+      </c>
+      <c s="18" r="K10" t="s"/>
+      <c s="19" r="L10" t="s"/>
     </row>
     <row customHeight="1" s="12" r="11" ht="30" spans="1:12">
       <c s="1" r="A11" t="n">
@@ -1944,17 +1928,19 @@
       <c s="2" r="C11" t="n">
         <v>0.5104166666666666</v>
       </c>
-      <c s="19" r="D11" t="s"/>
-      <c s="24" r="E11" t="s">
-        <v>15</v>
-      </c>
-      <c s="24" r="F11" t="s"/>
-      <c s="19" r="G11" t="s"/>
-      <c s="19" r="H11" t="s"/>
-      <c s="20" r="I11" t="s"/>
-      <c s="21" r="J11" t="s"/>
-      <c s="20" r="K11" t="s"/>
-      <c s="21" r="L11" t="s"/>
+      <c s="17" r="D11" t="s"/>
+      <c s="17" r="E11" t="s"/>
+      <c s="17" r="F11" t="s"/>
+      <c s="17" r="G11" t="s"/>
+      <c s="17" r="H11" t="s"/>
+      <c s="18" r="I11" t="s">
+        <v>33</v>
+      </c>
+      <c s="19" r="J11" t="s">
+        <v>27</v>
+      </c>
+      <c s="18" r="K11" t="s"/>
+      <c s="19" r="L11" t="s"/>
     </row>
     <row customHeight="1" s="12" r="12" ht="30" spans="1:12">
       <c s="1" r="A12" t="n">
@@ -1966,15 +1952,19 @@
       <c s="2" r="C12" t="n">
         <v>0.5451388888888888</v>
       </c>
-      <c s="19" r="D12" t="s"/>
-      <c s="24" r="E12" t="s"/>
-      <c s="24" r="F12" t="s"/>
-      <c s="19" r="G12" t="s"/>
-      <c s="19" r="H12" t="s"/>
-      <c s="20" r="I12" t="s"/>
-      <c s="21" r="J12" t="s"/>
-      <c s="20" r="K12" t="s"/>
-      <c s="21" r="L12" t="s"/>
+      <c s="17" r="D12" t="s"/>
+      <c s="17" r="E12" t="s"/>
+      <c s="17" r="F12" t="s"/>
+      <c s="17" r="G12" t="s"/>
+      <c s="17" r="H12" t="s"/>
+      <c s="18" r="I12" t="s">
+        <v>15</v>
+      </c>
+      <c s="19" r="J12" t="s">
+        <v>27</v>
+      </c>
+      <c s="18" r="K12" t="s"/>
+      <c s="19" r="L12" t="s"/>
     </row>
     <row r="13" spans="1:12">
       <c s="1" r="A13" t="n">
@@ -1986,15 +1976,21 @@
       <c s="2" r="C13" t="n">
         <v>0.5798611111111112</v>
       </c>
-      <c s="19" r="D13" t="s"/>
-      <c s="24" r="E13" t="s"/>
-      <c s="24" r="F13" t="s"/>
-      <c s="19" r="G13" t="s"/>
-      <c s="19" r="H13" t="s"/>
-      <c s="20" r="I13" t="s"/>
-      <c s="21" r="J13" t="s"/>
-      <c s="20" r="K13" t="s"/>
-      <c s="21" r="L13" t="s"/>
+      <c s="22" r="D13" t="s"/>
+      <c s="22" r="E13" t="s"/>
+      <c s="22" r="F13" t="s">
+        <v>30</v>
+      </c>
+      <c s="22" r="G13" t="s"/>
+      <c s="22" r="H13" t="s"/>
+      <c s="18" r="I13" t="s">
+        <v>34</v>
+      </c>
+      <c s="19" r="J13" t="s">
+        <v>27</v>
+      </c>
+      <c s="18" r="K13" t="s"/>
+      <c s="19" r="L13" t="s"/>
     </row>
     <row r="14" spans="1:12">
       <c s="1" r="A14" t="n">
@@ -2006,15 +2002,27 @@
       <c s="2" r="C14" t="n">
         <v>0.6145833333333334</v>
       </c>
-      <c s="19" r="D14" t="s"/>
-      <c s="24" r="E14" t="s"/>
-      <c s="24" r="F14" t="s"/>
-      <c s="19" r="G14" t="s"/>
-      <c s="19" r="H14" t="s"/>
-      <c s="20" r="I14" t="s"/>
-      <c s="21" r="J14" t="s"/>
-      <c s="20" r="K14" t="s"/>
-      <c s="21" r="L14" t="s"/>
+      <c s="22" r="D14" t="s"/>
+      <c s="22" r="E14" t="s">
+        <v>32</v>
+      </c>
+      <c s="22" r="F14" t="s">
+        <v>35</v>
+      </c>
+      <c s="22" r="G14" t="s">
+        <v>29</v>
+      </c>
+      <c s="22" r="H14" t="s">
+        <v>33</v>
+      </c>
+      <c s="18" r="I14" t="s">
+        <v>36</v>
+      </c>
+      <c s="19" r="J14" t="s">
+        <v>27</v>
+      </c>
+      <c s="18" r="K14" t="s"/>
+      <c s="19" r="L14" t="s"/>
     </row>
     <row r="15" spans="1:12">
       <c s="1" r="A15" t="n">
@@ -2026,15 +2034,27 @@
       <c s="2" r="C15" t="n">
         <v>0.6493055555555556</v>
       </c>
-      <c s="19" r="D15" t="s"/>
-      <c s="24" r="E15" t="s"/>
-      <c s="24" r="F15" t="s"/>
-      <c s="19" r="G15" t="s"/>
-      <c s="19" r="H15" t="s"/>
-      <c s="20" r="I15" t="s"/>
-      <c s="21" r="J15" t="s"/>
-      <c s="20" r="K15" t="s"/>
-      <c s="21" r="L15" t="s"/>
+      <c s="22" r="D15" t="s">
+        <v>37</v>
+      </c>
+      <c s="22" r="E15" t="s">
+        <v>38</v>
+      </c>
+      <c s="22" r="F15" t="s">
+        <v>39</v>
+      </c>
+      <c s="22" r="G15" t="s"/>
+      <c s="22" r="H15" t="s">
+        <v>40</v>
+      </c>
+      <c s="18" r="I15" t="s">
+        <v>41</v>
+      </c>
+      <c s="19" r="J15" t="s">
+        <v>27</v>
+      </c>
+      <c s="18" r="K15" t="s"/>
+      <c s="19" r="L15" t="s"/>
     </row>
     <row r="16" spans="1:12">
       <c s="1" r="A16" t="n">
@@ -2046,15 +2066,27 @@
       <c s="2" r="C16" t="n">
         <v>0.6840277777777778</v>
       </c>
-      <c s="19" r="D16" t="s"/>
-      <c s="24" r="E16" t="s"/>
-      <c s="24" r="F16" t="s"/>
-      <c s="19" r="G16" t="s"/>
-      <c s="19" r="H16" t="s"/>
-      <c s="20" r="I16" t="s"/>
-      <c s="21" r="J16" t="s"/>
-      <c s="20" r="K16" t="s"/>
-      <c s="21" r="L16" t="s"/>
+      <c s="22" r="D16" t="s">
+        <v>37</v>
+      </c>
+      <c s="22" r="E16" t="s">
+        <v>32</v>
+      </c>
+      <c s="22" r="F16" t="s">
+        <v>15</v>
+      </c>
+      <c s="22" r="G16" t="s"/>
+      <c s="22" r="H16" t="s">
+        <v>33</v>
+      </c>
+      <c s="18" r="I16" t="s">
+        <v>42</v>
+      </c>
+      <c s="19" r="J16" t="s">
+        <v>27</v>
+      </c>
+      <c s="18" r="K16" t="s"/>
+      <c s="19" r="L16" t="s"/>
     </row>
     <row r="17" spans="1:12">
       <c s="1" r="A17" t="n">
@@ -2066,15 +2098,21 @@
       <c s="2" r="C17" t="n">
         <v>0.71875</v>
       </c>
-      <c s="19" r="D17" t="s"/>
-      <c s="24" r="E17" t="s"/>
-      <c s="24" r="F17" t="s"/>
-      <c s="19" r="G17" t="s"/>
-      <c s="19" r="H17" t="s"/>
-      <c s="20" r="I17" t="s"/>
-      <c s="21" r="J17" t="s"/>
-      <c s="20" r="K17" t="s"/>
-      <c s="21" r="L17" t="s"/>
+      <c s="22" r="D17" t="s">
+        <v>43</v>
+      </c>
+      <c s="22" r="E17" t="s">
+        <v>28</v>
+      </c>
+      <c s="22" r="F17" t="s"/>
+      <c s="22" r="G17" t="s"/>
+      <c s="22" r="H17" t="s">
+        <v>31</v>
+      </c>
+      <c s="18" r="I17" t="s"/>
+      <c s="19" r="J17" t="s"/>
+      <c s="18" r="K17" t="s"/>
+      <c s="19" r="L17" t="s"/>
     </row>
     <row r="18" spans="1:12">
       <c s="1" r="A18" t="n">
@@ -2086,15 +2124,21 @@
       <c s="2" r="C18" t="n">
         <v>0.7534722222222222</v>
       </c>
-      <c s="19" r="D18" t="s"/>
-      <c s="24" r="E18" t="s"/>
-      <c s="24" r="F18" t="s"/>
-      <c s="19" r="G18" t="s"/>
-      <c s="19" r="H18" t="s"/>
-      <c s="20" r="I18" t="s"/>
-      <c s="21" r="J18" t="s"/>
-      <c s="20" r="K18" t="s"/>
-      <c s="21" r="L18" t="s"/>
+      <c s="22" r="D18" t="s"/>
+      <c s="22" r="E18" t="s">
+        <v>28</v>
+      </c>
+      <c s="22" r="F18" t="s">
+        <v>15</v>
+      </c>
+      <c s="22" r="G18" t="s"/>
+      <c s="22" r="H18" t="s">
+        <v>31</v>
+      </c>
+      <c s="18" r="I18" t="s"/>
+      <c s="19" r="J18" t="s"/>
+      <c s="18" r="K18" t="s"/>
+      <c s="19" r="L18" t="s"/>
     </row>
     <row r="19" spans="1:12">
       <c s="1" r="A19" t="n">
@@ -2106,15 +2150,17 @@
       <c s="2" r="C19" t="n">
         <v>0.7881944444444444</v>
       </c>
-      <c s="19" r="D19" t="s"/>
-      <c s="24" r="E19" t="s"/>
-      <c s="24" r="F19" t="s"/>
-      <c s="19" r="G19" t="s"/>
-      <c s="19" r="H19" t="s"/>
-      <c s="20" r="I19" t="s"/>
-      <c s="21" r="J19" t="s"/>
-      <c s="20" r="K19" t="s"/>
-      <c s="21" r="L19" t="s"/>
+      <c s="22" r="D19" t="s"/>
+      <c s="22" r="E19" t="s"/>
+      <c s="22" r="F19" t="s">
+        <v>15</v>
+      </c>
+      <c s="22" r="G19" t="s"/>
+      <c s="22" r="H19" t="s"/>
+      <c s="18" r="I19" t="s"/>
+      <c s="19" r="J19" t="s"/>
+      <c s="18" r="K19" t="s"/>
+      <c s="19" r="L19" t="s"/>
     </row>
     <row r="20" spans="1:12">
       <c s="1" r="A20" t="n">
@@ -2126,15 +2172,17 @@
       <c s="2" r="C20" t="n">
         <v>0.8229166666666666</v>
       </c>
-      <c s="19" r="D20" t="s"/>
-      <c s="24" r="E20" t="s"/>
-      <c s="24" r="F20" t="s"/>
-      <c s="19" r="G20" t="s"/>
-      <c s="19" r="H20" t="s"/>
-      <c s="20" r="I20" t="s"/>
-      <c s="21" r="J20" t="s"/>
-      <c s="20" r="K20" t="s"/>
-      <c s="21" r="L20" t="s"/>
+      <c s="22" r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c s="22" r="E20" t="s"/>
+      <c s="22" r="F20" t="s"/>
+      <c s="22" r="G20" t="s"/>
+      <c s="22" r="H20" t="s"/>
+      <c s="18" r="I20" t="s"/>
+      <c s="19" r="J20" t="s"/>
+      <c s="18" r="K20" t="s"/>
+      <c s="19" r="L20" t="s"/>
     </row>
     <row r="21" spans="1:12">
       <c s="1" r="A21" t="n">
@@ -2146,15 +2194,15 @@
       <c s="2" r="C21" t="n">
         <v>0.8576388888888888</v>
       </c>
-      <c s="19" r="D21" t="s"/>
-      <c s="24" r="E21" t="s"/>
-      <c s="24" r="F21" t="s"/>
-      <c s="19" r="G21" t="s"/>
-      <c s="19" r="H21" t="s"/>
-      <c s="20" r="I21" t="s"/>
-      <c s="21" r="J21" t="s"/>
-      <c s="20" r="K21" t="s"/>
-      <c s="21" r="L21" t="s"/>
+      <c s="22" r="D21" t="s"/>
+      <c s="22" r="E21" t="s"/>
+      <c s="22" r="F21" t="s"/>
+      <c s="22" r="G21" t="s"/>
+      <c s="22" r="H21" t="s"/>
+      <c s="18" r="I21" t="s"/>
+      <c s="19" r="J21" t="s"/>
+      <c s="18" r="K21" t="s"/>
+      <c s="19" r="L21" t="s"/>
     </row>
     <row customHeight="1" s="12" r="22" ht="15.75" spans="1:12">
       <c s="1" r="A22" t="n">
@@ -2166,15 +2214,17 @@
       <c s="2" r="C22" t="n">
         <v>0.8854166666666666</v>
       </c>
-      <c s="19" r="D22" t="s"/>
-      <c s="24" r="E22" t="s"/>
-      <c s="24" r="F22" t="s"/>
-      <c s="19" r="G22" t="s"/>
-      <c s="19" r="H22" t="s"/>
-      <c s="20" r="I22" t="s"/>
-      <c s="21" r="J22" t="s"/>
-      <c s="20" r="K22" t="s"/>
-      <c s="21" r="L22" t="s"/>
+      <c s="22" r="D22" t="s"/>
+      <c s="22" r="E22" t="s"/>
+      <c s="22" r="F22" t="s">
+        <v>15</v>
+      </c>
+      <c s="22" r="G22" t="s"/>
+      <c s="22" r="H22" t="s"/>
+      <c s="18" r="I22" t="s"/>
+      <c s="19" r="J22" t="s"/>
+      <c s="18" r="K22" t="s"/>
+      <c s="19" r="L22" t="s"/>
     </row>
     <row customHeight="1" s="12" r="25" ht="27" spans="1:12"/>
     <row customHeight="1" s="12" r="26" ht="31.5" spans="1:12"/>
@@ -2225,7 +2275,7 @@
         <v>2</v>
       </c>
       <c s="16" r="E2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c s="11" r="I2" t="s">
         <v>4</v>
@@ -2277,23 +2327,23 @@
       <c s="2" r="C5" t="n">
         <v>0.3229166666666667</v>
       </c>
-      <c s="19" r="D5" t="s"/>
-      <c s="19" r="E5" t="s"/>
-      <c s="24" r="F5" t="s"/>
-      <c s="24" r="G5" t="s">
-        <v>32</v>
-      </c>
-      <c s="24" r="H5" t="s">
-        <v>33</v>
-      </c>
-      <c s="20" r="I5" t="s">
-        <v>34</v>
-      </c>
-      <c s="21" r="J5" t="s">
-        <v>35</v>
-      </c>
-      <c s="20" r="K5" t="s"/>
-      <c s="21" r="L5" t="s"/>
+      <c s="22" r="D5" t="s"/>
+      <c s="22" r="E5" t="s">
+        <v>45</v>
+      </c>
+      <c s="22" r="F5" t="s">
+        <v>46</v>
+      </c>
+      <c s="22" r="G5" t="s"/>
+      <c s="22" r="H5" t="s"/>
+      <c s="18" r="I5" t="s">
+        <v>47</v>
+      </c>
+      <c s="19" r="J5" t="s">
+        <v>48</v>
+      </c>
+      <c s="18" r="K5" t="s"/>
+      <c s="19" r="L5" t="s"/>
     </row>
     <row r="6" spans="1:12">
       <c s="1" r="A6" t="n">
@@ -2305,25 +2355,21 @@
       <c s="2" r="C6" t="n">
         <v>0.3576388888888889</v>
       </c>
-      <c s="19" r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c s="19" r="E6" t="s"/>
-      <c s="24" r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c s="24" r="G6" t="s"/>
-      <c s="24" r="H6" t="s">
-        <v>15</v>
-      </c>
-      <c s="20" r="I6" t="s">
-        <v>36</v>
-      </c>
-      <c s="21" r="J6" t="s">
-        <v>35</v>
-      </c>
-      <c s="20" r="K6" t="s"/>
-      <c s="21" r="L6" t="s"/>
+      <c s="22" r="D6" t="s"/>
+      <c s="22" r="E6" t="s">
+        <v>45</v>
+      </c>
+      <c s="22" r="F6" t="s"/>
+      <c s="22" r="G6" t="s"/>
+      <c s="22" r="H6" t="s"/>
+      <c s="18" r="I6" t="s">
+        <v>45</v>
+      </c>
+      <c s="19" r="J6" t="s">
+        <v>48</v>
+      </c>
+      <c s="18" r="K6" t="s"/>
+      <c s="19" r="L6" t="s"/>
     </row>
     <row r="7" spans="1:12">
       <c s="1" r="A7" t="n">
@@ -2335,23 +2381,21 @@
       <c s="2" r="C7" t="n">
         <v>0.3923611111111111</v>
       </c>
-      <c s="19" r="D7" t="s"/>
-      <c s="19" r="E7" t="s"/>
-      <c s="24" r="F7" t="s">
-        <v>15</v>
-      </c>
-      <c s="24" r="G7" t="s"/>
-      <c s="24" r="H7" t="s">
-        <v>15</v>
-      </c>
-      <c s="20" r="I7" t="s">
-        <v>37</v>
-      </c>
-      <c s="21" r="J7" t="s">
-        <v>35</v>
-      </c>
-      <c s="20" r="K7" t="s"/>
-      <c s="21" r="L7" t="s"/>
+      <c s="22" r="D7" t="s"/>
+      <c s="22" r="E7" t="s"/>
+      <c s="22" r="F7" t="s">
+        <v>46</v>
+      </c>
+      <c s="22" r="G7" t="s"/>
+      <c s="22" r="H7" t="s"/>
+      <c s="18" r="I7" t="s">
+        <v>46</v>
+      </c>
+      <c s="19" r="J7" t="s">
+        <v>48</v>
+      </c>
+      <c s="18" r="K7" t="s"/>
+      <c s="19" r="L7" t="s"/>
     </row>
     <row r="8" spans="1:12">
       <c s="1" r="A8" t="n">
@@ -2363,23 +2407,21 @@
       <c s="2" r="C8" t="n">
         <v>0.4270833333333333</v>
       </c>
-      <c s="19" r="D8" t="s"/>
-      <c s="19" r="E8" t="s">
-        <v>36</v>
-      </c>
-      <c s="24" r="F8" t="s"/>
-      <c s="24" r="G8" t="s">
-        <v>38</v>
-      </c>
-      <c s="24" r="H8" t="s"/>
-      <c s="20" r="I8" t="s">
-        <v>38</v>
-      </c>
-      <c s="21" r="J8" t="s">
-        <v>35</v>
-      </c>
-      <c s="20" r="K8" t="s"/>
-      <c s="21" r="L8" t="s"/>
+      <c s="22" r="D8" t="s"/>
+      <c s="22" r="E8" t="s"/>
+      <c s="22" r="F8" t="s"/>
+      <c s="22" r="G8" t="s"/>
+      <c s="22" r="H8" t="s">
+        <v>49</v>
+      </c>
+      <c s="18" r="I8" t="s">
+        <v>49</v>
+      </c>
+      <c s="19" r="J8" t="s">
+        <v>48</v>
+      </c>
+      <c s="18" r="K8" t="s"/>
+      <c s="19" r="L8" t="s"/>
     </row>
     <row r="9" spans="1:12">
       <c s="1" r="A9" t="s">
@@ -2391,19 +2433,19 @@
       <c s="2" r="C9" t="n">
         <v>0.4444444444444444</v>
       </c>
-      <c s="22" r="D9" t="s"/>
-      <c s="22" r="E9" t="s"/>
-      <c s="22" r="F9" t="s"/>
-      <c s="23" r="G9" t="s"/>
-      <c s="22" r="H9" t="s"/>
-      <c s="20" r="I9" t="s">
-        <v>39</v>
-      </c>
-      <c s="21" r="J9" t="s">
-        <v>35</v>
-      </c>
-      <c s="20" r="K9" t="s"/>
-      <c s="21" r="L9" t="s"/>
+      <c s="20" r="D9" t="s"/>
+      <c s="20" r="E9" t="s"/>
+      <c s="20" r="F9" t="s"/>
+      <c s="21" r="G9" t="s"/>
+      <c s="20" r="H9" t="s"/>
+      <c s="18" r="I9" t="s">
+        <v>50</v>
+      </c>
+      <c s="19" r="J9" t="s">
+        <v>48</v>
+      </c>
+      <c s="18" r="K9" t="s"/>
+      <c s="19" r="L9" t="s"/>
     </row>
     <row r="10" spans="1:12">
       <c s="1" r="A10" t="n">
@@ -2415,21 +2457,21 @@
       <c s="2" r="C10" t="n">
         <v>0.4756944444444444</v>
       </c>
-      <c s="19" r="D10" t="s"/>
-      <c s="19" r="E10" t="s"/>
-      <c s="24" r="F10" t="s">
-        <v>34</v>
-      </c>
-      <c s="24" r="G10" t="s"/>
-      <c s="24" r="H10" t="s"/>
-      <c s="20" r="I10" t="s">
-        <v>40</v>
-      </c>
-      <c s="21" r="J10" t="s">
-        <v>35</v>
-      </c>
-      <c s="20" r="K10" t="s"/>
-      <c s="21" r="L10" t="s"/>
+      <c s="22" r="D10" t="s"/>
+      <c s="22" r="E10" t="s">
+        <v>50</v>
+      </c>
+      <c s="22" r="F10" t="s"/>
+      <c s="22" r="G10" t="s"/>
+      <c s="22" r="H10" t="s"/>
+      <c s="18" r="I10" t="s">
+        <v>51</v>
+      </c>
+      <c s="19" r="J10" t="s">
+        <v>48</v>
+      </c>
+      <c s="18" r="K10" t="s"/>
+      <c s="19" r="L10" t="s"/>
     </row>
     <row customHeight="1" s="12" r="11" ht="30" spans="1:12">
       <c s="1" r="A11" t="n">
@@ -2441,21 +2483,21 @@
       <c s="2" r="C11" t="n">
         <v>0.5104166666666666</v>
       </c>
-      <c s="19" r="D11" t="s"/>
-      <c s="19" r="E11" t="s"/>
-      <c s="24" r="F11" t="s"/>
-      <c s="24" r="G11" t="s">
-        <v>36</v>
-      </c>
-      <c s="24" r="H11" t="s"/>
-      <c s="20" r="I11" t="s">
-        <v>41</v>
-      </c>
-      <c s="21" r="J11" t="s">
-        <v>35</v>
-      </c>
-      <c s="20" r="K11" t="s"/>
-      <c s="21" r="L11" t="s"/>
+      <c s="22" r="D11" t="s"/>
+      <c s="22" r="E11" t="s"/>
+      <c s="22" r="F11" t="s"/>
+      <c s="22" r="G11" t="s"/>
+      <c s="22" r="H11" t="s">
+        <v>49</v>
+      </c>
+      <c s="18" r="I11" t="s">
+        <v>52</v>
+      </c>
+      <c s="19" r="J11" t="s">
+        <v>48</v>
+      </c>
+      <c s="18" r="K11" t="s"/>
+      <c s="19" r="L11" t="s"/>
     </row>
     <row customHeight="1" s="12" r="12" ht="30" spans="1:12">
       <c s="1" r="A12" t="n">
@@ -2467,23 +2509,17 @@
       <c s="2" r="C12" t="n">
         <v>0.5451388888888888</v>
       </c>
-      <c s="19" r="D12" t="s"/>
-      <c s="19" r="E12" t="s"/>
-      <c s="24" r="F12" t="s">
-        <v>38</v>
-      </c>
-      <c s="24" r="G12" t="s"/>
-      <c s="24" r="H12" t="s">
-        <v>39</v>
-      </c>
-      <c s="20" r="I12" t="s">
-        <v>42</v>
-      </c>
-      <c s="21" r="J12" t="s">
-        <v>35</v>
-      </c>
-      <c s="20" r="K12" t="s"/>
-      <c s="21" r="L12" t="s"/>
+      <c s="22" r="D12" t="s"/>
+      <c s="22" r="E12" t="s"/>
+      <c s="22" r="F12" t="s"/>
+      <c s="22" r="G12" t="s"/>
+      <c s="22" r="H12" t="s">
+        <v>49</v>
+      </c>
+      <c s="18" r="I12" t="s"/>
+      <c s="19" r="J12" t="s"/>
+      <c s="18" r="K12" t="s"/>
+      <c s="19" r="L12" t="s"/>
     </row>
     <row r="13" spans="1:12">
       <c s="1" r="A13" t="n">
@@ -2495,19 +2531,15 @@
       <c s="2" r="C13" t="n">
         <v>0.5798611111111112</v>
       </c>
-      <c s="19" r="D13" t="s">
-        <v>34</v>
-      </c>
-      <c s="19" r="E13" t="s"/>
-      <c s="24" r="F13" t="s"/>
-      <c s="24" r="G13" t="s"/>
-      <c s="24" r="H13" t="s">
-        <v>39</v>
-      </c>
-      <c s="20" r="I13" t="s"/>
-      <c s="21" r="J13" t="s"/>
-      <c s="20" r="K13" t="s"/>
-      <c s="21" r="L13" t="s"/>
+      <c s="22" r="D13" t="s"/>
+      <c s="22" r="E13" t="s"/>
+      <c s="22" r="F13" t="s"/>
+      <c s="22" r="G13" t="s"/>
+      <c s="22" r="H13" t="s"/>
+      <c s="18" r="I13" t="s"/>
+      <c s="19" r="J13" t="s"/>
+      <c s="18" r="K13" t="s"/>
+      <c s="19" r="L13" t="s"/>
     </row>
     <row r="14" spans="1:12">
       <c s="1" r="A14" t="n">
@@ -2519,17 +2551,17 @@
       <c s="2" r="C14" t="n">
         <v>0.6145833333333334</v>
       </c>
-      <c s="19" r="D14" t="s"/>
-      <c s="19" r="E14" t="s"/>
-      <c s="24" r="F14" t="s">
-        <v>36</v>
-      </c>
-      <c s="24" r="G14" t="s"/>
-      <c s="24" r="H14" t="s"/>
-      <c s="20" r="I14" t="s"/>
-      <c s="21" r="J14" t="s"/>
-      <c s="20" r="K14" t="s"/>
-      <c s="21" r="L14" t="s"/>
+      <c s="17" r="D14" t="s">
+        <v>45</v>
+      </c>
+      <c s="17" r="E14" t="s"/>
+      <c s="17" r="F14" t="s"/>
+      <c s="17" r="G14" t="s"/>
+      <c s="17" r="H14" t="s"/>
+      <c s="18" r="I14" t="s"/>
+      <c s="19" r="J14" t="s"/>
+      <c s="18" r="K14" t="s"/>
+      <c s="19" r="L14" t="s"/>
     </row>
     <row r="15" spans="1:12">
       <c s="1" r="A15" t="n">
@@ -2541,15 +2573,17 @@
       <c s="2" r="C15" t="n">
         <v>0.6493055555555556</v>
       </c>
-      <c s="19" r="D15" t="s"/>
-      <c s="19" r="E15" t="s"/>
-      <c s="24" r="F15" t="s"/>
-      <c s="24" r="G15" t="s"/>
-      <c s="24" r="H15" t="s"/>
-      <c s="20" r="I15" t="s"/>
-      <c s="21" r="J15" t="s"/>
-      <c s="20" r="K15" t="s"/>
-      <c s="21" r="L15" t="s"/>
+      <c s="17" r="D15" t="s"/>
+      <c s="17" r="E15" t="s"/>
+      <c s="17" r="F15" t="s">
+        <v>46</v>
+      </c>
+      <c s="17" r="G15" t="s"/>
+      <c s="17" r="H15" t="s"/>
+      <c s="18" r="I15" t="s"/>
+      <c s="19" r="J15" t="s"/>
+      <c s="18" r="K15" t="s"/>
+      <c s="19" r="L15" t="s"/>
     </row>
     <row r="16" spans="1:12">
       <c s="1" r="A16" t="n">
@@ -2561,15 +2595,17 @@
       <c s="2" r="C16" t="n">
         <v>0.6840277777777778</v>
       </c>
-      <c s="19" r="D16" t="s"/>
-      <c s="19" r="E16" t="s"/>
-      <c s="24" r="F16" t="s"/>
-      <c s="24" r="G16" t="s"/>
-      <c s="24" r="H16" t="s"/>
-      <c s="20" r="I16" t="s"/>
-      <c s="21" r="J16" t="s"/>
-      <c s="20" r="K16" t="s"/>
-      <c s="21" r="L16" t="s"/>
+      <c s="17" r="D16" t="s"/>
+      <c s="17" r="E16" t="s"/>
+      <c s="17" r="F16" t="s"/>
+      <c s="17" r="G16" t="s">
+        <v>47</v>
+      </c>
+      <c s="17" r="H16" t="s"/>
+      <c s="18" r="I16" t="s"/>
+      <c s="19" r="J16" t="s"/>
+      <c s="18" r="K16" t="s"/>
+      <c s="19" r="L16" t="s"/>
     </row>
     <row r="17" spans="1:12">
       <c s="1" r="A17" t="n">
@@ -2581,17 +2617,15 @@
       <c s="2" r="C17" t="n">
         <v>0.71875</v>
       </c>
-      <c s="19" r="D17" t="s"/>
-      <c s="19" r="E17" t="s"/>
-      <c s="24" r="F17" t="s"/>
-      <c s="24" r="G17" t="s">
-        <v>43</v>
-      </c>
-      <c s="24" r="H17" t="s"/>
-      <c s="20" r="I17" t="s"/>
-      <c s="21" r="J17" t="s"/>
-      <c s="20" r="K17" t="s"/>
-      <c s="21" r="L17" t="s"/>
+      <c s="17" r="D17" t="s"/>
+      <c s="17" r="E17" t="s"/>
+      <c s="17" r="F17" t="s"/>
+      <c s="17" r="G17" t="s"/>
+      <c s="17" r="H17" t="s"/>
+      <c s="18" r="I17" t="s"/>
+      <c s="19" r="J17" t="s"/>
+      <c s="18" r="K17" t="s"/>
+      <c s="19" r="L17" t="s"/>
     </row>
     <row r="18" spans="1:12">
       <c s="1" r="A18" t="n">
@@ -2603,15 +2637,17 @@
       <c s="2" r="C18" t="n">
         <v>0.7534722222222222</v>
       </c>
-      <c s="19" r="D18" t="s"/>
-      <c s="19" r="E18" t="s"/>
-      <c s="24" r="F18" t="s"/>
-      <c s="24" r="G18" t="s"/>
-      <c s="24" r="H18" t="s"/>
-      <c s="20" r="I18" t="s"/>
-      <c s="21" r="J18" t="s"/>
-      <c s="20" r="K18" t="s"/>
-      <c s="21" r="L18" t="s"/>
+      <c s="17" r="D18" t="s"/>
+      <c s="17" r="E18" t="s"/>
+      <c s="17" r="F18" t="s"/>
+      <c s="17" r="G18" t="s">
+        <v>51</v>
+      </c>
+      <c s="17" r="H18" t="s"/>
+      <c s="18" r="I18" t="s"/>
+      <c s="19" r="J18" t="s"/>
+      <c s="18" r="K18" t="s"/>
+      <c s="19" r="L18" t="s"/>
     </row>
     <row r="19" spans="1:12">
       <c s="1" r="A19" t="n">
@@ -2623,15 +2659,19 @@
       <c s="2" r="C19" t="n">
         <v>0.7881944444444444</v>
       </c>
-      <c s="19" r="D19" t="s"/>
-      <c s="19" r="E19" t="s"/>
-      <c s="24" r="F19" t="s"/>
-      <c s="24" r="G19" t="s"/>
-      <c s="24" r="H19" t="s"/>
-      <c s="20" r="I19" t="s"/>
-      <c s="21" r="J19" t="s"/>
-      <c s="20" r="K19" t="s"/>
-      <c s="21" r="L19" t="s"/>
+      <c s="17" r="D19" t="s"/>
+      <c s="17" r="E19" t="s">
+        <v>50</v>
+      </c>
+      <c s="17" r="F19" t="s"/>
+      <c s="17" r="G19" t="s">
+        <v>53</v>
+      </c>
+      <c s="17" r="H19" t="s"/>
+      <c s="18" r="I19" t="s"/>
+      <c s="19" r="J19" t="s"/>
+      <c s="18" r="K19" t="s"/>
+      <c s="19" r="L19" t="s"/>
     </row>
     <row r="20" spans="1:12">
       <c s="1" r="A20" t="n">
@@ -2643,17 +2683,17 @@
       <c s="2" r="C20" t="n">
         <v>0.8229166666666666</v>
       </c>
-      <c s="19" r="D20" t="s"/>
-      <c s="19" r="E20" t="s"/>
-      <c s="24" r="F20" t="s"/>
-      <c s="24" r="G20" t="s"/>
-      <c s="24" r="H20" t="s">
-        <v>38</v>
-      </c>
-      <c s="20" r="I20" t="s"/>
-      <c s="21" r="J20" t="s"/>
-      <c s="20" r="K20" t="s"/>
-      <c s="21" r="L20" t="s"/>
+      <c s="17" r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c s="17" r="E20" t="s"/>
+      <c s="17" r="F20" t="s"/>
+      <c s="17" r="G20" t="s"/>
+      <c s="17" r="H20" t="s"/>
+      <c s="18" r="I20" t="s"/>
+      <c s="19" r="J20" t="s"/>
+      <c s="18" r="K20" t="s"/>
+      <c s="19" r="L20" t="s"/>
     </row>
     <row r="21" spans="1:12">
       <c s="1" r="A21" t="n">
@@ -2665,15 +2705,19 @@
       <c s="2" r="C21" t="n">
         <v>0.8576388888888888</v>
       </c>
-      <c s="19" r="D21" t="s"/>
-      <c s="19" r="E21" t="s"/>
-      <c s="24" r="F21" t="s"/>
-      <c s="24" r="G21" t="s"/>
-      <c s="24" r="H21" t="s"/>
-      <c s="20" r="I21" t="s"/>
-      <c s="21" r="J21" t="s"/>
-      <c s="20" r="K21" t="s"/>
-      <c s="21" r="L21" t="s"/>
+      <c s="17" r="D21" t="s"/>
+      <c s="17" r="E21" t="s">
+        <v>50</v>
+      </c>
+      <c s="17" r="F21" t="s"/>
+      <c s="17" r="G21" t="s">
+        <v>47</v>
+      </c>
+      <c s="17" r="H21" t="s"/>
+      <c s="18" r="I21" t="s"/>
+      <c s="19" r="J21" t="s"/>
+      <c s="18" r="K21" t="s"/>
+      <c s="19" r="L21" t="s"/>
     </row>
     <row customHeight="1" s="12" r="22" ht="15.75" spans="1:12">
       <c s="1" r="A22" t="n">
@@ -2685,17 +2729,17 @@
       <c s="2" r="C22" t="n">
         <v>0.8854166666666666</v>
       </c>
-      <c s="19" r="D22" t="s"/>
-      <c s="19" r="E22" t="s"/>
-      <c s="24" r="F22" t="s">
-        <v>34</v>
-      </c>
-      <c s="24" r="G22" t="s"/>
-      <c s="24" r="H22" t="s"/>
-      <c s="20" r="I22" t="s"/>
-      <c s="21" r="J22" t="s"/>
-      <c s="20" r="K22" t="s"/>
-      <c s="21" r="L22" t="s"/>
+      <c s="17" r="D22" t="s"/>
+      <c s="17" r="E22" t="s"/>
+      <c s="17" r="F22" t="s"/>
+      <c s="17" r="G22" t="s">
+        <v>51</v>
+      </c>
+      <c s="17" r="H22" t="s"/>
+      <c s="18" r="I22" t="s"/>
+      <c s="19" r="J22" t="s"/>
+      <c s="18" r="K22" t="s"/>
+      <c s="19" r="L22" t="s"/>
     </row>
     <row customHeight="1" s="12" r="25" ht="27" spans="1:12"/>
     <row customHeight="1" s="12" r="26" ht="31.5" spans="1:12"/>
@@ -2746,7 +2790,7 @@
         <v>2</v>
       </c>
       <c s="16" r="E2" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c s="11" r="I2" t="s">
         <v>4</v>
@@ -2798,23 +2842,19 @@
       <c s="2" r="C5" t="n">
         <v>0.3229166666666667</v>
       </c>
-      <c s="24" r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c s="24" r="E5" t="s"/>
-      <c s="24" r="F5" t="s"/>
-      <c s="19" r="G5" t="s"/>
-      <c s="24" r="H5" t="s">
-        <v>45</v>
-      </c>
-      <c s="20" r="I5" t="s">
-        <v>46</v>
-      </c>
-      <c s="21" r="J5" t="s">
-        <v>47</v>
-      </c>
-      <c s="20" r="K5" t="s"/>
-      <c s="21" r="L5" t="s"/>
+      <c s="17" r="D5" t="s"/>
+      <c s="17" r="E5" t="s"/>
+      <c s="17" r="F5" t="s"/>
+      <c s="17" r="G5" t="s"/>
+      <c s="17" r="H5" t="s"/>
+      <c s="18" r="I5" t="s">
+        <v>55</v>
+      </c>
+      <c s="19" r="J5" t="s">
+        <v>56</v>
+      </c>
+      <c s="18" r="K5" t="s"/>
+      <c s="19" r="L5" t="s"/>
     </row>
     <row r="6" spans="1:12">
       <c s="1" r="A6" t="n">
@@ -2826,21 +2866,21 @@
       <c s="2" r="C6" t="n">
         <v>0.3576388888888889</v>
       </c>
-      <c s="24" r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c s="24" r="E6" t="s"/>
-      <c s="24" r="F6" t="s"/>
-      <c s="19" r="G6" t="s"/>
-      <c s="24" r="H6" t="s"/>
-      <c s="20" r="I6" t="s">
-        <v>48</v>
-      </c>
-      <c s="21" r="J6" t="s">
-        <v>47</v>
-      </c>
-      <c s="20" r="K6" t="s"/>
-      <c s="21" r="L6" t="s"/>
+      <c s="17" r="D6" t="s"/>
+      <c s="17" r="E6" t="s">
+        <v>57</v>
+      </c>
+      <c s="17" r="F6" t="s"/>
+      <c s="17" r="G6" t="s"/>
+      <c s="17" r="H6" t="s"/>
+      <c s="18" r="I6" t="s">
+        <v>57</v>
+      </c>
+      <c s="19" r="J6" t="s">
+        <v>56</v>
+      </c>
+      <c s="18" r="K6" t="s"/>
+      <c s="19" r="L6" t="s"/>
     </row>
     <row r="7" spans="1:12">
       <c s="1" r="A7" t="n">
@@ -2852,23 +2892,19 @@
       <c s="2" r="C7" t="n">
         <v>0.3923611111111111</v>
       </c>
-      <c s="24" r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c s="24" r="E7" t="s"/>
-      <c s="24" r="F7" t="s"/>
-      <c s="19" r="G7" t="s"/>
-      <c s="24" r="H7" t="s">
-        <v>46</v>
-      </c>
-      <c s="20" r="I7" t="s">
-        <v>49</v>
-      </c>
-      <c s="21" r="J7" t="s">
-        <v>47</v>
-      </c>
-      <c s="20" r="K7" t="s"/>
-      <c s="21" r="L7" t="s"/>
+      <c s="17" r="D7" t="s"/>
+      <c s="17" r="E7" t="s"/>
+      <c s="17" r="F7" t="s"/>
+      <c s="17" r="G7" t="s"/>
+      <c s="17" r="H7" t="s"/>
+      <c s="18" r="I7" t="s">
+        <v>58</v>
+      </c>
+      <c s="19" r="J7" t="s">
+        <v>56</v>
+      </c>
+      <c s="18" r="K7" t="s"/>
+      <c s="19" r="L7" t="s"/>
     </row>
     <row r="8" spans="1:12">
       <c s="1" r="A8" t="n">
@@ -2880,23 +2916,19 @@
       <c s="2" r="C8" t="n">
         <v>0.4270833333333333</v>
       </c>
-      <c s="24" r="D8" t="s"/>
-      <c s="24" r="E8" t="s"/>
-      <c s="24" r="F8" t="s">
-        <v>49</v>
-      </c>
-      <c s="19" r="G8" t="s"/>
-      <c s="24" r="H8" t="s">
-        <v>50</v>
-      </c>
-      <c s="20" r="I8" t="s">
-        <v>51</v>
-      </c>
-      <c s="21" r="J8" t="s">
-        <v>47</v>
-      </c>
-      <c s="20" r="K8" t="s"/>
-      <c s="21" r="L8" t="s"/>
+      <c s="17" r="D8" t="s"/>
+      <c s="17" r="E8" t="s"/>
+      <c s="17" r="F8" t="s"/>
+      <c s="17" r="G8" t="s"/>
+      <c s="17" r="H8" t="s"/>
+      <c s="18" r="I8" t="s">
+        <v>59</v>
+      </c>
+      <c s="19" r="J8" t="s">
+        <v>56</v>
+      </c>
+      <c s="18" r="K8" t="s"/>
+      <c s="19" r="L8" t="s"/>
     </row>
     <row r="9" spans="1:12">
       <c s="1" r="A9" t="s">
@@ -2908,19 +2940,19 @@
       <c s="2" r="C9" t="n">
         <v>0.4444444444444444</v>
       </c>
-      <c s="22" r="D9" t="s"/>
-      <c s="22" r="E9" t="s"/>
-      <c s="22" r="F9" t="s"/>
-      <c s="23" r="G9" t="s"/>
-      <c s="22" r="H9" t="s"/>
-      <c s="20" r="I9" t="s">
-        <v>52</v>
-      </c>
-      <c s="21" r="J9" t="s">
-        <v>47</v>
-      </c>
-      <c s="20" r="K9" t="s"/>
-      <c s="21" r="L9" t="s"/>
+      <c s="20" r="D9" t="s"/>
+      <c s="20" r="E9" t="s"/>
+      <c s="20" r="F9" t="s"/>
+      <c s="21" r="G9" t="s"/>
+      <c s="20" r="H9" t="s"/>
+      <c s="18" r="I9" t="s">
+        <v>60</v>
+      </c>
+      <c s="19" r="J9" t="s">
+        <v>56</v>
+      </c>
+      <c s="18" r="K9" t="s"/>
+      <c s="19" r="L9" t="s"/>
     </row>
     <row r="10" spans="1:12">
       <c s="1" r="A10" t="n">
@@ -2932,25 +2964,21 @@
       <c s="2" r="C10" t="n">
         <v>0.4756944444444444</v>
       </c>
-      <c s="24" r="D10" t="s">
-        <v>15</v>
-      </c>
-      <c s="24" r="E10" t="s"/>
-      <c s="24" r="F10" t="s">
-        <v>53</v>
-      </c>
-      <c s="19" r="G10" t="s"/>
-      <c s="24" r="H10" t="s">
-        <v>54</v>
-      </c>
-      <c s="20" r="I10" t="s">
-        <v>45</v>
-      </c>
-      <c s="21" r="J10" t="s">
-        <v>47</v>
-      </c>
-      <c s="20" r="K10" t="s"/>
-      <c s="21" r="L10" t="s"/>
+      <c s="17" r="D10" t="s"/>
+      <c s="17" r="E10" t="s">
+        <v>58</v>
+      </c>
+      <c s="17" r="F10" t="s"/>
+      <c s="17" r="G10" t="s"/>
+      <c s="17" r="H10" t="s"/>
+      <c s="18" r="I10" t="s">
+        <v>61</v>
+      </c>
+      <c s="19" r="J10" t="s">
+        <v>56</v>
+      </c>
+      <c s="18" r="K10" t="s"/>
+      <c s="19" r="L10" t="s"/>
     </row>
     <row customHeight="1" s="12" r="11" ht="30" spans="1:12">
       <c s="1" r="A11" t="n">
@@ -2962,21 +2990,23 @@
       <c s="2" r="C11" t="n">
         <v>0.5104166666666666</v>
       </c>
-      <c s="24" r="D11" t="s">
-        <v>15</v>
-      </c>
-      <c s="24" r="E11" t="s"/>
-      <c s="24" r="F11" t="s"/>
-      <c s="19" r="G11" t="s"/>
-      <c s="24" r="H11" t="s"/>
-      <c s="20" r="I11" t="s">
-        <v>55</v>
-      </c>
-      <c s="21" r="J11" t="s">
-        <v>47</v>
-      </c>
-      <c s="20" r="K11" t="s"/>
-      <c s="21" r="L11" t="s"/>
+      <c s="17" r="D11" t="s">
+        <v>57</v>
+      </c>
+      <c s="17" r="E11" t="s">
+        <v>58</v>
+      </c>
+      <c s="17" r="F11" t="s"/>
+      <c s="17" r="G11" t="s"/>
+      <c s="17" r="H11" t="s"/>
+      <c s="18" r="I11" t="s">
+        <v>62</v>
+      </c>
+      <c s="19" r="J11" t="s">
+        <v>56</v>
+      </c>
+      <c s="18" r="K11" t="s"/>
+      <c s="19" r="L11" t="s"/>
     </row>
     <row customHeight="1" s="12" r="12" ht="30" spans="1:12">
       <c s="1" r="A12" t="n">
@@ -2988,23 +3018,15 @@
       <c s="2" r="C12" t="n">
         <v>0.5451388888888888</v>
       </c>
-      <c s="24" r="D12" t="s"/>
-      <c s="24" r="E12" t="s"/>
-      <c s="24" r="F12" t="s">
-        <v>15</v>
-      </c>
-      <c s="19" r="G12" t="s"/>
-      <c s="24" r="H12" t="s">
-        <v>49</v>
-      </c>
-      <c s="20" r="I12" t="s">
-        <v>56</v>
-      </c>
-      <c s="21" r="J12" t="s">
-        <v>47</v>
-      </c>
-      <c s="20" r="K12" t="s"/>
-      <c s="21" r="L12" t="s"/>
+      <c s="17" r="D12" t="s"/>
+      <c s="17" r="E12" t="s"/>
+      <c s="17" r="F12" t="s"/>
+      <c s="17" r="G12" t="s"/>
+      <c s="17" r="H12" t="s"/>
+      <c s="18" r="I12" t="s"/>
+      <c s="19" r="J12" t="s"/>
+      <c s="18" r="K12" t="s"/>
+      <c s="19" r="L12" t="s"/>
     </row>
     <row r="13" spans="1:12">
       <c s="1" r="A13" t="n">
@@ -3016,21 +3038,17 @@
       <c s="2" r="C13" t="n">
         <v>0.5798611111111112</v>
       </c>
-      <c s="24" r="D13" t="s">
-        <v>51</v>
-      </c>
-      <c s="24" r="E13" t="s"/>
-      <c s="24" r="F13" t="s"/>
-      <c s="19" r="G13" t="s"/>
-      <c s="24" r="H13" t="s"/>
-      <c s="20" r="I13" t="s">
+      <c s="22" r="D13" t="s"/>
+      <c s="22" r="E13" t="s"/>
+      <c s="22" r="F13" t="s"/>
+      <c s="22" r="G13" t="s"/>
+      <c s="22" r="H13" t="s">
         <v>57</v>
       </c>
-      <c s="21" r="J13" t="s">
-        <v>47</v>
-      </c>
-      <c s="20" r="K13" t="s"/>
-      <c s="21" r="L13" t="s"/>
+      <c s="18" r="I13" t="s"/>
+      <c s="19" r="J13" t="s"/>
+      <c s="18" r="K13" t="s"/>
+      <c s="19" r="L13" t="s"/>
     </row>
     <row r="14" spans="1:12">
       <c s="1" r="A14" t="n">
@@ -3042,21 +3060,17 @@
       <c s="2" r="C14" t="n">
         <v>0.6145833333333334</v>
       </c>
-      <c s="24" r="D14" t="s"/>
-      <c s="24" r="E14" t="s">
-        <v>48</v>
-      </c>
-      <c s="24" r="F14" t="s"/>
-      <c s="19" r="G14" t="s"/>
-      <c s="24" r="H14" t="s"/>
-      <c s="20" r="I14" t="s">
-        <v>58</v>
-      </c>
-      <c s="21" r="J14" t="s">
-        <v>47</v>
-      </c>
-      <c s="20" r="K14" t="s"/>
-      <c s="21" r="L14" t="s"/>
+      <c s="22" r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c s="22" r="E14" t="s"/>
+      <c s="22" r="F14" t="s"/>
+      <c s="22" r="G14" t="s"/>
+      <c s="22" r="H14" t="s"/>
+      <c s="18" r="I14" t="s"/>
+      <c s="19" r="J14" t="s"/>
+      <c s="18" r="K14" t="s"/>
+      <c s="19" r="L14" t="s"/>
     </row>
     <row r="15" spans="1:12">
       <c s="1" r="A15" t="n">
@@ -3068,17 +3082,17 @@
       <c s="2" r="C15" t="n">
         <v>0.6493055555555556</v>
       </c>
-      <c s="24" r="D15" t="s"/>
-      <c s="24" r="E15" t="s">
-        <v>52</v>
-      </c>
-      <c s="24" r="F15" t="s"/>
-      <c s="19" r="G15" t="s"/>
-      <c s="24" r="H15" t="s"/>
-      <c s="20" r="I15" t="s"/>
-      <c s="21" r="J15" t="s"/>
-      <c s="20" r="K15" t="s"/>
-      <c s="21" r="L15" t="s"/>
+      <c s="22" r="D15" t="s"/>
+      <c s="22" r="E15" t="s"/>
+      <c s="22" r="F15" t="s"/>
+      <c s="22" r="G15" t="s">
+        <v>55</v>
+      </c>
+      <c s="22" r="H15" t="s"/>
+      <c s="18" r="I15" t="s"/>
+      <c s="19" r="J15" t="s"/>
+      <c s="18" r="K15" t="s"/>
+      <c s="19" r="L15" t="s"/>
     </row>
     <row r="16" spans="1:12">
       <c s="1" r="A16" t="n">
@@ -3090,17 +3104,19 @@
       <c s="2" r="C16" t="n">
         <v>0.6840277777777778</v>
       </c>
-      <c s="24" r="D16" t="s">
+      <c s="22" r="D16" t="s"/>
+      <c s="22" r="E16" t="s">
+        <v>63</v>
+      </c>
+      <c s="22" r="F16" t="s">
         <v>15</v>
       </c>
-      <c s="24" r="E16" t="s"/>
-      <c s="24" r="F16" t="s"/>
-      <c s="19" r="G16" t="s"/>
-      <c s="24" r="H16" t="s"/>
-      <c s="20" r="I16" t="s"/>
-      <c s="21" r="J16" t="s"/>
-      <c s="20" r="K16" t="s"/>
-      <c s="21" r="L16" t="s"/>
+      <c s="22" r="G16" t="s"/>
+      <c s="22" r="H16" t="s"/>
+      <c s="18" r="I16" t="s"/>
+      <c s="19" r="J16" t="s"/>
+      <c s="18" r="K16" t="s"/>
+      <c s="19" r="L16" t="s"/>
     </row>
     <row r="17" spans="1:12">
       <c s="1" r="A17" t="n">
@@ -3112,17 +3128,21 @@
       <c s="2" r="C17" t="n">
         <v>0.71875</v>
       </c>
-      <c s="24" r="D17" t="s">
+      <c s="22" r="D17" t="s"/>
+      <c s="22" r="E17" t="s">
         <v>15</v>
       </c>
-      <c s="24" r="E17" t="s"/>
-      <c s="24" r="F17" t="s"/>
-      <c s="19" r="G17" t="s"/>
-      <c s="24" r="H17" t="s"/>
-      <c s="20" r="I17" t="s"/>
-      <c s="21" r="J17" t="s"/>
-      <c s="20" r="K17" t="s"/>
-      <c s="21" r="L17" t="s"/>
+      <c s="22" r="F17" t="s">
+        <v>15</v>
+      </c>
+      <c s="22" r="G17" t="s">
+        <v>55</v>
+      </c>
+      <c s="22" r="H17" t="s"/>
+      <c s="18" r="I17" t="s"/>
+      <c s="19" r="J17" t="s"/>
+      <c s="18" r="K17" t="s"/>
+      <c s="19" r="L17" t="s"/>
     </row>
     <row r="18" spans="1:12">
       <c s="1" r="A18" t="n">
@@ -3134,19 +3154,17 @@
       <c s="2" r="C18" t="n">
         <v>0.7534722222222222</v>
       </c>
-      <c s="24" r="D18" t="s"/>
-      <c s="24" r="E18" t="s">
-        <v>51</v>
-      </c>
-      <c s="24" r="F18" t="s"/>
-      <c s="19" r="G18" t="s"/>
-      <c s="24" r="H18" t="s">
+      <c s="22" r="D18" t="s">
         <v>15</v>
       </c>
-      <c s="20" r="I18" t="s"/>
-      <c s="21" r="J18" t="s"/>
-      <c s="20" r="K18" t="s"/>
-      <c s="21" r="L18" t="s"/>
+      <c s="22" r="E18" t="s"/>
+      <c s="22" r="F18" t="s"/>
+      <c s="22" r="G18" t="s"/>
+      <c s="22" r="H18" t="s"/>
+      <c s="18" r="I18" t="s"/>
+      <c s="19" r="J18" t="s"/>
+      <c s="18" r="K18" t="s"/>
+      <c s="19" r="L18" t="s"/>
     </row>
     <row r="19" spans="1:12">
       <c s="1" r="A19" t="n">
@@ -3158,15 +3176,15 @@
       <c s="2" r="C19" t="n">
         <v>0.7881944444444444</v>
       </c>
-      <c s="24" r="D19" t="s"/>
-      <c s="24" r="E19" t="s"/>
-      <c s="24" r="F19" t="s"/>
-      <c s="19" r="G19" t="s"/>
-      <c s="24" r="H19" t="s"/>
-      <c s="20" r="I19" t="s"/>
-      <c s="21" r="J19" t="s"/>
-      <c s="20" r="K19" t="s"/>
-      <c s="21" r="L19" t="s"/>
+      <c s="22" r="D19" t="s"/>
+      <c s="22" r="E19" t="s"/>
+      <c s="22" r="F19" t="s"/>
+      <c s="22" r="G19" t="s"/>
+      <c s="22" r="H19" t="s"/>
+      <c s="18" r="I19" t="s"/>
+      <c s="19" r="J19" t="s"/>
+      <c s="18" r="K19" t="s"/>
+      <c s="19" r="L19" t="s"/>
     </row>
     <row r="20" spans="1:12">
       <c s="1" r="A20" t="n">
@@ -3178,21 +3196,17 @@
       <c s="2" r="C20" t="n">
         <v>0.8229166666666666</v>
       </c>
-      <c s="24" r="D20" t="s">
-        <v>46</v>
-      </c>
-      <c s="24" r="E20" t="s">
-        <v>46</v>
-      </c>
-      <c s="24" r="F20" t="s"/>
-      <c s="19" r="G20" t="s"/>
-      <c s="24" r="H20" t="s">
-        <v>51</v>
-      </c>
-      <c s="20" r="I20" t="s"/>
-      <c s="21" r="J20" t="s"/>
-      <c s="20" r="K20" t="s"/>
-      <c s="21" r="L20" t="s"/>
+      <c s="22" r="D20" t="s"/>
+      <c s="22" r="E20" t="s">
+        <v>55</v>
+      </c>
+      <c s="22" r="F20" t="s"/>
+      <c s="22" r="G20" t="s"/>
+      <c s="22" r="H20" t="s"/>
+      <c s="18" r="I20" t="s"/>
+      <c s="19" r="J20" t="s"/>
+      <c s="18" r="K20" t="s"/>
+      <c s="19" r="L20" t="s"/>
     </row>
     <row r="21" spans="1:12">
       <c s="1" r="A21" t="n">
@@ -3204,15 +3218,17 @@
       <c s="2" r="C21" t="n">
         <v>0.8576388888888888</v>
       </c>
-      <c s="24" r="D21" t="s"/>
-      <c s="24" r="E21" t="s"/>
-      <c s="24" r="F21" t="s"/>
-      <c s="19" r="G21" t="s"/>
-      <c s="24" r="H21" t="s"/>
-      <c s="20" r="I21" t="s"/>
-      <c s="21" r="J21" t="s"/>
-      <c s="20" r="K21" t="s"/>
-      <c s="21" r="L21" t="s"/>
+      <c s="22" r="D21" t="s"/>
+      <c s="22" r="E21" t="s"/>
+      <c s="22" r="F21" t="s"/>
+      <c s="22" r="G21" t="s"/>
+      <c s="22" r="H21" t="s">
+        <v>15</v>
+      </c>
+      <c s="18" r="I21" t="s"/>
+      <c s="19" r="J21" t="s"/>
+      <c s="18" r="K21" t="s"/>
+      <c s="19" r="L21" t="s"/>
     </row>
     <row customHeight="1" s="12" r="22" ht="15.75" spans="1:12">
       <c s="1" r="A22" t="n">
@@ -3224,21 +3240,21 @@
       <c s="2" r="C22" t="n">
         <v>0.8854166666666666</v>
       </c>
-      <c s="24" r="D22" t="s">
-        <v>48</v>
-      </c>
-      <c s="24" r="E22" t="s">
-        <v>52</v>
-      </c>
-      <c s="24" r="F22" t="s"/>
-      <c s="19" r="G22" t="s"/>
-      <c s="24" r="H22" t="s">
-        <v>45</v>
-      </c>
-      <c s="20" r="I22" t="s"/>
-      <c s="21" r="J22" t="s"/>
-      <c s="20" r="K22" t="s"/>
-      <c s="21" r="L22" t="s"/>
+      <c s="22" r="D22" t="s">
+        <v>15</v>
+      </c>
+      <c s="22" r="E22" t="s">
+        <v>15</v>
+      </c>
+      <c s="22" r="F22" t="s"/>
+      <c s="22" r="G22" t="s"/>
+      <c s="22" r="H22" t="s">
+        <v>15</v>
+      </c>
+      <c s="18" r="I22" t="s"/>
+      <c s="19" r="J22" t="s"/>
+      <c s="18" r="K22" t="s"/>
+      <c s="19" r="L22" t="s"/>
     </row>
     <row customHeight="1" s="12" r="25" ht="27" spans="1:12"/>
     <row customHeight="1" s="12" r="26" ht="31.5" spans="1:12"/>
@@ -3289,7 +3305,7 @@
         <v>2</v>
       </c>
       <c s="16" r="E2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c s="11" r="I2" t="s">
         <v>4</v>
@@ -3341,21 +3357,21 @@
       <c s="2" r="C5" t="n">
         <v>0.3229166666666667</v>
       </c>
-      <c s="24" r="D5" t="s">
-        <v>60</v>
-      </c>
-      <c s="24" r="E5" t="s"/>
-      <c s="24" r="F5" t="s"/>
-      <c s="24" r="G5" t="s"/>
-      <c s="19" r="H5" t="s"/>
-      <c s="20" r="I5" t="s">
-        <v>61</v>
-      </c>
-      <c s="21" r="J5" t="s">
-        <v>62</v>
-      </c>
-      <c s="20" r="K5" t="s"/>
-      <c s="21" r="L5" t="s"/>
+      <c s="22" r="D5" t="s"/>
+      <c s="22" r="E5" t="s"/>
+      <c s="22" r="F5" t="s"/>
+      <c s="22" r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c s="22" r="H5" t="s"/>
+      <c s="18" r="I5" t="s">
+        <v>65</v>
+      </c>
+      <c s="19" r="J5" t="s">
+        <v>66</v>
+      </c>
+      <c s="18" r="K5" t="s"/>
+      <c s="19" r="L5" t="s"/>
     </row>
     <row r="6" spans="1:12">
       <c s="1" r="A6" t="n">
@@ -3367,23 +3383,23 @@
       <c s="2" r="C6" t="n">
         <v>0.3576388888888889</v>
       </c>
-      <c s="24" r="D6" t="s">
+      <c s="22" r="D6" t="s"/>
+      <c s="22" r="E6" t="s"/>
+      <c s="22" r="F6" t="s">
         <v>15</v>
       </c>
-      <c s="24" r="E6" t="s"/>
-      <c s="24" r="F6" t="s"/>
-      <c s="24" r="G6" t="s">
-        <v>63</v>
-      </c>
-      <c s="19" r="H6" t="s"/>
-      <c s="20" r="I6" t="s">
-        <v>63</v>
-      </c>
-      <c s="21" r="J6" t="s">
-        <v>62</v>
-      </c>
-      <c s="20" r="K6" t="s"/>
-      <c s="21" r="L6" t="s"/>
+      <c s="22" r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c s="22" r="H6" t="s"/>
+      <c s="18" r="I6" t="s">
+        <v>67</v>
+      </c>
+      <c s="19" r="J6" t="s">
+        <v>66</v>
+      </c>
+      <c s="18" r="K6" t="s"/>
+      <c s="19" r="L6" t="s"/>
     </row>
     <row r="7" spans="1:12">
       <c s="1" r="A7" t="n">
@@ -3395,21 +3411,21 @@
       <c s="2" r="C7" t="n">
         <v>0.3923611111111111</v>
       </c>
-      <c s="24" r="D7" t="s"/>
-      <c s="24" r="E7" t="s"/>
-      <c s="24" r="F7" t="s"/>
-      <c s="24" r="G7" t="s">
-        <v>64</v>
-      </c>
-      <c s="19" r="H7" t="s"/>
-      <c s="20" r="I7" t="s">
-        <v>65</v>
-      </c>
-      <c s="21" r="J7" t="s">
-        <v>62</v>
-      </c>
-      <c s="20" r="K7" t="s"/>
-      <c s="21" r="L7" t="s"/>
+      <c s="22" r="D7" t="s"/>
+      <c s="22" r="E7" t="s"/>
+      <c s="22" r="F7" t="s"/>
+      <c s="22" r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c s="22" r="H7" t="s"/>
+      <c s="18" r="I7" t="s">
+        <v>68</v>
+      </c>
+      <c s="19" r="J7" t="s">
+        <v>66</v>
+      </c>
+      <c s="18" r="K7" t="s"/>
+      <c s="19" r="L7" t="s"/>
     </row>
     <row r="8" spans="1:12">
       <c s="1" r="A8" t="n">
@@ -3421,21 +3437,15 @@
       <c s="2" r="C8" t="n">
         <v>0.4270833333333333</v>
       </c>
-      <c s="24" r="D8" t="s"/>
-      <c s="24" r="E8" t="s"/>
-      <c s="24" r="F8" t="s">
-        <v>63</v>
-      </c>
-      <c s="24" r="G8" t="s"/>
-      <c s="19" r="H8" t="s"/>
-      <c s="20" r="I8" t="s">
-        <v>66</v>
-      </c>
-      <c s="21" r="J8" t="s">
-        <v>62</v>
-      </c>
-      <c s="20" r="K8" t="s"/>
-      <c s="21" r="L8" t="s"/>
+      <c s="22" r="D8" t="s"/>
+      <c s="22" r="E8" t="s"/>
+      <c s="22" r="F8" t="s"/>
+      <c s="22" r="G8" t="s"/>
+      <c s="22" r="H8" t="s"/>
+      <c s="18" r="I8" t="s"/>
+      <c s="19" r="J8" t="s"/>
+      <c s="18" r="K8" t="s"/>
+      <c s="19" r="L8" t="s"/>
     </row>
     <row r="9" spans="1:12">
       <c s="1" r="A9" t="s">
@@ -3447,19 +3457,15 @@
       <c s="2" r="C9" t="n">
         <v>0.4444444444444444</v>
       </c>
-      <c s="22" r="D9" t="s"/>
-      <c s="22" r="E9" t="s"/>
-      <c s="22" r="F9" t="s"/>
-      <c s="23" r="G9" t="s"/>
-      <c s="22" r="H9" t="s"/>
-      <c s="20" r="I9" t="s">
-        <v>64</v>
-      </c>
-      <c s="21" r="J9" t="s">
-        <v>62</v>
-      </c>
-      <c s="20" r="K9" t="s"/>
-      <c s="21" r="L9" t="s"/>
+      <c s="20" r="D9" t="s"/>
+      <c s="20" r="E9" t="s"/>
+      <c s="20" r="F9" t="s"/>
+      <c s="21" r="G9" t="s"/>
+      <c s="20" r="H9" t="s"/>
+      <c s="18" r="I9" t="s"/>
+      <c s="19" r="J9" t="s"/>
+      <c s="18" r="K9" t="s"/>
+      <c s="19" r="L9" t="s"/>
     </row>
     <row r="10" spans="1:12">
       <c s="1" r="A10" t="n">
@@ -3471,21 +3477,15 @@
       <c s="2" r="C10" t="n">
         <v>0.4756944444444444</v>
       </c>
-      <c s="24" r="D10" t="s"/>
-      <c s="24" r="E10" t="s"/>
-      <c s="24" r="F10" t="s"/>
-      <c s="24" r="G10" t="s">
-        <v>64</v>
-      </c>
-      <c s="19" r="H10" t="s"/>
-      <c s="20" r="I10" t="s">
-        <v>67</v>
-      </c>
-      <c s="21" r="J10" t="s">
-        <v>62</v>
-      </c>
-      <c s="20" r="K10" t="s"/>
-      <c s="21" r="L10" t="s"/>
+      <c s="22" r="D10" t="s"/>
+      <c s="22" r="E10" t="s"/>
+      <c s="22" r="F10" t="s"/>
+      <c s="22" r="G10" t="s"/>
+      <c s="22" r="H10" t="s"/>
+      <c s="18" r="I10" t="s"/>
+      <c s="19" r="J10" t="s"/>
+      <c s="18" r="K10" t="s"/>
+      <c s="19" r="L10" t="s"/>
     </row>
     <row customHeight="1" s="12" r="11" ht="30" spans="1:12">
       <c s="1" r="A11" t="n">
@@ -3497,15 +3497,17 @@
       <c s="2" r="C11" t="n">
         <v>0.5104166666666666</v>
       </c>
-      <c s="24" r="D11" t="s"/>
-      <c s="24" r="E11" t="s"/>
-      <c s="24" r="F11" t="s"/>
-      <c s="24" r="G11" t="s"/>
-      <c s="19" r="H11" t="s"/>
-      <c s="20" r="I11" t="s"/>
-      <c s="21" r="J11" t="s"/>
-      <c s="20" r="K11" t="s"/>
-      <c s="21" r="L11" t="s"/>
+      <c s="22" r="D11" t="s"/>
+      <c s="22" r="E11" t="s"/>
+      <c s="22" r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c s="22" r="G11" t="s"/>
+      <c s="22" r="H11" t="s"/>
+      <c s="18" r="I11" t="s"/>
+      <c s="19" r="J11" t="s"/>
+      <c s="18" r="K11" t="s"/>
+      <c s="19" r="L11" t="s"/>
     </row>
     <row customHeight="1" s="12" r="12" ht="30" spans="1:12">
       <c s="1" r="A12" t="n">
@@ -3517,19 +3519,15 @@
       <c s="2" r="C12" t="n">
         <v>0.5451388888888888</v>
       </c>
-      <c s="24" r="D12" t="s">
-        <v>66</v>
-      </c>
-      <c s="24" r="E12" t="s"/>
-      <c s="24" r="F12" t="s"/>
-      <c s="24" r="G12" t="s">
-        <v>61</v>
-      </c>
-      <c s="19" r="H12" t="s"/>
-      <c s="20" r="I12" t="s"/>
-      <c s="21" r="J12" t="s"/>
-      <c s="20" r="K12" t="s"/>
-      <c s="21" r="L12" t="s"/>
+      <c s="22" r="D12" t="s"/>
+      <c s="22" r="E12" t="s"/>
+      <c s="22" r="F12" t="s"/>
+      <c s="22" r="G12" t="s"/>
+      <c s="22" r="H12" t="s"/>
+      <c s="18" r="I12" t="s"/>
+      <c s="19" r="J12" t="s"/>
+      <c s="18" r="K12" t="s"/>
+      <c s="19" r="L12" t="s"/>
     </row>
     <row r="13" spans="1:12">
       <c s="1" r="A13" t="n">
@@ -3541,17 +3539,17 @@
       <c s="2" r="C13" t="n">
         <v>0.5798611111111112</v>
       </c>
-      <c s="24" r="D13" t="s"/>
-      <c s="24" r="E13" t="s"/>
-      <c s="24" r="F13" t="s">
+      <c s="22" r="D13" t="s"/>
+      <c s="22" r="E13" t="s"/>
+      <c s="22" r="F13" t="s">
         <v>65</v>
       </c>
-      <c s="24" r="G13" t="s"/>
-      <c s="19" r="H13" t="s"/>
-      <c s="20" r="I13" t="s"/>
-      <c s="21" r="J13" t="s"/>
-      <c s="20" r="K13" t="s"/>
-      <c s="21" r="L13" t="s"/>
+      <c s="22" r="G13" t="s"/>
+      <c s="22" r="H13" t="s"/>
+      <c s="18" r="I13" t="s"/>
+      <c s="19" r="J13" t="s"/>
+      <c s="18" r="K13" t="s"/>
+      <c s="19" r="L13" t="s"/>
     </row>
     <row r="14" spans="1:12">
       <c s="1" r="A14" t="n">
@@ -3563,15 +3561,17 @@
       <c s="2" r="C14" t="n">
         <v>0.6145833333333334</v>
       </c>
-      <c s="24" r="D14" t="s"/>
-      <c s="24" r="E14" t="s"/>
-      <c s="24" r="F14" t="s"/>
-      <c s="24" r="G14" t="s"/>
-      <c s="19" r="H14" t="s"/>
-      <c s="20" r="I14" t="s"/>
-      <c s="21" r="J14" t="s"/>
-      <c s="20" r="K14" t="s"/>
-      <c s="21" r="L14" t="s"/>
+      <c s="17" r="D14" t="s"/>
+      <c s="17" r="E14" t="s"/>
+      <c s="17" r="F14" t="s">
+        <v>65</v>
+      </c>
+      <c s="17" r="G14" t="s"/>
+      <c s="17" r="H14" t="s"/>
+      <c s="18" r="I14" t="s"/>
+      <c s="19" r="J14" t="s"/>
+      <c s="18" r="K14" t="s"/>
+      <c s="19" r="L14" t="s"/>
     </row>
     <row r="15" spans="1:12">
       <c s="1" r="A15" t="n">
@@ -3583,17 +3583,15 @@
       <c s="2" r="C15" t="n">
         <v>0.6493055555555556</v>
       </c>
-      <c s="24" r="D15" t="s"/>
-      <c s="24" r="E15" t="s">
-        <v>64</v>
-      </c>
-      <c s="24" r="F15" t="s"/>
-      <c s="24" r="G15" t="s"/>
-      <c s="19" r="H15" t="s"/>
-      <c s="20" r="I15" t="s"/>
-      <c s="21" r="J15" t="s"/>
-      <c s="20" r="K15" t="s"/>
-      <c s="21" r="L15" t="s"/>
+      <c s="17" r="D15" t="s"/>
+      <c s="17" r="E15" t="s"/>
+      <c s="17" r="F15" t="s"/>
+      <c s="17" r="G15" t="s"/>
+      <c s="17" r="H15" t="s"/>
+      <c s="18" r="I15" t="s"/>
+      <c s="19" r="J15" t="s"/>
+      <c s="18" r="K15" t="s"/>
+      <c s="19" r="L15" t="s"/>
     </row>
     <row r="16" spans="1:12">
       <c s="1" r="A16" t="n">
@@ -3605,17 +3603,15 @@
       <c s="2" r="C16" t="n">
         <v>0.6840277777777778</v>
       </c>
-      <c s="24" r="D16" t="s"/>
-      <c s="24" r="E16" t="s">
-        <v>66</v>
-      </c>
-      <c s="24" r="F16" t="s"/>
-      <c s="24" r="G16" t="s"/>
-      <c s="19" r="H16" t="s"/>
-      <c s="20" r="I16" t="s"/>
-      <c s="21" r="J16" t="s"/>
-      <c s="20" r="K16" t="s"/>
-      <c s="21" r="L16" t="s"/>
+      <c s="17" r="D16" t="s"/>
+      <c s="17" r="E16" t="s"/>
+      <c s="17" r="F16" t="s"/>
+      <c s="17" r="G16" t="s"/>
+      <c s="17" r="H16" t="s"/>
+      <c s="18" r="I16" t="s"/>
+      <c s="19" r="J16" t="s"/>
+      <c s="18" r="K16" t="s"/>
+      <c s="19" r="L16" t="s"/>
     </row>
     <row r="17" spans="1:12">
       <c s="1" r="A17" t="n">
@@ -3627,17 +3623,17 @@
       <c s="2" r="C17" t="n">
         <v>0.71875</v>
       </c>
-      <c s="24" r="D17" t="s"/>
-      <c s="24" r="E17" t="s">
-        <v>61</v>
-      </c>
-      <c s="24" r="F17" t="s"/>
-      <c s="24" r="G17" t="s"/>
-      <c s="19" r="H17" t="s"/>
-      <c s="20" r="I17" t="s"/>
-      <c s="21" r="J17" t="s"/>
-      <c s="20" r="K17" t="s"/>
-      <c s="21" r="L17" t="s"/>
+      <c s="17" r="D17" t="s"/>
+      <c s="17" r="E17" t="s"/>
+      <c s="17" r="F17" t="s">
+        <v>69</v>
+      </c>
+      <c s="17" r="G17" t="s"/>
+      <c s="17" r="H17" t="s"/>
+      <c s="18" r="I17" t="s"/>
+      <c s="19" r="J17" t="s"/>
+      <c s="18" r="K17" t="s"/>
+      <c s="19" r="L17" t="s"/>
     </row>
     <row r="18" spans="1:12">
       <c s="1" r="A18" t="n">
@@ -3649,17 +3645,15 @@
       <c s="2" r="C18" t="n">
         <v>0.7534722222222222</v>
       </c>
-      <c s="24" r="D18" t="s">
-        <v>66</v>
-      </c>
-      <c s="24" r="E18" t="s"/>
-      <c s="24" r="F18" t="s"/>
-      <c s="24" r="G18" t="s"/>
-      <c s="19" r="H18" t="s"/>
-      <c s="20" r="I18" t="s"/>
-      <c s="21" r="J18" t="s"/>
-      <c s="20" r="K18" t="s"/>
-      <c s="21" r="L18" t="s"/>
+      <c s="17" r="D18" t="s"/>
+      <c s="17" r="E18" t="s"/>
+      <c s="17" r="F18" t="s"/>
+      <c s="17" r="G18" t="s"/>
+      <c s="17" r="H18" t="s"/>
+      <c s="18" r="I18" t="s"/>
+      <c s="19" r="J18" t="s"/>
+      <c s="18" r="K18" t="s"/>
+      <c s="19" r="L18" t="s"/>
     </row>
     <row r="19" spans="1:12">
       <c s="1" r="A19" t="n">
@@ -3671,21 +3665,15 @@
       <c s="2" r="C19" t="n">
         <v>0.7881944444444444</v>
       </c>
-      <c s="24" r="D19" t="s"/>
-      <c s="24" r="E19" t="s">
-        <v>65</v>
-      </c>
-      <c s="24" r="F19" t="s">
-        <v>63</v>
-      </c>
-      <c s="24" r="G19" t="s">
-        <v>61</v>
-      </c>
-      <c s="19" r="H19" t="s"/>
-      <c s="20" r="I19" t="s"/>
-      <c s="21" r="J19" t="s"/>
-      <c s="20" r="K19" t="s"/>
-      <c s="21" r="L19" t="s"/>
+      <c s="17" r="D19" t="s"/>
+      <c s="17" r="E19" t="s"/>
+      <c s="17" r="F19" t="s"/>
+      <c s="17" r="G19" t="s"/>
+      <c s="17" r="H19" t="s"/>
+      <c s="18" r="I19" t="s"/>
+      <c s="19" r="J19" t="s"/>
+      <c s="18" r="K19" t="s"/>
+      <c s="19" r="L19" t="s"/>
     </row>
     <row r="20" spans="1:12">
       <c s="1" r="A20" t="n">
@@ -3697,15 +3685,15 @@
       <c s="2" r="C20" t="n">
         <v>0.8229166666666666</v>
       </c>
-      <c s="24" r="D20" t="s"/>
-      <c s="24" r="E20" t="s"/>
-      <c s="24" r="F20" t="s"/>
-      <c s="24" r="G20" t="s"/>
-      <c s="19" r="H20" t="s"/>
-      <c s="20" r="I20" t="s"/>
-      <c s="21" r="J20" t="s"/>
-      <c s="20" r="K20" t="s"/>
-      <c s="21" r="L20" t="s"/>
+      <c s="17" r="D20" t="s"/>
+      <c s="17" r="E20" t="s"/>
+      <c s="17" r="F20" t="s"/>
+      <c s="17" r="G20" t="s"/>
+      <c s="17" r="H20" t="s"/>
+      <c s="18" r="I20" t="s"/>
+      <c s="19" r="J20" t="s"/>
+      <c s="18" r="K20" t="s"/>
+      <c s="19" r="L20" t="s"/>
     </row>
     <row r="21" spans="1:12">
       <c s="1" r="A21" t="n">
@@ -3717,15 +3705,15 @@
       <c s="2" r="C21" t="n">
         <v>0.8576388888888888</v>
       </c>
-      <c s="24" r="D21" t="s"/>
-      <c s="24" r="E21" t="s"/>
-      <c s="24" r="F21" t="s"/>
-      <c s="24" r="G21" t="s"/>
-      <c s="19" r="H21" t="s"/>
-      <c s="20" r="I21" t="s"/>
-      <c s="21" r="J21" t="s"/>
-      <c s="20" r="K21" t="s"/>
-      <c s="21" r="L21" t="s"/>
+      <c s="17" r="D21" t="s"/>
+      <c s="17" r="E21" t="s"/>
+      <c s="17" r="F21" t="s"/>
+      <c s="17" r="G21" t="s"/>
+      <c s="17" r="H21" t="s"/>
+      <c s="18" r="I21" t="s"/>
+      <c s="19" r="J21" t="s"/>
+      <c s="18" r="K21" t="s"/>
+      <c s="19" r="L21" t="s"/>
     </row>
     <row customHeight="1" s="12" r="22" ht="15.75" spans="1:12">
       <c s="1" r="A22" t="n">
@@ -3737,15 +3725,15 @@
       <c s="2" r="C22" t="n">
         <v>0.8854166666666666</v>
       </c>
-      <c s="24" r="D22" t="s"/>
-      <c s="24" r="E22" t="s"/>
-      <c s="24" r="F22" t="s"/>
-      <c s="24" r="G22" t="s"/>
-      <c s="19" r="H22" t="s"/>
-      <c s="20" r="I22" t="s"/>
-      <c s="21" r="J22" t="s"/>
-      <c s="20" r="K22" t="s"/>
-      <c s="21" r="L22" t="s"/>
+      <c s="17" r="D22" t="s"/>
+      <c s="17" r="E22" t="s"/>
+      <c s="17" r="F22" t="s"/>
+      <c s="17" r="G22" t="s"/>
+      <c s="17" r="H22" t="s"/>
+      <c s="18" r="I22" t="s"/>
+      <c s="19" r="J22" t="s"/>
+      <c s="18" r="K22" t="s"/>
+      <c s="19" r="L22" t="s"/>
     </row>
     <row customHeight="1" s="12" r="25" ht="27" spans="1:12"/>
     <row customHeight="1" s="12" r="26" ht="31.5" spans="1:12"/>

--- a/Proyecto/data/horarioProfesores.xlsx
+++ b/Proyecto/data/horarioProfesores.xlsx
@@ -66,169 +66,169 @@
     <t>Profesor4_Apellido1A</t>
   </si>
   <si>
+    <t>11IE2010</t>
+  </si>
+  <si>
+    <t>Profesor4_Apellido1Apellido2</t>
+  </si>
+  <si>
+    <t>11IE2009</t>
+  </si>
+  <si>
+    <t>30IE2010</t>
+  </si>
+  <si>
     <t>21IE3028</t>
   </si>
   <si>
+    <t>10IE2011</t>
+  </si>
+  <si>
+    <t>MaurucioRodrigo_Apel</t>
+  </si>
+  <si>
+    <t>12IE3028</t>
+  </si>
+  <si>
+    <t>MaurucioRodrigo_Apellido1Apellido2</t>
+  </si>
+  <si>
+    <t>21IE2009</t>
+  </si>
+  <si>
+    <t>22IE2009</t>
+  </si>
+  <si>
+    <t>12IE2013</t>
+  </si>
+  <si>
+    <t>11IE3049</t>
+  </si>
+  <si>
+    <t>11IE2008</t>
+  </si>
+  <si>
+    <t>12IE2009</t>
+  </si>
+  <si>
+    <t>10IE3028</t>
+  </si>
+  <si>
+    <t>12IE2013, 11IE3049, 21IE3028</t>
+  </si>
+  <si>
+    <t>20IE2009</t>
+  </si>
+  <si>
+    <t>21IE2009, 11IE2008</t>
+  </si>
+  <si>
+    <t>12IE2013, 12IE2013</t>
+  </si>
+  <si>
+    <t>20IE3028</t>
+  </si>
+  <si>
+    <t>12IE2009, 12IE2009</t>
+  </si>
+  <si>
+    <t>22IE2009, 22IE2009</t>
+  </si>
+  <si>
+    <t>12IE3028, 22IE2009, 10IE3028</t>
+  </si>
+  <si>
+    <t>21IE3028, 20IE3028</t>
+  </si>
+  <si>
+    <t>profesor5_Apellido1A</t>
+  </si>
+  <si>
+    <t>31IE2009</t>
+  </si>
+  <si>
     <t>21IE2010</t>
   </si>
   <si>
-    <t>Profesor4_Apellido1Apellido2</t>
+    <t>profesor5_Apellido1Apellido2</t>
+  </si>
+  <si>
+    <t>11IE2011</t>
+  </si>
+  <si>
+    <t>31IE2010</t>
   </si>
   <si>
     <t>22IE2010</t>
   </si>
   <si>
+    <t>12IE2011</t>
+  </si>
+  <si>
+    <t>DiegoPablo_RegaladoS</t>
+  </si>
+  <si>
     <t>11IE3028</t>
   </si>
   <si>
+    <t>DiegoPablo_RegaladoSamayoa</t>
+  </si>
+  <si>
+    <t>11IE3048</t>
+  </si>
+  <si>
+    <t>32IE2010</t>
+  </si>
+  <si>
+    <t>10IE2010</t>
+  </si>
+  <si>
+    <t>30IE2009</t>
+  </si>
+  <si>
+    <t>10IE2008</t>
+  </si>
+  <si>
+    <t>21IE3028, 10IE2008</t>
+  </si>
+  <si>
+    <t>11IE3028, 11IE3028</t>
+  </si>
+  <si>
+    <t>profesor1_apellidoap</t>
+  </si>
+  <si>
+    <t>12IE2010</t>
+  </si>
+  <si>
+    <t>profesor1_apellidoapellido2</t>
+  </si>
+  <si>
+    <t>11IE2013</t>
+  </si>
+  <si>
     <t>20IE2010</t>
   </si>
   <si>
-    <t>30IE2010</t>
+    <t>10IE3048</t>
+  </si>
+  <si>
+    <t>10IE2016</t>
+  </si>
+  <si>
+    <t>10IE2013</t>
   </si>
   <si>
     <t>10IE3049</t>
   </si>
   <si>
-    <t>22IE2010, 10IE3049</t>
-  </si>
-  <si>
-    <t>11IE3028, 11IE3028</t>
-  </si>
-  <si>
-    <t>MaurucioRodrigo_Apel</t>
-  </si>
-  <si>
-    <t>21IE2009</t>
-  </si>
-  <si>
-    <t>MaurucioRodrigo_Apellido1Apellido2</t>
-  </si>
-  <si>
-    <t>22IE2009</t>
-  </si>
-  <si>
-    <t>11IE2013</t>
-  </si>
-  <si>
-    <t>31IE2009</t>
-  </si>
-  <si>
-    <t>11IE2008</t>
-  </si>
-  <si>
-    <t>12IE2009</t>
-  </si>
-  <si>
-    <t>11IE2009</t>
-  </si>
-  <si>
-    <t>10IE3028</t>
-  </si>
-  <si>
-    <t>31IE2009, 21IE3028</t>
-  </si>
-  <si>
-    <t>20IE2009</t>
-  </si>
-  <si>
-    <t>21IE3028, 20IE2009</t>
-  </si>
-  <si>
-    <t>22IE2009, 12IE2009</t>
-  </si>
-  <si>
-    <t>11IE2013, 31IE2009</t>
-  </si>
-  <si>
-    <t>11IE2008, 11IE2009, 10IE2011</t>
-  </si>
-  <si>
-    <t>10IE2011</t>
-  </si>
-  <si>
-    <t>20IE3028</t>
-  </si>
-  <si>
-    <t>21IE2009, 11IE2013</t>
-  </si>
-  <si>
-    <t>profesor5_Apellido1A</t>
-  </si>
-  <si>
-    <t>11IE2010</t>
-  </si>
-  <si>
-    <t>12IE2010</t>
-  </si>
-  <si>
-    <t>12IE3028</t>
-  </si>
-  <si>
-    <t>profesor5_Apellido1Apellido2</t>
-  </si>
-  <si>
-    <t>12IE2011</t>
-  </si>
-  <si>
-    <t>12IE2013</t>
-  </si>
-  <si>
-    <t>11IE3049</t>
-  </si>
-  <si>
-    <t>10IE3048</t>
-  </si>
-  <si>
-    <t>12IE3028, 11IE3049</t>
-  </si>
-  <si>
-    <t>DiegoPablo_RegaladoS</t>
-  </si>
-  <si>
-    <t>11IE3048</t>
-  </si>
-  <si>
-    <t>DiegoPablo_RegaladoSamayoa</t>
-  </si>
-  <si>
-    <t>31IE2010</t>
-  </si>
-  <si>
-    <t>11IE2011</t>
-  </si>
-  <si>
-    <t>10IE2013</t>
-  </si>
-  <si>
-    <t>30IE2009</t>
-  </si>
-  <si>
-    <t>10IE2008</t>
-  </si>
-  <si>
     <t>10IE2009</t>
   </si>
   <si>
-    <t>11IE2011, 10IE2013</t>
-  </si>
-  <si>
-    <t>profesor1_apellidoap</t>
-  </si>
-  <si>
-    <t>32IE2010</t>
-  </si>
-  <si>
-    <t>profesor1_apellidoapellido2</t>
-  </si>
-  <si>
-    <t>10IE2016</t>
-  </si>
-  <si>
-    <t>10IE2010</t>
-  </si>
-  <si>
-    <t>32IE2010, 10IE2010</t>
+    <t>12IE2010, 11IE2013, 11IE2013</t>
+  </si>
+  <si>
+    <t>21IE3028, 10IE3049</t>
   </si>
 </sst>
 </file>
@@ -1273,20 +1273,16 @@
       <c s="2" r="C5" t="n">
         <v>0.3229166666666667</v>
       </c>
-      <c s="22" r="D5" t="s">
-        <v>15</v>
-      </c>
+      <c s="22" r="D5" t="s"/>
       <c s="22" r="E5" t="s"/>
       <c s="22" r="F5" t="s"/>
       <c s="22" r="G5" t="s"/>
-      <c s="22" r="H5" t="s">
+      <c s="22" r="H5" t="s"/>
+      <c s="18" r="I5" t="s">
         <v>15</v>
       </c>
-      <c s="18" r="I5" t="s">
+      <c s="19" r="J5" t="s">
         <v>16</v>
-      </c>
-      <c s="19" r="J5" t="s">
-        <v>17</v>
       </c>
       <c s="18" r="K5" t="s"/>
       <c s="19" r="L5" t="s"/>
@@ -1301,20 +1297,16 @@
       <c s="2" r="C6" t="n">
         <v>0.3576388888888889</v>
       </c>
-      <c s="22" r="D6" t="s">
-        <v>18</v>
-      </c>
+      <c s="22" r="D6" t="s"/>
       <c s="22" r="E6" t="s"/>
       <c s="22" r="F6" t="s"/>
       <c s="22" r="G6" t="s"/>
-      <c s="22" r="H6" t="s">
-        <v>15</v>
-      </c>
+      <c s="22" r="H6" t="s"/>
       <c s="18" r="I6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c s="19" r="J6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c s="18" r="K6" t="s"/>
       <c s="19" r="L6" t="s"/>
@@ -1329,22 +1321,16 @@
       <c s="2" r="C7" t="n">
         <v>0.3923611111111111</v>
       </c>
-      <c s="22" r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c s="22" r="E7" t="s">
-        <v>16</v>
-      </c>
+      <c s="22" r="D7" t="s"/>
+      <c s="22" r="E7" t="s"/>
       <c s="22" r="F7" t="s"/>
       <c s="22" r="G7" t="s"/>
-      <c s="22" r="H7" t="s">
-        <v>15</v>
-      </c>
+      <c s="22" r="H7" t="s"/>
       <c s="18" r="I7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c s="19" r="J7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c s="18" r="K7" t="s"/>
       <c s="19" r="L7" t="s"/>
@@ -1361,16 +1347,18 @@
       </c>
       <c s="22" r="D8" t="s"/>
       <c s="22" r="E8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c s="22" r="F8" t="s"/>
       <c s="22" r="G8" t="s"/>
-      <c s="22" r="H8" t="s"/>
+      <c s="22" r="H8" t="s">
+        <v>19</v>
+      </c>
       <c s="18" r="I8" t="s">
         <v>20</v>
       </c>
       <c s="19" r="J8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c s="18" r="K8" t="s"/>
       <c s="19" r="L8" t="s"/>
@@ -1390,12 +1378,8 @@
       <c s="20" r="F9" t="s"/>
       <c s="21" r="G9" t="s"/>
       <c s="20" r="H9" t="s"/>
-      <c s="18" r="I9" t="s">
-        <v>21</v>
-      </c>
-      <c s="19" r="J9" t="s">
-        <v>17</v>
-      </c>
+      <c s="18" r="I9" t="s"/>
+      <c s="19" r="J9" t="s"/>
       <c s="18" r="K9" t="s"/>
       <c s="19" r="L9" t="s"/>
     </row>
@@ -1410,16 +1394,14 @@
         <v>0.4756944444444444</v>
       </c>
       <c s="22" r="D10" t="s"/>
-      <c s="22" r="E10" t="s"/>
+      <c s="22" r="E10" t="s">
+        <v>19</v>
+      </c>
       <c s="22" r="F10" t="s"/>
       <c s="22" r="G10" t="s"/>
       <c s="22" r="H10" t="s"/>
-      <c s="18" r="I10" t="s">
-        <v>22</v>
-      </c>
-      <c s="19" r="J10" t="s">
-        <v>17</v>
-      </c>
+      <c s="18" r="I10" t="s"/>
+      <c s="19" r="J10" t="s"/>
       <c s="18" r="K10" t="s"/>
       <c s="19" r="L10" t="s"/>
     </row>
@@ -1473,12 +1455,12 @@
       <c s="2" r="C13" t="n">
         <v>0.5798611111111112</v>
       </c>
-      <c s="22" r="D13" t="s">
-        <v>15</v>
-      </c>
+      <c s="22" r="D13" t="s"/>
       <c s="22" r="E13" t="s"/>
       <c s="22" r="F13" t="s"/>
-      <c s="22" r="G13" t="s"/>
+      <c s="22" r="G13" t="s">
+        <v>15</v>
+      </c>
       <c s="22" r="H13" t="s"/>
       <c s="18" r="I13" t="s"/>
       <c s="19" r="J13" t="s"/>
@@ -1495,13 +1477,13 @@
       <c s="2" r="C14" t="n">
         <v>0.6145833333333334</v>
       </c>
-      <c s="17" r="D14" t="s">
-        <v>23</v>
-      </c>
+      <c s="17" r="D14" t="s"/>
       <c s="17" r="E14" t="s"/>
       <c s="17" r="F14" t="s"/>
       <c s="17" r="G14" t="s"/>
-      <c s="17" r="H14" t="s"/>
+      <c s="17" r="H14" t="s">
+        <v>15</v>
+      </c>
       <c s="18" r="I14" t="s"/>
       <c s="19" r="J14" t="s"/>
       <c s="18" r="K14" t="s"/>
@@ -1517,12 +1499,14 @@
       <c s="2" r="C15" t="n">
         <v>0.6493055555555556</v>
       </c>
-      <c s="17" r="D15" t="s">
-        <v>18</v>
-      </c>
-      <c s="17" r="E15" t="s"/>
+      <c s="17" r="D15" t="s"/>
+      <c s="17" r="E15" t="s">
+        <v>19</v>
+      </c>
       <c s="17" r="F15" t="s"/>
-      <c s="17" r="G15" t="s"/>
+      <c s="17" r="G15" t="s">
+        <v>17</v>
+      </c>
       <c s="17" r="H15" t="s"/>
       <c s="18" r="I15" t="s"/>
       <c s="19" r="J15" t="s"/>
@@ -1540,9 +1524,7 @@
         <v>0.6840277777777778</v>
       </c>
       <c s="17" r="D16" t="s"/>
-      <c s="17" r="E16" t="s">
-        <v>16</v>
-      </c>
+      <c s="17" r="E16" t="s"/>
       <c s="17" r="F16" t="s"/>
       <c s="17" r="G16" t="s"/>
       <c s="17" r="H16" t="s"/>
@@ -1581,9 +1563,7 @@
       <c s="2" r="C18" t="n">
         <v>0.7534722222222222</v>
       </c>
-      <c s="17" r="D18" t="s">
-        <v>15</v>
-      </c>
+      <c s="17" r="D18" t="s"/>
       <c s="17" r="E18" t="s"/>
       <c s="17" r="F18" t="s"/>
       <c s="17" r="G18" t="s"/>
@@ -1604,9 +1584,7 @@
         <v>0.7881944444444444</v>
       </c>
       <c s="17" r="D19" t="s"/>
-      <c s="17" r="E19" t="s">
-        <v>24</v>
-      </c>
+      <c s="17" r="E19" t="s"/>
       <c s="17" r="F19" t="s"/>
       <c s="17" r="G19" t="s"/>
       <c s="17" r="H19" t="s"/>
@@ -1626,9 +1604,13 @@
         <v>0.8229166666666666</v>
       </c>
       <c s="17" r="D20" t="s"/>
-      <c s="17" r="E20" t="s"/>
+      <c s="17" r="E20" t="s">
+        <v>15</v>
+      </c>
       <c s="17" r="F20" t="s"/>
-      <c s="17" r="G20" t="s"/>
+      <c s="17" r="G20" t="s">
+        <v>17</v>
+      </c>
       <c s="17" r="H20" t="s"/>
       <c s="18" r="I20" t="s"/>
       <c s="19" r="J20" t="s"/>
@@ -1645,9 +1627,7 @@
       <c s="2" r="C21" t="n">
         <v>0.8576388888888888</v>
       </c>
-      <c s="17" r="D21" t="s">
-        <v>15</v>
-      </c>
+      <c s="17" r="D21" t="s"/>
       <c s="17" r="E21" t="s">
         <v>19</v>
       </c>
@@ -1672,7 +1652,9 @@
       <c s="17" r="D22" t="s"/>
       <c s="17" r="E22" t="s"/>
       <c s="17" r="F22" t="s"/>
-      <c s="17" r="G22" t="s"/>
+      <c s="17" r="G22" t="s">
+        <v>17</v>
+      </c>
       <c s="17" r="H22" t="s"/>
       <c s="18" r="I22" t="s"/>
       <c s="19" r="J22" t="s"/>
@@ -1728,7 +1710,7 @@
         <v>2</v>
       </c>
       <c s="16" r="E2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c s="11" r="I2" t="s">
         <v>4</v>
@@ -1786,10 +1768,10 @@
       <c s="17" r="G5" t="s"/>
       <c s="17" r="H5" t="s"/>
       <c s="18" r="I5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c s="19" r="J5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c s="18" r="K5" t="s"/>
       <c s="19" r="L5" t="s"/>
@@ -1810,10 +1792,10 @@
       <c s="17" r="G6" t="s"/>
       <c s="17" r="H6" t="s"/>
       <c s="18" r="I6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c s="19" r="J6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c s="18" r="K6" t="s"/>
       <c s="19" r="L6" t="s"/>
@@ -1834,10 +1816,10 @@
       <c s="17" r="G7" t="s"/>
       <c s="17" r="H7" t="s"/>
       <c s="18" r="I7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c s="19" r="J7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c s="18" r="K7" t="s"/>
       <c s="19" r="L7" t="s"/>
@@ -1858,10 +1840,10 @@
       <c s="17" r="G8" t="s"/>
       <c s="17" r="H8" t="s"/>
       <c s="18" r="I8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c s="19" r="J8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c s="18" r="K8" t="s"/>
       <c s="19" r="L8" t="s"/>
@@ -1882,10 +1864,10 @@
       <c s="21" r="G9" t="s"/>
       <c s="20" r="H9" t="s"/>
       <c s="18" r="I9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c s="19" r="J9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c s="18" r="K9" t="s"/>
       <c s="19" r="L9" t="s"/>
@@ -1900,20 +1882,16 @@
       <c s="2" r="C10" t="n">
         <v>0.4756944444444444</v>
       </c>
-      <c s="17" r="D10" t="s">
-        <v>26</v>
-      </c>
+      <c s="17" r="D10" t="s"/>
       <c s="17" r="E10" t="s"/>
       <c s="17" r="F10" t="s"/>
       <c s="17" r="G10" t="s"/>
-      <c s="17" r="H10" t="s">
-        <v>15</v>
-      </c>
+      <c s="17" r="H10" t="s"/>
       <c s="18" r="I10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c s="19" r="J10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c s="18" r="K10" t="s"/>
       <c s="19" r="L10" t="s"/>
@@ -1934,10 +1912,10 @@
       <c s="17" r="G11" t="s"/>
       <c s="17" r="H11" t="s"/>
       <c s="18" r="I11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c s="19" r="J11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c s="18" r="K11" t="s"/>
       <c s="19" r="L11" t="s"/>
@@ -1958,10 +1936,10 @@
       <c s="17" r="G12" t="s"/>
       <c s="17" r="H12" t="s"/>
       <c s="18" r="I12" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c s="19" r="J12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c s="18" r="K12" t="s"/>
       <c s="19" r="L12" t="s"/>
@@ -1978,16 +1956,16 @@
       </c>
       <c s="22" r="D13" t="s"/>
       <c s="22" r="E13" t="s"/>
-      <c s="22" r="F13" t="s">
+      <c s="22" r="F13" t="s"/>
+      <c s="22" r="G13" t="s"/>
+      <c s="22" r="H13" t="s">
+        <v>29</v>
+      </c>
+      <c s="18" r="I13" t="s">
         <v>30</v>
       </c>
-      <c s="22" r="G13" t="s"/>
-      <c s="22" r="H13" t="s"/>
-      <c s="18" r="I13" t="s">
-        <v>34</v>
-      </c>
       <c s="19" r="J13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c s="18" r="K13" t="s"/>
       <c s="19" r="L13" t="s"/>
@@ -2003,23 +1981,17 @@
         <v>0.6145833333333334</v>
       </c>
       <c s="22" r="D14" t="s"/>
-      <c s="22" r="E14" t="s">
+      <c s="22" r="E14" t="s"/>
+      <c s="22" r="F14" t="s"/>
+      <c s="22" r="G14" t="s"/>
+      <c s="22" r="H14" t="s">
+        <v>31</v>
+      </c>
+      <c s="18" r="I14" t="s">
         <v>32</v>
       </c>
-      <c s="22" r="F14" t="s">
-        <v>35</v>
-      </c>
-      <c s="22" r="G14" t="s">
-        <v>29</v>
-      </c>
-      <c s="22" r="H14" t="s">
-        <v>33</v>
-      </c>
-      <c s="18" r="I14" t="s">
-        <v>36</v>
-      </c>
       <c s="19" r="J14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c s="18" r="K14" t="s"/>
       <c s="19" r="L14" t="s"/>
@@ -2034,24 +2006,20 @@
       <c s="2" r="C15" t="n">
         <v>0.6493055555555556</v>
       </c>
-      <c s="22" r="D15" t="s">
-        <v>37</v>
-      </c>
-      <c s="22" r="E15" t="s">
-        <v>38</v>
-      </c>
-      <c s="22" r="F15" t="s">
-        <v>39</v>
-      </c>
-      <c s="22" r="G15" t="s"/>
+      <c s="22" r="D15" t="s"/>
+      <c s="22" r="E15" t="s"/>
+      <c s="22" r="F15" t="s"/>
+      <c s="22" r="G15" t="s">
+        <v>33</v>
+      </c>
       <c s="22" r="H15" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c s="18" r="I15" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c s="19" r="J15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c s="18" r="K15" t="s"/>
       <c s="19" r="L15" t="s"/>
@@ -2067,24 +2035,20 @@
         <v>0.6840277777777778</v>
       </c>
       <c s="22" r="D16" t="s">
+        <v>36</v>
+      </c>
+      <c s="22" r="E16" t="s">
         <v>37</v>
       </c>
-      <c s="22" r="E16" t="s">
-        <v>32</v>
-      </c>
-      <c s="22" r="F16" t="s">
-        <v>15</v>
-      </c>
-      <c s="22" r="G16" t="s"/>
+      <c s="22" r="F16" t="s"/>
+      <c s="22" r="G16" t="s">
+        <v>24</v>
+      </c>
       <c s="22" r="H16" t="s">
-        <v>33</v>
-      </c>
-      <c s="18" r="I16" t="s">
-        <v>42</v>
-      </c>
-      <c s="19" r="J16" t="s">
         <v>27</v>
       </c>
+      <c s="18" r="I16" t="s"/>
+      <c s="19" r="J16" t="s"/>
       <c s="18" r="K16" t="s"/>
       <c s="19" r="L16" t="s"/>
     </row>
@@ -2098,16 +2062,16 @@
       <c s="2" r="C17" t="n">
         <v>0.71875</v>
       </c>
-      <c s="22" r="D17" t="s">
-        <v>43</v>
-      </c>
+      <c s="22" r="D17" t="s"/>
       <c s="22" r="E17" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c s="22" r="F17" t="s"/>
-      <c s="22" r="G17" t="s"/>
+      <c s="22" r="G17" t="s">
+        <v>24</v>
+      </c>
       <c s="22" r="H17" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c s="18" r="I17" t="s"/>
       <c s="19" r="J17" t="s"/>
@@ -2124,17 +2088,15 @@
       <c s="2" r="C18" t="n">
         <v>0.7534722222222222</v>
       </c>
-      <c s="22" r="D18" t="s"/>
+      <c s="22" r="D18" t="s">
+        <v>28</v>
+      </c>
       <c s="22" r="E18" t="s">
-        <v>28</v>
-      </c>
-      <c s="22" r="F18" t="s">
-        <v>15</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c s="22" r="F18" t="s"/>
       <c s="22" r="G18" t="s"/>
-      <c s="22" r="H18" t="s">
-        <v>31</v>
-      </c>
+      <c s="22" r="H18" t="s"/>
       <c s="18" r="I18" t="s"/>
       <c s="19" r="J18" t="s"/>
       <c s="18" r="K18" t="s"/>
@@ -2150,13 +2112,17 @@
       <c s="2" r="C19" t="n">
         <v>0.7881944444444444</v>
       </c>
-      <c s="22" r="D19" t="s"/>
-      <c s="22" r="E19" t="s"/>
-      <c s="22" r="F19" t="s">
-        <v>15</v>
-      </c>
+      <c s="22" r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c s="22" r="E19" t="s">
+        <v>22</v>
+      </c>
+      <c s="22" r="F19" t="s"/>
       <c s="22" r="G19" t="s"/>
-      <c s="22" r="H19" t="s"/>
+      <c s="22" r="H19" t="s">
+        <v>28</v>
+      </c>
       <c s="18" r="I19" t="s"/>
       <c s="19" r="J19" t="s"/>
       <c s="18" r="K19" t="s"/>
@@ -2172,13 +2138,13 @@
       <c s="2" r="C20" t="n">
         <v>0.8229166666666666</v>
       </c>
-      <c s="22" r="D20" t="s">
-        <v>26</v>
-      </c>
+      <c s="22" r="D20" t="s"/>
       <c s="22" r="E20" t="s"/>
       <c s="22" r="F20" t="s"/>
       <c s="22" r="G20" t="s"/>
-      <c s="22" r="H20" t="s"/>
+      <c s="22" r="H20" t="s">
+        <v>19</v>
+      </c>
       <c s="18" r="I20" t="s"/>
       <c s="19" r="J20" t="s"/>
       <c s="18" r="K20" t="s"/>
@@ -2194,11 +2160,15 @@
       <c s="2" r="C21" t="n">
         <v>0.8576388888888888</v>
       </c>
-      <c s="22" r="D21" t="s"/>
+      <c s="22" r="D21" t="s">
+        <v>19</v>
+      </c>
       <c s="22" r="E21" t="s"/>
       <c s="22" r="F21" t="s"/>
       <c s="22" r="G21" t="s"/>
-      <c s="22" r="H21" t="s"/>
+      <c s="22" r="H21" t="s">
+        <v>19</v>
+      </c>
       <c s="18" r="I21" t="s"/>
       <c s="19" r="J21" t="s"/>
       <c s="18" r="K21" t="s"/>
@@ -2214,13 +2184,15 @@
       <c s="2" r="C22" t="n">
         <v>0.8854166666666666</v>
       </c>
-      <c s="22" r="D22" t="s"/>
+      <c s="22" r="D22" t="s">
+        <v>19</v>
+      </c>
       <c s="22" r="E22" t="s"/>
-      <c s="22" r="F22" t="s">
-        <v>15</v>
-      </c>
+      <c s="22" r="F22" t="s"/>
       <c s="22" r="G22" t="s"/>
-      <c s="22" r="H22" t="s"/>
+      <c s="22" r="H22" t="s">
+        <v>39</v>
+      </c>
       <c s="18" r="I22" t="s"/>
       <c s="19" r="J22" t="s"/>
       <c s="18" r="K22" t="s"/>
@@ -2275,7 +2247,7 @@
         <v>2</v>
       </c>
       <c s="16" r="E2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c s="11" r="I2" t="s">
         <v>4</v>
@@ -2329,18 +2301,16 @@
       </c>
       <c s="22" r="D5" t="s"/>
       <c s="22" r="E5" t="s">
-        <v>45</v>
-      </c>
-      <c s="22" r="F5" t="s">
-        <v>46</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c s="22" r="F5" t="s"/>
       <c s="22" r="G5" t="s"/>
       <c s="22" r="H5" t="s"/>
       <c s="18" r="I5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c s="19" r="J5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c s="18" r="K5" t="s"/>
       <c s="19" r="L5" t="s"/>
@@ -2355,7 +2325,9 @@
       <c s="2" r="C6" t="n">
         <v>0.3576388888888889</v>
       </c>
-      <c s="22" r="D6" t="s"/>
+      <c s="22" r="D6" t="s">
+        <v>44</v>
+      </c>
       <c s="22" r="E6" t="s">
         <v>45</v>
       </c>
@@ -2363,10 +2335,10 @@
       <c s="22" r="G6" t="s"/>
       <c s="22" r="H6" t="s"/>
       <c s="18" r="I6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c s="19" r="J6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c s="18" r="K6" t="s"/>
       <c s="19" r="L6" t="s"/>
@@ -2381,18 +2353,20 @@
       <c s="2" r="C7" t="n">
         <v>0.3923611111111111</v>
       </c>
-      <c s="22" r="D7" t="s"/>
-      <c s="22" r="E7" t="s"/>
-      <c s="22" r="F7" t="s">
+      <c s="22" r="D7" t="s">
         <v>46</v>
       </c>
+      <c s="22" r="E7" t="s">
+        <v>45</v>
+      </c>
+      <c s="22" r="F7" t="s"/>
       <c s="22" r="G7" t="s"/>
       <c s="22" r="H7" t="s"/>
       <c s="18" r="I7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c s="19" r="J7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c s="18" r="K7" t="s"/>
       <c s="19" r="L7" t="s"/>
@@ -2410,15 +2384,15 @@
       <c s="22" r="D8" t="s"/>
       <c s="22" r="E8" t="s"/>
       <c s="22" r="F8" t="s"/>
-      <c s="22" r="G8" t="s"/>
-      <c s="22" r="H8" t="s">
-        <v>49</v>
-      </c>
+      <c s="22" r="G8" t="s">
+        <v>47</v>
+      </c>
+      <c s="22" r="H8" t="s"/>
       <c s="18" r="I8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c s="19" r="J8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c s="18" r="K8" t="s"/>
       <c s="19" r="L8" t="s"/>
@@ -2439,10 +2413,10 @@
       <c s="21" r="G9" t="s"/>
       <c s="20" r="H9" t="s"/>
       <c s="18" r="I9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c s="19" r="J9" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c s="18" r="K9" t="s"/>
       <c s="19" r="L9" t="s"/>
@@ -2457,18 +2431,18 @@
       <c s="2" r="C10" t="n">
         <v>0.4756944444444444</v>
       </c>
-      <c s="22" r="D10" t="s"/>
-      <c s="22" r="E10" t="s">
-        <v>50</v>
-      </c>
+      <c s="22" r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c s="22" r="E10" t="s"/>
       <c s="22" r="F10" t="s"/>
       <c s="22" r="G10" t="s"/>
       <c s="22" r="H10" t="s"/>
       <c s="18" r="I10" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c s="19" r="J10" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c s="18" r="K10" t="s"/>
       <c s="19" r="L10" t="s"/>
@@ -2484,18 +2458,14 @@
         <v>0.5104166666666666</v>
       </c>
       <c s="22" r="D11" t="s"/>
-      <c s="22" r="E11" t="s"/>
+      <c s="22" r="E11" t="s">
+        <v>45</v>
+      </c>
       <c s="22" r="F11" t="s"/>
       <c s="22" r="G11" t="s"/>
-      <c s="22" r="H11" t="s">
-        <v>49</v>
-      </c>
-      <c s="18" r="I11" t="s">
-        <v>52</v>
-      </c>
-      <c s="19" r="J11" t="s">
-        <v>48</v>
-      </c>
+      <c s="22" r="H11" t="s"/>
+      <c s="18" r="I11" t="s"/>
+      <c s="19" r="J11" t="s"/>
       <c s="18" r="K11" t="s"/>
       <c s="19" r="L11" t="s"/>
     </row>
@@ -2509,13 +2479,15 @@
       <c s="2" r="C12" t="n">
         <v>0.5451388888888888</v>
       </c>
-      <c s="22" r="D12" t="s"/>
+      <c s="22" r="D12" t="s">
+        <v>46</v>
+      </c>
       <c s="22" r="E12" t="s"/>
       <c s="22" r="F12" t="s"/>
-      <c s="22" r="G12" t="s"/>
-      <c s="22" r="H12" t="s">
-        <v>49</v>
-      </c>
+      <c s="22" r="G12" t="s">
+        <v>47</v>
+      </c>
+      <c s="22" r="H12" t="s"/>
       <c s="18" r="I12" t="s"/>
       <c s="19" r="J12" t="s"/>
       <c s="18" r="K12" t="s"/>
@@ -2552,11 +2524,15 @@
         <v>0.6145833333333334</v>
       </c>
       <c s="17" r="D14" t="s">
-        <v>45</v>
-      </c>
-      <c s="17" r="E14" t="s"/>
+        <v>42</v>
+      </c>
+      <c s="17" r="E14" t="s">
+        <v>42</v>
+      </c>
       <c s="17" r="F14" t="s"/>
-      <c s="17" r="G14" t="s"/>
+      <c s="17" r="G14" t="s">
+        <v>47</v>
+      </c>
       <c s="17" r="H14" t="s"/>
       <c s="18" r="I14" t="s"/>
       <c s="19" r="J14" t="s"/>
@@ -2574,12 +2550,14 @@
         <v>0.6493055555555556</v>
       </c>
       <c s="17" r="D15" t="s"/>
-      <c s="17" r="E15" t="s"/>
-      <c s="17" r="F15" t="s">
-        <v>46</v>
-      </c>
+      <c s="17" r="E15" t="s">
+        <v>41</v>
+      </c>
+      <c s="17" r="F15" t="s"/>
       <c s="17" r="G15" t="s"/>
-      <c s="17" r="H15" t="s"/>
+      <c s="17" r="H15" t="s">
+        <v>42</v>
+      </c>
       <c s="18" r="I15" t="s"/>
       <c s="19" r="J15" t="s"/>
       <c s="18" r="K15" t="s"/>
@@ -2595,12 +2573,12 @@
       <c s="2" r="C16" t="n">
         <v>0.6840277777777778</v>
       </c>
-      <c s="17" r="D16" t="s"/>
+      <c s="17" r="D16" t="s">
+        <v>44</v>
+      </c>
       <c s="17" r="E16" t="s"/>
       <c s="17" r="F16" t="s"/>
-      <c s="17" r="G16" t="s">
-        <v>47</v>
-      </c>
+      <c s="17" r="G16" t="s"/>
       <c s="17" r="H16" t="s"/>
       <c s="18" r="I16" t="s"/>
       <c s="19" r="J16" t="s"/>
@@ -2618,7 +2596,9 @@
         <v>0.71875</v>
       </c>
       <c s="17" r="D17" t="s"/>
-      <c s="17" r="E17" t="s"/>
+      <c s="17" r="E17" t="s">
+        <v>41</v>
+      </c>
       <c s="17" r="F17" t="s"/>
       <c s="17" r="G17" t="s"/>
       <c s="17" r="H17" t="s"/>
@@ -2640,9 +2620,7 @@
       <c s="17" r="D18" t="s"/>
       <c s="17" r="E18" t="s"/>
       <c s="17" r="F18" t="s"/>
-      <c s="17" r="G18" t="s">
-        <v>51</v>
-      </c>
+      <c s="17" r="G18" t="s"/>
       <c s="17" r="H18" t="s"/>
       <c s="18" r="I18" t="s"/>
       <c s="19" r="J18" t="s"/>
@@ -2659,14 +2637,12 @@
       <c s="2" r="C19" t="n">
         <v>0.7881944444444444</v>
       </c>
-      <c s="17" r="D19" t="s"/>
-      <c s="17" r="E19" t="s">
-        <v>50</v>
-      </c>
+      <c s="17" r="D19" t="s">
+        <v>44</v>
+      </c>
+      <c s="17" r="E19" t="s"/>
       <c s="17" r="F19" t="s"/>
-      <c s="17" r="G19" t="s">
-        <v>53</v>
-      </c>
+      <c s="17" r="G19" t="s"/>
       <c s="17" r="H19" t="s"/>
       <c s="18" r="I19" t="s"/>
       <c s="19" r="J19" t="s"/>
@@ -2683,9 +2659,7 @@
       <c s="2" r="C20" t="n">
         <v>0.8229166666666666</v>
       </c>
-      <c s="17" r="D20" t="s">
-        <v>15</v>
-      </c>
+      <c s="17" r="D20" t="s"/>
       <c s="17" r="E20" t="s"/>
       <c s="17" r="F20" t="s"/>
       <c s="17" r="G20" t="s"/>
@@ -2706,13 +2680,9 @@
         <v>0.8576388888888888</v>
       </c>
       <c s="17" r="D21" t="s"/>
-      <c s="17" r="E21" t="s">
-        <v>50</v>
-      </c>
+      <c s="17" r="E21" t="s"/>
       <c s="17" r="F21" t="s"/>
-      <c s="17" r="G21" t="s">
-        <v>47</v>
-      </c>
+      <c s="17" r="G21" t="s"/>
       <c s="17" r="H21" t="s"/>
       <c s="18" r="I21" t="s"/>
       <c s="19" r="J21" t="s"/>
@@ -2732,9 +2702,7 @@
       <c s="17" r="D22" t="s"/>
       <c s="17" r="E22" t="s"/>
       <c s="17" r="F22" t="s"/>
-      <c s="17" r="G22" t="s">
-        <v>51</v>
-      </c>
+      <c s="17" r="G22" t="s"/>
       <c s="17" r="H22" t="s"/>
       <c s="18" r="I22" t="s"/>
       <c s="19" r="J22" t="s"/>
@@ -2790,7 +2758,7 @@
         <v>2</v>
       </c>
       <c s="16" r="E2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c s="11" r="I2" t="s">
         <v>4</v>
@@ -2848,10 +2816,10 @@
       <c s="17" r="G5" t="s"/>
       <c s="17" r="H5" t="s"/>
       <c s="18" r="I5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c s="19" r="J5" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c s="18" r="K5" t="s"/>
       <c s="19" r="L5" t="s"/>
@@ -2867,17 +2835,15 @@
         <v>0.3576388888888889</v>
       </c>
       <c s="17" r="D6" t="s"/>
-      <c s="17" r="E6" t="s">
-        <v>57</v>
-      </c>
+      <c s="17" r="E6" t="s"/>
       <c s="17" r="F6" t="s"/>
       <c s="17" r="G6" t="s"/>
       <c s="17" r="H6" t="s"/>
       <c s="18" r="I6" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c s="19" r="J6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c s="18" r="K6" t="s"/>
       <c s="19" r="L6" t="s"/>
@@ -2898,10 +2864,10 @@
       <c s="17" r="G7" t="s"/>
       <c s="17" r="H7" t="s"/>
       <c s="18" r="I7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c s="19" r="J7" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c s="18" r="K7" t="s"/>
       <c s="19" r="L7" t="s"/>
@@ -2916,16 +2882,18 @@
       <c s="2" r="C8" t="n">
         <v>0.4270833333333333</v>
       </c>
-      <c s="17" r="D8" t="s"/>
+      <c s="17" r="D8" t="s">
+        <v>19</v>
+      </c>
       <c s="17" r="E8" t="s"/>
       <c s="17" r="F8" t="s"/>
       <c s="17" r="G8" t="s"/>
       <c s="17" r="H8" t="s"/>
       <c s="18" r="I8" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c s="19" r="J8" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c s="18" r="K8" t="s"/>
       <c s="19" r="L8" t="s"/>
@@ -2946,10 +2914,10 @@
       <c s="21" r="G9" t="s"/>
       <c s="20" r="H9" t="s"/>
       <c s="18" r="I9" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c s="19" r="J9" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c s="18" r="K9" t="s"/>
       <c s="19" r="L9" t="s"/>
@@ -2965,17 +2933,17 @@
         <v>0.4756944444444444</v>
       </c>
       <c s="17" r="D10" t="s"/>
-      <c s="17" r="E10" t="s">
-        <v>58</v>
-      </c>
+      <c s="17" r="E10" t="s"/>
       <c s="17" r="F10" t="s"/>
-      <c s="17" r="G10" t="s"/>
+      <c s="17" r="G10" t="s">
+        <v>52</v>
+      </c>
       <c s="17" r="H10" t="s"/>
       <c s="18" r="I10" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c s="19" r="J10" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c s="18" r="K10" t="s"/>
       <c s="19" r="L10" t="s"/>
@@ -2990,21 +2958,13 @@
       <c s="2" r="C11" t="n">
         <v>0.5104166666666666</v>
       </c>
-      <c s="17" r="D11" t="s">
-        <v>57</v>
-      </c>
-      <c s="17" r="E11" t="s">
-        <v>58</v>
-      </c>
+      <c s="17" r="D11" t="s"/>
+      <c s="17" r="E11" t="s"/>
       <c s="17" r="F11" t="s"/>
       <c s="17" r="G11" t="s"/>
       <c s="17" r="H11" t="s"/>
-      <c s="18" r="I11" t="s">
-        <v>62</v>
-      </c>
-      <c s="19" r="J11" t="s">
-        <v>56</v>
-      </c>
+      <c s="18" r="I11" t="s"/>
+      <c s="19" r="J11" t="s"/>
       <c s="18" r="K11" t="s"/>
       <c s="19" r="L11" t="s"/>
     </row>
@@ -3042,9 +3002,7 @@
       <c s="22" r="E13" t="s"/>
       <c s="22" r="F13" t="s"/>
       <c s="22" r="G13" t="s"/>
-      <c s="22" r="H13" t="s">
-        <v>57</v>
-      </c>
+      <c s="22" r="H13" t="s"/>
       <c s="18" r="I13" t="s"/>
       <c s="19" r="J13" t="s"/>
       <c s="18" r="K13" t="s"/>
@@ -3061,12 +3019,16 @@
         <v>0.6145833333333334</v>
       </c>
       <c s="22" r="D14" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c s="22" r="E14" t="s"/>
-      <c s="22" r="F14" t="s"/>
+      <c s="22" r="F14" t="s">
+        <v>51</v>
+      </c>
       <c s="22" r="G14" t="s"/>
-      <c s="22" r="H14" t="s"/>
+      <c s="22" r="H14" t="s">
+        <v>19</v>
+      </c>
       <c s="18" r="I14" t="s"/>
       <c s="19" r="J14" t="s"/>
       <c s="18" r="K14" t="s"/>
@@ -3082,12 +3044,12 @@
       <c s="2" r="C15" t="n">
         <v>0.6493055555555556</v>
       </c>
-      <c s="22" r="D15" t="s"/>
+      <c s="22" r="D15" t="s">
+        <v>19</v>
+      </c>
       <c s="22" r="E15" t="s"/>
       <c s="22" r="F15" t="s"/>
-      <c s="22" r="G15" t="s">
-        <v>55</v>
-      </c>
+      <c s="22" r="G15" t="s"/>
       <c s="22" r="H15" t="s"/>
       <c s="18" r="I15" t="s"/>
       <c s="19" r="J15" t="s"/>
@@ -3106,11 +3068,9 @@
       </c>
       <c s="22" r="D16" t="s"/>
       <c s="22" r="E16" t="s">
-        <v>63</v>
-      </c>
-      <c s="22" r="F16" t="s">
-        <v>15</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c s="22" r="F16" t="s"/>
       <c s="22" r="G16" t="s"/>
       <c s="22" r="H16" t="s"/>
       <c s="18" r="I16" t="s"/>
@@ -3128,16 +3088,12 @@
       <c s="2" r="C17" t="n">
         <v>0.71875</v>
       </c>
-      <c s="22" r="D17" t="s"/>
-      <c s="22" r="E17" t="s">
-        <v>15</v>
-      </c>
-      <c s="22" r="F17" t="s">
-        <v>15</v>
-      </c>
-      <c s="22" r="G17" t="s">
-        <v>55</v>
-      </c>
+      <c s="22" r="D17" t="s">
+        <v>56</v>
+      </c>
+      <c s="22" r="E17" t="s"/>
+      <c s="22" r="F17" t="s"/>
+      <c s="22" r="G17" t="s"/>
       <c s="22" r="H17" t="s"/>
       <c s="18" r="I17" t="s"/>
       <c s="19" r="J17" t="s"/>
@@ -3154,11 +3110,11 @@
       <c s="2" r="C18" t="n">
         <v>0.7534722222222222</v>
       </c>
-      <c s="22" r="D18" t="s">
-        <v>15</v>
-      </c>
+      <c s="22" r="D18" t="s"/>
       <c s="22" r="E18" t="s"/>
-      <c s="22" r="F18" t="s"/>
+      <c s="22" r="F18" t="s">
+        <v>51</v>
+      </c>
       <c s="22" r="G18" t="s"/>
       <c s="22" r="H18" t="s"/>
       <c s="18" r="I18" t="s"/>
@@ -3177,7 +3133,9 @@
         <v>0.7881944444444444</v>
       </c>
       <c s="22" r="D19" t="s"/>
-      <c s="22" r="E19" t="s"/>
+      <c s="22" r="E19" t="s">
+        <v>49</v>
+      </c>
       <c s="22" r="F19" t="s"/>
       <c s="22" r="G19" t="s"/>
       <c s="22" r="H19" t="s"/>
@@ -3196,10 +3154,10 @@
       <c s="2" r="C20" t="n">
         <v>0.8229166666666666</v>
       </c>
-      <c s="22" r="D20" t="s"/>
-      <c s="22" r="E20" t="s">
-        <v>55</v>
-      </c>
+      <c s="22" r="D20" t="s">
+        <v>19</v>
+      </c>
+      <c s="22" r="E20" t="s"/>
       <c s="22" r="F20" t="s"/>
       <c s="22" r="G20" t="s"/>
       <c s="22" r="H20" t="s"/>
@@ -3221,10 +3179,10 @@
       <c s="22" r="D21" t="s"/>
       <c s="22" r="E21" t="s"/>
       <c s="22" r="F21" t="s"/>
-      <c s="22" r="G21" t="s"/>
-      <c s="22" r="H21" t="s">
-        <v>15</v>
-      </c>
+      <c s="22" r="G21" t="s">
+        <v>52</v>
+      </c>
+      <c s="22" r="H21" t="s"/>
       <c s="18" r="I21" t="s"/>
       <c s="19" r="J21" t="s"/>
       <c s="18" r="K21" t="s"/>
@@ -3241,16 +3199,16 @@
         <v>0.8854166666666666</v>
       </c>
       <c s="22" r="D22" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c s="22" r="E22" t="s">
-        <v>15</v>
-      </c>
-      <c s="22" r="F22" t="s"/>
+        <v>57</v>
+      </c>
+      <c s="22" r="F22" t="s">
+        <v>51</v>
+      </c>
       <c s="22" r="G22" t="s"/>
-      <c s="22" r="H22" t="s">
-        <v>15</v>
-      </c>
+      <c s="22" r="H22" t="s"/>
       <c s="18" r="I22" t="s"/>
       <c s="19" r="J22" t="s"/>
       <c s="18" r="K22" t="s"/>
@@ -3305,7 +3263,7 @@
         <v>2</v>
       </c>
       <c s="16" r="E2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c s="11" r="I2" t="s">
         <v>4</v>
@@ -3360,15 +3318,13 @@
       <c s="22" r="D5" t="s"/>
       <c s="22" r="E5" t="s"/>
       <c s="22" r="F5" t="s"/>
-      <c s="22" r="G5" t="s">
-        <v>15</v>
-      </c>
+      <c s="22" r="G5" t="s"/>
       <c s="22" r="H5" t="s"/>
       <c s="18" r="I5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c s="19" r="J5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c s="18" r="K5" t="s"/>
       <c s="19" r="L5" t="s"/>
@@ -3384,19 +3340,17 @@
         <v>0.3576388888888889</v>
       </c>
       <c s="22" r="D6" t="s"/>
-      <c s="22" r="E6" t="s"/>
-      <c s="22" r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c s="22" r="G6" t="s">
-        <v>15</v>
-      </c>
+      <c s="22" r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c s="22" r="F6" t="s"/>
+      <c s="22" r="G6" t="s"/>
       <c s="22" r="H6" t="s"/>
       <c s="18" r="I6" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c s="19" r="J6" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c s="18" r="K6" t="s"/>
       <c s="19" r="L6" t="s"/>
@@ -3415,14 +3369,14 @@
       <c s="22" r="E7" t="s"/>
       <c s="22" r="F7" t="s"/>
       <c s="22" r="G7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c s="22" r="H7" t="s"/>
       <c s="18" r="I7" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c s="19" r="J7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c s="18" r="K7" t="s"/>
       <c s="19" r="L7" t="s"/>
@@ -3442,8 +3396,12 @@
       <c s="22" r="F8" t="s"/>
       <c s="22" r="G8" t="s"/>
       <c s="22" r="H8" t="s"/>
-      <c s="18" r="I8" t="s"/>
-      <c s="19" r="J8" t="s"/>
+      <c s="18" r="I8" t="s">
+        <v>63</v>
+      </c>
+      <c s="19" r="J8" t="s">
+        <v>60</v>
+      </c>
       <c s="18" r="K8" t="s"/>
       <c s="19" r="L8" t="s"/>
     </row>
@@ -3462,8 +3420,12 @@
       <c s="20" r="F9" t="s"/>
       <c s="21" r="G9" t="s"/>
       <c s="20" r="H9" t="s"/>
-      <c s="18" r="I9" t="s"/>
-      <c s="19" r="J9" t="s"/>
+      <c s="18" r="I9" t="s">
+        <v>64</v>
+      </c>
+      <c s="19" r="J9" t="s">
+        <v>60</v>
+      </c>
       <c s="18" r="K9" t="s"/>
       <c s="19" r="L9" t="s"/>
     </row>
@@ -3478,12 +3440,18 @@
         <v>0.4756944444444444</v>
       </c>
       <c s="22" r="D10" t="s"/>
-      <c s="22" r="E10" t="s"/>
+      <c s="22" r="E10" t="s">
+        <v>19</v>
+      </c>
       <c s="22" r="F10" t="s"/>
       <c s="22" r="G10" t="s"/>
       <c s="22" r="H10" t="s"/>
-      <c s="18" r="I10" t="s"/>
-      <c s="19" r="J10" t="s"/>
+      <c s="18" r="I10" t="s">
+        <v>65</v>
+      </c>
+      <c s="19" r="J10" t="s">
+        <v>60</v>
+      </c>
       <c s="18" r="K10" t="s"/>
       <c s="19" r="L10" t="s"/>
     </row>
@@ -3497,15 +3465,21 @@
       <c s="2" r="C11" t="n">
         <v>0.5104166666666666</v>
       </c>
-      <c s="22" r="D11" t="s"/>
+      <c s="22" r="D11" t="s">
+        <v>59</v>
+      </c>
       <c s="22" r="E11" t="s"/>
-      <c s="22" r="F11" t="s">
-        <v>15</v>
-      </c>
-      <c s="22" r="G11" t="s"/>
+      <c s="22" r="F11" t="s"/>
+      <c s="22" r="G11" t="s">
+        <v>19</v>
+      </c>
       <c s="22" r="H11" t="s"/>
-      <c s="18" r="I11" t="s"/>
-      <c s="19" r="J11" t="s"/>
+      <c s="18" r="I11" t="s">
+        <v>66</v>
+      </c>
+      <c s="19" r="J11" t="s">
+        <v>60</v>
+      </c>
       <c s="18" r="K11" t="s"/>
       <c s="19" r="L11" t="s"/>
     </row>
@@ -3519,13 +3493,21 @@
       <c s="2" r="C12" t="n">
         <v>0.5451388888888888</v>
       </c>
-      <c s="22" r="D12" t="s"/>
+      <c s="22" r="D12" t="s">
+        <v>59</v>
+      </c>
       <c s="22" r="E12" t="s"/>
       <c s="22" r="F12" t="s"/>
       <c s="22" r="G12" t="s"/>
-      <c s="22" r="H12" t="s"/>
-      <c s="18" r="I12" t="s"/>
-      <c s="19" r="J12" t="s"/>
+      <c s="22" r="H12" t="s">
+        <v>19</v>
+      </c>
+      <c s="18" r="I12" t="s">
+        <v>67</v>
+      </c>
+      <c s="19" r="J12" t="s">
+        <v>60</v>
+      </c>
       <c s="18" r="K12" t="s"/>
       <c s="19" r="L12" t="s"/>
     </row>
@@ -3541,9 +3523,7 @@
       </c>
       <c s="22" r="D13" t="s"/>
       <c s="22" r="E13" t="s"/>
-      <c s="22" r="F13" t="s">
-        <v>65</v>
-      </c>
+      <c s="22" r="F13" t="s"/>
       <c s="22" r="G13" t="s"/>
       <c s="22" r="H13" t="s"/>
       <c s="18" r="I13" t="s"/>
@@ -3561,13 +3541,21 @@
       <c s="2" r="C14" t="n">
         <v>0.6145833333333334</v>
       </c>
-      <c s="17" r="D14" t="s"/>
-      <c s="17" r="E14" t="s"/>
+      <c s="17" r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c s="17" r="E14" t="s">
+        <v>19</v>
+      </c>
       <c s="17" r="F14" t="s">
-        <v>65</v>
-      </c>
-      <c s="17" r="G14" t="s"/>
-      <c s="17" r="H14" t="s"/>
+        <v>61</v>
+      </c>
+      <c s="17" r="G14" t="s">
+        <v>19</v>
+      </c>
+      <c s="17" r="H14" t="s">
+        <v>19</v>
+      </c>
       <c s="18" r="I14" t="s"/>
       <c s="19" r="J14" t="s"/>
       <c s="18" r="K14" t="s"/>
@@ -3584,7 +3572,9 @@
         <v>0.6493055555555556</v>
       </c>
       <c s="17" r="D15" t="s"/>
-      <c s="17" r="E15" t="s"/>
+      <c s="17" r="E15" t="s">
+        <v>68</v>
+      </c>
       <c s="17" r="F15" t="s"/>
       <c s="17" r="G15" t="s"/>
       <c s="17" r="H15" t="s"/>
@@ -3603,11 +3593,17 @@
       <c s="2" r="C16" t="n">
         <v>0.6840277777777778</v>
       </c>
-      <c s="17" r="D16" t="s"/>
+      <c s="17" r="D16" t="s">
+        <v>19</v>
+      </c>
       <c s="17" r="E16" t="s"/>
-      <c s="17" r="F16" t="s"/>
+      <c s="17" r="F16" t="s">
+        <v>19</v>
+      </c>
       <c s="17" r="G16" t="s"/>
-      <c s="17" r="H16" t="s"/>
+      <c s="17" r="H16" t="s">
+        <v>19</v>
+      </c>
       <c s="18" r="I16" t="s"/>
       <c s="19" r="J16" t="s"/>
       <c s="18" r="K16" t="s"/>
@@ -3623,11 +3619,11 @@
       <c s="2" r="C17" t="n">
         <v>0.71875</v>
       </c>
-      <c s="17" r="D17" t="s"/>
+      <c s="17" r="D17" t="s">
+        <v>19</v>
+      </c>
       <c s="17" r="E17" t="s"/>
-      <c s="17" r="F17" t="s">
-        <v>69</v>
-      </c>
+      <c s="17" r="F17" t="s"/>
       <c s="17" r="G17" t="s"/>
       <c s="17" r="H17" t="s"/>
       <c s="18" r="I17" t="s"/>
@@ -3707,7 +3703,9 @@
       </c>
       <c s="17" r="D21" t="s"/>
       <c s="17" r="E21" t="s"/>
-      <c s="17" r="F21" t="s"/>
+      <c s="17" r="F21" t="s">
+        <v>69</v>
+      </c>
       <c s="17" r="G21" t="s"/>
       <c s="17" r="H21" t="s"/>
       <c s="18" r="I21" t="s"/>
